--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="943">
   <si>
     <t>Term</t>
   </si>
@@ -1716,7 +1716,7 @@
     <t>Reuse</t>
   </si>
   <si>
-    <t>proposal</t>
+    <t>proposed</t>
   </si>
   <si>
     <t>Obtain / Collect</t>
@@ -1816,6 +1816,15 @@
   </si>
   <si>
     <t>svpr:Move</t>
+  </si>
+  <si>
+    <t>CrossBorderTransfer</t>
+  </si>
+  <si>
+    <t>Cross-Border Transfer</t>
+  </si>
+  <si>
+    <t>to move data from one jurisdiction (border) to another</t>
   </si>
   <si>
     <t>Transformations</t>
@@ -2489,6 +2498,21 @@
   </si>
   <si>
     <t>Processing that involves scoring of individuals</t>
+  </si>
+  <si>
+    <t>AutomatedScoringOfIndividuals</t>
+  </si>
+  <si>
+    <t>Automated Scoring of Individuals</t>
+  </si>
+  <si>
+    <t>Processing that involves automated scoring of individuals</t>
+  </si>
+  <si>
+    <t>dpv:ScoringOfIndividuals</t>
+  </si>
+  <si>
+    <t>Scoring can lead to the action being considered Decision Making if the scoring is itself a decision - see 2023-MAR-16 opinion of Advocate General on Case C 634/21. Therefore, the assessment of whether scoring was automated or not is important given the legal obligations surrounding automated decision making e.g. in GDPR</t>
   </si>
   <si>
     <t>MatchingCombining</t>
@@ -16824,9 +16848,38 @@
       <c r="B25" s="45" t="s">
         <v>491</v>
       </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="45" t="s">
         <v>492</v>
       </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
     </row>
     <row r="27">
       <c r="A27" s="69" t="s">
@@ -17476,21 +17529,57 @@
       <c r="AF42" s="19"/>
     </row>
     <row r="43">
-      <c r="A43" s="45"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="45"/>
+      <c r="A43" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>527</v>
+      </c>
+      <c r="C43" s="100" t="s">
+        <v>528</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="104"/>
       <c r="J43" s="105"/>
-      <c r="K43" s="46"/>
+      <c r="K43" s="46">
+        <v>45396.0</v>
+      </c>
       <c r="L43" s="46"/>
-      <c r="M43" s="45"/>
+      <c r="M43" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="O43" s="45"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
     </row>
     <row r="44">
-      <c r="A44" s="69" t="s">
-        <v>526</v>
-      </c>
+      <c r="A44" s="69"/>
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="45"/>
@@ -17502,56 +17591,18 @@
       <c r="O44" s="45"/>
     </row>
     <row r="45">
-      <c r="A45" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="B45" s="99" t="s">
-        <v>527</v>
-      </c>
-      <c r="C45" s="100" t="s">
-        <v>528</v>
-      </c>
-      <c r="D45" s="45" t="s">
+      <c r="A45" s="69" t="s">
         <v>529</v>
       </c>
-      <c r="E45" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="45"/>
       <c r="I45" s="104"/>
-      <c r="J45" s="106" t="s">
-        <v>451</v>
-      </c>
-      <c r="K45" s="46">
-        <v>43592.0</v>
-      </c>
+      <c r="J45" s="105"/>
+      <c r="K45" s="46"/>
       <c r="L45" s="46"/>
-      <c r="M45" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="19"/>
-      <c r="O45" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
+      <c r="M45" s="45"/>
+      <c r="O45" s="45"/>
     </row>
     <row r="46">
       <c r="A46" s="45" t="s">
@@ -17564,7 +17615,7 @@
         <v>531</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E46" s="45" t="s">
         <v>445</v>
@@ -17607,16 +17658,16 @@
     </row>
     <row r="47">
       <c r="A47" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="B47" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>534</v>
+      </c>
+      <c r="D47" s="45" t="s">
         <v>532</v>
-      </c>
-      <c r="B47" s="99" t="s">
-        <v>532</v>
-      </c>
-      <c r="C47" s="100" t="s">
-        <v>533</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>529</v>
       </c>
       <c r="E47" s="45" t="s">
         <v>445</v>
@@ -17659,16 +17710,16 @@
     </row>
     <row r="48">
       <c r="A48" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>534</v>
+        <v>535</v>
+      </c>
+      <c r="B48" s="99" t="s">
+        <v>535</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E48" s="45" t="s">
         <v>445</v>
@@ -17677,19 +17728,19 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="104"/>
-      <c r="J48" s="19"/>
+      <c r="J48" s="106" t="s">
+        <v>451</v>
+      </c>
       <c r="K48" s="46">
-        <v>44727.0</v>
-      </c>
-      <c r="L48" s="19"/>
+        <v>43592.0</v>
+      </c>
+      <c r="L48" s="46"/>
       <c r="M48" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="45" t="s">
-        <v>101</v>
-      </c>
+      <c r="N48" s="19"/>
       <c r="O48" s="47" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -17713,39 +17764,35 @@
       <c r="A49" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="45" t="s">
         <v>537</v>
       </c>
       <c r="C49" s="100" t="s">
         <v>538</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E49" s="45" t="s">
         <v>445</v>
       </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>20</v>
-      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="104"/>
-      <c r="J49" s="106" t="s">
-        <v>447</v>
-      </c>
+      <c r="J49" s="19"/>
       <c r="K49" s="46">
-        <v>43592.0</v>
-      </c>
-      <c r="L49" s="46"/>
+        <v>44727.0</v>
+      </c>
+      <c r="L49" s="19"/>
       <c r="M49" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="19"/>
+      <c r="N49" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="O49" s="47" t="s">
-        <v>448</v>
+        <v>102</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -17776,21 +17823,21 @@
         <v>541</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E50" s="45" t="s">
         <v>445</v>
       </c>
       <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="45" t="s">
         <v>542</v>
       </c>
       <c r="H50" s="45" t="s">
         <v>20</v>
       </c>
       <c r="I50" s="104"/>
-      <c r="J50" s="45" t="s">
-        <v>478</v>
+      <c r="J50" s="106" t="s">
+        <v>447</v>
       </c>
       <c r="K50" s="46">
         <v>43592.0</v>
@@ -17825,40 +17872,40 @@
       <c r="A51" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="99" t="s">
         <v>543</v>
       </c>
       <c r="C51" s="100" t="s">
         <v>544</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E51" s="45" t="s">
         <v>445</v>
       </c>
       <c r="F51" s="19"/>
-      <c r="G51" s="45" t="s">
-        <v>542</v>
+      <c r="G51" s="19" t="s">
+        <v>545</v>
       </c>
       <c r="H51" s="45" t="s">
         <v>20</v>
       </c>
       <c r="I51" s="104"/>
-      <c r="J51" s="106" t="s">
-        <v>447</v>
+      <c r="J51" s="45" t="s">
+        <v>478</v>
       </c>
       <c r="K51" s="46">
-        <v>45396.0</v>
+        <v>43592.0</v>
       </c>
       <c r="L51" s="46"/>
       <c r="M51" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="O51" s="45"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="47" t="s">
+        <v>448</v>
+      </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
@@ -17879,38 +17926,42 @@
     </row>
     <row r="52">
       <c r="A52" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>546</v>
       </c>
       <c r="C52" s="100" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E52" s="45" t="s">
         <v>445</v>
       </c>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="G52" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="I52" s="104"/>
-      <c r="J52" s="19"/>
+      <c r="J52" s="106" t="s">
+        <v>447</v>
+      </c>
       <c r="K52" s="46">
-        <v>44727.0</v>
-      </c>
-      <c r="L52" s="19"/>
+        <v>45396.0</v>
+      </c>
+      <c r="L52" s="46"/>
       <c r="M52" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N52" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="O52" s="47" t="s">
-        <v>102</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="O52" s="45"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -17931,16 +17982,16 @@
     </row>
     <row r="53">
       <c r="A53" s="45" t="s">
-        <v>547</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>548</v>
       </c>
       <c r="C53" s="100" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E53" s="45" t="s">
         <v>445</v>
@@ -17949,21 +18000,19 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="104"/>
-      <c r="J53" s="106" t="s">
-        <v>451</v>
-      </c>
+      <c r="J53" s="19"/>
       <c r="K53" s="46">
-        <v>43592.0</v>
-      </c>
-      <c r="L53" s="46">
-        <v>44848.0</v>
-      </c>
+        <v>44727.0</v>
+      </c>
+      <c r="L53" s="19"/>
       <c r="M53" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="19"/>
+      <c r="N53" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="O53" s="47" t="s">
-        <v>448</v>
+        <v>102</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -17985,16 +18034,16 @@
     </row>
     <row r="54">
       <c r="A54" s="45" t="s">
-        <v>549</v>
-      </c>
-      <c r="B54" s="99" t="s">
-        <v>549</v>
-      </c>
-      <c r="C54" s="108" t="s">
         <v>550</v>
       </c>
+      <c r="B54" s="61" t="s">
+        <v>550</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>551</v>
+      </c>
       <c r="D54" s="45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>445</v>
@@ -18009,7 +18058,9 @@
       <c r="K54" s="46">
         <v>43592.0</v>
       </c>
-      <c r="L54" s="46"/>
+      <c r="L54" s="46">
+        <v>44848.0</v>
+      </c>
       <c r="M54" s="45" t="s">
         <v>23</v>
       </c>
@@ -18037,16 +18088,16 @@
     </row>
     <row r="55">
       <c r="A55" s="45" t="s">
-        <v>551</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>551</v>
-      </c>
-      <c r="C55" s="100" t="s">
         <v>552</v>
       </c>
+      <c r="B55" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="C55" s="108" t="s">
+        <v>553</v>
+      </c>
       <c r="D55" s="45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E55" s="45" t="s">
         <v>445</v>
@@ -18055,19 +18106,19 @@
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
       <c r="I55" s="104"/>
-      <c r="J55" s="19"/>
+      <c r="J55" s="106" t="s">
+        <v>451</v>
+      </c>
       <c r="K55" s="46">
-        <v>44727.0</v>
-      </c>
-      <c r="L55" s="19"/>
+        <v>43592.0</v>
+      </c>
+      <c r="L55" s="46"/>
       <c r="M55" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="45" t="s">
-        <v>101</v>
-      </c>
+      <c r="N55" s="19"/>
       <c r="O55" s="47" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -18087,71 +18138,73 @@
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
     </row>
-    <row r="57">
-      <c r="A57" s="69" t="s">
-        <v>553</v>
-      </c>
+    <row r="56">
+      <c r="A56" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="C56" s="100" t="s">
+        <v>555</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="46">
+        <v>44727.0</v>
+      </c>
+      <c r="L56" s="19"/>
+      <c r="M56" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="O56" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
     </row>
     <row r="58">
-      <c r="A58" s="45" t="s">
-        <v>554</v>
-      </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="100" t="s">
-        <v>555</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="A58" s="69" t="s">
         <v>556</v>
       </c>
-      <c r="E58" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="109" t="s">
-        <v>557</v>
-      </c>
-      <c r="K58" s="46">
-        <v>45396.0</v>
-      </c>
-      <c r="L58" s="46"/>
-      <c r="M58" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N58" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="O58" s="45"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
     </row>
     <row r="59">
       <c r="A59" s="45" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B59" s="61"/>
       <c r="C59" s="100" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E59" s="45" t="s">
         <v>445</v>
@@ -18161,7 +18214,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="104"/>
       <c r="J59" s="109" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K59" s="46">
         <v>45396.0</v>
@@ -18171,7 +18224,7 @@
         <v>23</v>
       </c>
       <c r="N59" s="45" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O59" s="45"/>
       <c r="P59" s="19"/>
@@ -18196,14 +18249,12 @@
       <c r="A60" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="B60" s="61" t="s">
-        <v>562</v>
-      </c>
+      <c r="B60" s="61"/>
       <c r="C60" s="100" t="s">
         <v>563</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E60" s="45" t="s">
         <v>445</v>
@@ -18213,7 +18264,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="104"/>
       <c r="J60" s="109" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K60" s="46">
         <v>45396.0</v>
@@ -18223,7 +18274,7 @@
         <v>23</v>
       </c>
       <c r="N60" s="45" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O60" s="45"/>
       <c r="P60" s="19"/>
@@ -18246,16 +18297,16 @@
     </row>
     <row r="61">
       <c r="A61" s="45" t="s">
-        <v>564</v>
-      </c>
-      <c r="B61" s="99" t="s">
+        <v>565</v>
+      </c>
+      <c r="B61" s="61" t="s">
         <v>565</v>
       </c>
       <c r="C61" s="100" t="s">
         <v>566</v>
       </c>
-      <c r="D61" s="45" t="s">
-        <v>556</v>
+      <c r="D61" s="25" t="s">
+        <v>559</v>
       </c>
       <c r="E61" s="45" t="s">
         <v>445</v>
@@ -18264,20 +18315,20 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="104"/>
-      <c r="J61" s="106" t="s">
-        <v>451</v>
+      <c r="J61" s="109" t="s">
+        <v>564</v>
       </c>
       <c r="K61" s="46">
-        <v>43592.0</v>
+        <v>45396.0</v>
       </c>
       <c r="L61" s="46"/>
       <c r="M61" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="19"/>
-      <c r="O61" s="47" t="s">
-        <v>448</v>
-      </c>
+      <c r="N61" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="O61" s="45"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
@@ -18301,13 +18352,13 @@
         <v>567</v>
       </c>
       <c r="B62" s="99" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C62" s="100" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E62" s="45" t="s">
         <v>445</v>
@@ -18350,7 +18401,7 @@
     </row>
     <row r="63">
       <c r="A63" s="45" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B63" s="99" t="s">
         <v>570</v>
@@ -18359,7 +18410,7 @@
         <v>571</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E63" s="45" t="s">
         <v>445</v>
@@ -18404,14 +18455,14 @@
       <c r="A64" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="B64" s="80" t="s">
-        <v>572</v>
+      <c r="B64" s="99" t="s">
+        <v>573</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E64" s="45" t="s">
         <v>445</v>
@@ -18454,16 +18505,16 @@
     </row>
     <row r="65">
       <c r="A65" s="45" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B65" s="80" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C65" s="100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>445</v>
@@ -18504,68 +18555,68 @@
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
     </row>
-    <row r="67">
-      <c r="A67" s="69" t="s">
-        <v>576</v>
-      </c>
+    <row r="66">
+      <c r="A66" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="B66" s="80" t="s">
+        <v>577</v>
+      </c>
+      <c r="C66" s="100" t="s">
+        <v>578</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" s="46">
+        <v>43592.0</v>
+      </c>
+      <c r="L66" s="46"/>
+      <c r="M66" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="19"/>
+      <c r="O66" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
     </row>
     <row r="68">
-      <c r="A68" s="45" t="s">
-        <v>577</v>
-      </c>
-      <c r="B68" s="80" t="s">
-        <v>577</v>
-      </c>
-      <c r="C68" s="100" t="s">
-        <v>578</v>
-      </c>
-      <c r="D68" s="45" t="s">
+      <c r="A68" s="69" t="s">
         <v>579</v>
       </c>
-      <c r="E68" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="106" t="s">
-        <v>451</v>
-      </c>
-      <c r="K68" s="46">
-        <v>43592.0</v>
-      </c>
-      <c r="L68" s="46"/>
-      <c r="M68" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="19"/>
-      <c r="O68" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
     </row>
     <row r="69">
       <c r="A69" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="80" t="s">
         <v>580</v>
       </c>
       <c r="C69" s="100" t="s">
@@ -18581,20 +18632,20 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="104"/>
-      <c r="J69" s="109" t="s">
-        <v>583</v>
+      <c r="J69" s="106" t="s">
+        <v>451</v>
       </c>
       <c r="K69" s="46">
-        <v>45396.0</v>
-      </c>
-      <c r="L69" s="19"/>
+        <v>43592.0</v>
+      </c>
+      <c r="L69" s="46"/>
       <c r="M69" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N69" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="O69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="47" t="s">
+        <v>448</v>
+      </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
@@ -18615,16 +18666,16 @@
     </row>
     <row r="70">
       <c r="A70" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>583</v>
+      </c>
+      <c r="C70" s="100" t="s">
         <v>584</v>
       </c>
-      <c r="B70" s="61" t="s">
-        <v>584</v>
-      </c>
-      <c r="C70" s="100" t="s">
+      <c r="D70" s="45" t="s">
         <v>585</v>
-      </c>
-      <c r="D70" s="45" t="s">
-        <v>586</v>
       </c>
       <c r="E70" s="45" t="s">
         <v>445</v>
@@ -18634,7 +18685,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="104"/>
       <c r="J70" s="109" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K70" s="46">
         <v>45396.0</v>
@@ -18644,7 +18695,7 @@
         <v>23</v>
       </c>
       <c r="N70" s="45" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O70" s="19"/>
       <c r="P70" s="19"/>
@@ -18666,9 +18717,56 @@
       <c r="AF70" s="19"/>
     </row>
     <row r="71">
-      <c r="B71" s="80"/>
-      <c r="C71" s="110"/>
+      <c r="A71" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>587</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>588</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="104"/>
+      <c r="J71" s="109" t="s">
+        <v>586</v>
+      </c>
+      <c r="K71" s="46">
+        <v>45396.0</v>
+      </c>
+      <c r="L71" s="19"/>
+      <c r="M71" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+      <c r="AF71" s="19"/>
     </row>
     <row r="72">
       <c r="B72" s="80"/>
@@ -18676,18 +18774,18 @@
       <c r="I72" s="104"/>
     </row>
     <row r="73">
-      <c r="B73" s="99"/>
+      <c r="B73" s="80"/>
       <c r="C73" s="110"/>
       <c r="I73" s="104"/>
     </row>
     <row r="74">
-      <c r="B74" s="80"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="110"/>
       <c r="I74" s="104"/>
     </row>
     <row r="75">
       <c r="B75" s="80"/>
-      <c r="C75" s="100"/>
+      <c r="C75" s="110"/>
       <c r="I75" s="104"/>
     </row>
     <row r="76">
@@ -18702,7 +18800,7 @@
     </row>
     <row r="78">
       <c r="B78" s="80"/>
-      <c r="C78" s="110"/>
+      <c r="C78" s="100"/>
       <c r="I78" s="104"/>
     </row>
     <row r="79">
@@ -18711,14 +18809,14 @@
       <c r="I79" s="104"/>
     </row>
     <row r="80">
-      <c r="A80" s="69"/>
       <c r="B80" s="80"/>
-      <c r="C80" s="111"/>
+      <c r="C80" s="110"/>
       <c r="I80" s="104"/>
     </row>
     <row r="81">
+      <c r="A81" s="69"/>
       <c r="B81" s="80"/>
-      <c r="C81" s="100"/>
+      <c r="C81" s="111"/>
       <c r="I81" s="104"/>
     </row>
     <row r="82">
@@ -18763,7 +18861,7 @@
     </row>
     <row r="90">
       <c r="B90" s="80"/>
-      <c r="C90" s="110"/>
+      <c r="C90" s="100"/>
       <c r="I90" s="104"/>
     </row>
     <row r="91">
@@ -23367,6 +23465,7 @@
       <c r="I1010" s="104"/>
     </row>
     <row r="1011">
+      <c r="B1011" s="80"/>
       <c r="C1011" s="110"/>
       <c r="I1011" s="104"/>
     </row>
@@ -23394,23 +23493,27 @@
       <c r="C1017" s="110"/>
       <c r="I1017" s="104"/>
     </row>
+    <row r="1018">
+      <c r="C1018" s="110"/>
+      <c r="I1018" s="104"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:AB200">
+  <conditionalFormatting sqref="A3:AB201">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M3="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AB200">
+  <conditionalFormatting sqref="A3:AB201">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M3="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF200">
+  <conditionalFormatting sqref="A2:AF201">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF200">
+  <conditionalFormatting sqref="A2:AF201">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
@@ -23465,35 +23568,35 @@
     <hyperlink r:id="rId47" ref="O38"/>
     <hyperlink r:id="rId48" ref="J42"/>
     <hyperlink r:id="rId49" ref="O42"/>
-    <hyperlink r:id="rId50" ref="J45"/>
-    <hyperlink r:id="rId51" ref="O45"/>
-    <hyperlink r:id="rId52" ref="J46"/>
-    <hyperlink r:id="rId53" ref="O46"/>
-    <hyperlink r:id="rId54" ref="J47"/>
-    <hyperlink r:id="rId55" ref="O47"/>
-    <hyperlink r:id="rId56" ref="O48"/>
-    <hyperlink r:id="rId57" ref="J49"/>
-    <hyperlink r:id="rId58" ref="O49"/>
-    <hyperlink r:id="rId59" ref="O50"/>
-    <hyperlink r:id="rId60" ref="J51"/>
-    <hyperlink r:id="rId61" ref="O52"/>
-    <hyperlink r:id="rId62" ref="J53"/>
-    <hyperlink r:id="rId63" ref="O53"/>
-    <hyperlink r:id="rId64" ref="J54"/>
-    <hyperlink r:id="rId65" ref="O54"/>
-    <hyperlink r:id="rId66" ref="O55"/>
-    <hyperlink r:id="rId67" ref="J61"/>
-    <hyperlink r:id="rId68" ref="O61"/>
-    <hyperlink r:id="rId69" ref="J62"/>
-    <hyperlink r:id="rId70" ref="O62"/>
-    <hyperlink r:id="rId71" ref="J63"/>
-    <hyperlink r:id="rId72" ref="O63"/>
-    <hyperlink r:id="rId73" ref="J64"/>
-    <hyperlink r:id="rId74" ref="O64"/>
-    <hyperlink r:id="rId75" ref="J65"/>
-    <hyperlink r:id="rId76" ref="O65"/>
-    <hyperlink r:id="rId77" ref="J68"/>
-    <hyperlink r:id="rId78" ref="O68"/>
+    <hyperlink r:id="rId50" ref="J46"/>
+    <hyperlink r:id="rId51" ref="O46"/>
+    <hyperlink r:id="rId52" ref="J47"/>
+    <hyperlink r:id="rId53" ref="O47"/>
+    <hyperlink r:id="rId54" ref="J48"/>
+    <hyperlink r:id="rId55" ref="O48"/>
+    <hyperlink r:id="rId56" ref="O49"/>
+    <hyperlink r:id="rId57" ref="J50"/>
+    <hyperlink r:id="rId58" ref="O50"/>
+    <hyperlink r:id="rId59" ref="O51"/>
+    <hyperlink r:id="rId60" ref="J52"/>
+    <hyperlink r:id="rId61" ref="O53"/>
+    <hyperlink r:id="rId62" ref="J54"/>
+    <hyperlink r:id="rId63" ref="O54"/>
+    <hyperlink r:id="rId64" ref="J55"/>
+    <hyperlink r:id="rId65" ref="O55"/>
+    <hyperlink r:id="rId66" ref="O56"/>
+    <hyperlink r:id="rId67" ref="J62"/>
+    <hyperlink r:id="rId68" ref="O62"/>
+    <hyperlink r:id="rId69" ref="J63"/>
+    <hyperlink r:id="rId70" ref="O63"/>
+    <hyperlink r:id="rId71" ref="J64"/>
+    <hyperlink r:id="rId72" ref="O64"/>
+    <hyperlink r:id="rId73" ref="J65"/>
+    <hyperlink r:id="rId74" ref="O65"/>
+    <hyperlink r:id="rId75" ref="J66"/>
+    <hyperlink r:id="rId76" ref="O66"/>
+    <hyperlink r:id="rId77" ref="J69"/>
+    <hyperlink r:id="rId78" ref="O69"/>
   </hyperlinks>
   <drawing r:id="rId79"/>
 </worksheet>
@@ -23566,13 +23669,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
@@ -27639,19 +27742,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -27700,7 +27803,7 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="100"/>
@@ -27715,25 +27818,25 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B5" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>597</v>
-      </c>
-      <c r="C5" s="100" t="s">
-        <v>598</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>599</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>594</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="107" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="46">
@@ -27769,19 +27872,19 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B6" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>606</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="C6" s="100" t="s">
-        <v>603</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>599</v>
-      </c>
       <c r="E6" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -27817,25 +27920,25 @@
     </row>
     <row r="7">
       <c r="A7" s="114" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="45" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="J7" s="106" t="s">
         <v>451</v>
@@ -27850,7 +27953,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="114" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>102</v>
@@ -27886,19 +27989,19 @@
     </row>
     <row r="9">
       <c r="A9" s="69" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -27932,26 +28035,26 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="107" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J10" s="106" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K10" s="46">
         <v>45270.0</v>
@@ -27980,23 +28083,23 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="107" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="46">
@@ -28026,23 +28129,23 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D12" s="116"/>
       <c r="E12" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="107" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="46">
@@ -28072,23 +28175,23 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D13" s="116"/>
       <c r="E13" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="107" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="46">
@@ -28118,23 +28221,23 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D14" s="116"/>
       <c r="E14" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="107" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="46">
@@ -28164,23 +28267,23 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D15" s="116"/>
       <c r="E15" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="46">
@@ -28210,23 +28313,23 @@
     </row>
     <row r="16">
       <c r="A16" s="45" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D16" s="116"/>
       <c r="E16" s="116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="107" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="46">
@@ -28269,25 +28372,25 @@
     </row>
     <row r="18">
       <c r="A18" s="69" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E18" s="116" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="107" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="46">
@@ -28319,25 +28422,25 @@
     </row>
     <row r="19">
       <c r="A19" s="45" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D19" s="116" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E19" s="116" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="107" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="46">
@@ -28371,25 +28474,25 @@
     </row>
     <row r="20">
       <c r="A20" s="45" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B20" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>656</v>
+      </c>
+      <c r="E20" s="116" t="s">
         <v>651</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>652</v>
-      </c>
-      <c r="D20" s="116" t="s">
-        <v>653</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>648</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="107" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="46">
@@ -28423,25 +28526,25 @@
     </row>
     <row r="21">
       <c r="A21" s="45" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D21" s="116" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E21" s="116" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="107" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="46">
@@ -28475,23 +28578,23 @@
     </row>
     <row r="22">
       <c r="A22" s="45" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D22" s="117"/>
       <c r="E22" s="116" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="107" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="46">
@@ -28523,17 +28626,17 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="116" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -28569,23 +28672,23 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="116" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="107" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="46">
@@ -28630,25 +28733,25 @@
     </row>
     <row r="26">
       <c r="A26" s="69" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E26" s="116" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="46">
@@ -28684,23 +28787,23 @@
     </row>
     <row r="27">
       <c r="A27" s="45" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D27" s="118"/>
       <c r="E27" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="J27" s="105"/>
       <c r="K27" s="46">
@@ -28732,23 +28835,23 @@
     </row>
     <row r="28">
       <c r="A28" s="45" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D28" s="118"/>
       <c r="E28" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="107" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J28" s="105"/>
       <c r="K28" s="46">
@@ -28780,23 +28883,23 @@
     </row>
     <row r="29">
       <c r="A29" s="45" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D29" s="118"/>
       <c r="E29" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="107" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="J29" s="105"/>
       <c r="K29" s="46">
@@ -28828,23 +28931,23 @@
     </row>
     <row r="30">
       <c r="A30" s="45" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C30" s="100" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D30" s="118"/>
       <c r="E30" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="107" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="J30" s="105"/>
       <c r="K30" s="46">
@@ -28876,23 +28979,23 @@
     </row>
     <row r="31">
       <c r="A31" s="45" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D31" s="118"/>
       <c r="E31" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="107" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J31" s="105"/>
       <c r="K31" s="46">
@@ -28926,23 +29029,23 @@
     </row>
     <row r="32">
       <c r="A32" s="45" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D32" s="118"/>
       <c r="E32" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="107" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="J32" s="105"/>
       <c r="K32" s="46">
@@ -28976,23 +29079,23 @@
     </row>
     <row r="33">
       <c r="A33" s="45" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D33" s="118"/>
       <c r="E33" s="116" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="107" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J33" s="105"/>
       <c r="K33" s="46">
@@ -29026,23 +29129,23 @@
     </row>
     <row r="34">
       <c r="A34" s="45" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="107" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="J34" s="105"/>
       <c r="K34" s="46">
@@ -29086,7 +29189,7 @@
     </row>
     <row r="36">
       <c r="A36" s="69" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="100"/>
@@ -29102,16 +29205,16 @@
     </row>
     <row r="37">
       <c r="A37" s="45" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C37" s="100" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>18</v>
@@ -29120,7 +29223,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="107" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J37" s="105"/>
       <c r="K37" s="46">
@@ -29133,7 +29236,7 @@
         <v>23</v>
       </c>
       <c r="N37" s="45" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O37" s="114"/>
       <c r="P37" s="19"/>
@@ -29154,25 +29257,25 @@
     </row>
     <row r="38">
       <c r="A38" s="114" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B38" s="115" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="120" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J38" s="114"/>
       <c r="K38" s="46">
@@ -29206,16 +29309,16 @@
     </row>
     <row r="39">
       <c r="A39" s="45" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E39" s="45" t="s">
         <v>18</v>
@@ -29233,7 +29336,7 @@
         <v>23</v>
       </c>
       <c r="N39" s="45" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O39" s="114"/>
       <c r="P39" s="19"/>
@@ -29254,16 +29357,16 @@
     </row>
     <row r="40">
       <c r="A40" s="45" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B40" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="C40" s="100" t="s">
+        <v>728</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>724</v>
-      </c>
-      <c r="C40" s="100" t="s">
-        <v>725</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>721</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>18</v>
@@ -29272,7 +29375,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="107" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="J40" s="114"/>
       <c r="K40" s="46">
@@ -29283,7 +29386,7 @@
         <v>23</v>
       </c>
       <c r="N40" s="45" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O40" s="114"/>
       <c r="P40" s="19"/>
@@ -29304,16 +29407,16 @@
     </row>
     <row r="41">
       <c r="A41" s="45" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E41" s="45" t="s">
         <v>18</v>
@@ -29350,16 +29453,16 @@
     </row>
     <row r="42">
       <c r="A42" s="45" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C42" s="100" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>18</v>
@@ -29396,16 +29499,16 @@
     </row>
     <row r="43">
       <c r="A43" s="45" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C43" s="100" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>18</v>
@@ -29469,7 +29572,7 @@
     </row>
     <row r="46">
       <c r="A46" s="69" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B46" s="115"/>
       <c r="C46" s="100"/>
@@ -29485,19 +29588,19 @@
     </row>
     <row r="47">
       <c r="A47" s="114" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B47" s="115" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C47" s="100" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -29514,7 +29617,7 @@
         <v>23</v>
       </c>
       <c r="N47" s="114" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O47" s="114" t="s">
         <v>51</v>
@@ -29537,17 +29640,17 @@
     </row>
     <row r="48">
       <c r="A48" s="45" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="45" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -29587,17 +29690,17 @@
     </row>
     <row r="49">
       <c r="A49" s="45" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C49" s="100" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="45" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -29636,39 +29739,37 @@
       <c r="AD49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="114" t="s">
-        <v>747</v>
-      </c>
-      <c r="B50" s="115" t="s">
-        <v>748</v>
-      </c>
-      <c r="C50" s="111" t="s">
-        <v>749</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>599</v>
-      </c>
-      <c r="E50" s="19"/>
+      <c r="A50" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>751</v>
+      </c>
+      <c r="C50" s="100" t="s">
+        <v>752</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45" t="s">
+        <v>753</v>
+      </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="106" t="s">
-        <v>451</v>
-      </c>
+      <c r="I50" s="107" t="s">
+        <v>754</v>
+      </c>
+      <c r="J50" s="105"/>
       <c r="K50" s="46">
-        <v>44139.0</v>
+        <v>45396.0</v>
       </c>
       <c r="L50" s="46"/>
       <c r="M50" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="N50" s="114" t="s">
-        <v>609</v>
-      </c>
-      <c r="O50" s="44" t="s">
-        <v>97</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N50" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O50" s="44"/>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
@@ -29682,125 +29783,131 @@
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
       <c r="AB50" s="19"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="114" t="s">
+        <v>755</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="C51" s="111" t="s">
+        <v>757</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51" s="46">
+        <v>44139.0</v>
+      </c>
+      <c r="L51" s="46"/>
+      <c r="M51" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="N51" s="114" t="s">
+        <v>612</v>
+      </c>
+      <c r="O51" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="122" t="s">
-        <v>752</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="10">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="122" t="s">
+        <v>760</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="10">
         <v>44587.0</v>
       </c>
-      <c r="L52" s="49"/>
-      <c r="M52" s="9" t="s">
+      <c r="L53" s="49"/>
+      <c r="M53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="8" t="s">
+      <c r="N53" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O52" s="123" t="s">
-        <v>753</v>
-      </c>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="69" t="s">
-        <v>754</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>755</v>
-      </c>
-      <c r="C53" s="100" t="s">
-        <v>756</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="107" t="s">
-        <v>757</v>
-      </c>
-      <c r="J53" s="19"/>
-      <c r="K53" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L53" s="19"/>
-      <c r="M53" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
+      <c r="O53" s="123" t="s">
+        <v>761</v>
+      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
     </row>
     <row r="54">
-      <c r="A54" s="45" t="s">
-        <v>758</v>
+      <c r="A54" s="69" t="s">
+        <v>762</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C54" s="100" t="s">
-        <v>760</v>
-      </c>
-      <c r="D54" s="19"/>
+        <v>764</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>602</v>
+      </c>
       <c r="E54" s="45" t="s">
-        <v>761</v>
+        <v>597</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="104"/>
+      <c r="I54" s="107" t="s">
+        <v>765</v>
+      </c>
       <c r="J54" s="19"/>
       <c r="K54" s="46">
         <v>45270.0</v>
@@ -29828,43 +29935,33 @@
       <c r="AD54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="114" t="s">
-        <v>762</v>
-      </c>
-      <c r="B55" s="115" t="s">
-        <v>763</v>
+      <c r="A55" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>767</v>
       </c>
       <c r="C55" s="100" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D55" s="19"/>
-      <c r="E55" s="25" t="s">
-        <v>761</v>
+      <c r="E55" s="45" t="s">
+        <v>769</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="107" t="s">
-        <v>765</v>
-      </c>
-      <c r="J55" s="106" t="s">
-        <v>451</v>
-      </c>
+      <c r="I55" s="104"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="46">
-        <v>44139.0</v>
-      </c>
-      <c r="L55" s="46">
         <v>45270.0</v>
       </c>
-      <c r="M55" s="114" t="s">
+      <c r="L55" s="19"/>
+      <c r="M55" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="114" t="s">
-        <v>609</v>
-      </c>
-      <c r="O55" s="114" t="s">
-        <v>51</v>
-      </c>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -29881,76 +29978,80 @@
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
     </row>
-    <row r="57">
-      <c r="A57" s="69" t="s">
-        <v>766</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>767</v>
-      </c>
-      <c r="C57" s="45" t="s">
-        <v>768</v>
-      </c>
-      <c r="D57" s="45" t="s">
+    <row r="56">
+      <c r="A56" s="114" t="s">
+        <v>770</v>
+      </c>
+      <c r="B56" s="115" t="s">
+        <v>771</v>
+      </c>
+      <c r="C56" s="100" t="s">
+        <v>772</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="E57" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="46">
-        <v>43560.0</v>
-      </c>
-      <c r="L57" s="46"/>
-      <c r="M57" s="45" t="s">
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="107" t="s">
+        <v>773</v>
+      </c>
+      <c r="J56" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="K56" s="46">
+        <v>44139.0</v>
+      </c>
+      <c r="L56" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="M56" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="45" t="s">
-        <v>770</v>
-      </c>
-      <c r="O57" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
+      <c r="N56" s="114" t="s">
+        <v>612</v>
+      </c>
+      <c r="O56" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
     </row>
     <row r="58">
-      <c r="A58" s="45" t="s">
-        <v>771</v>
-      </c>
-      <c r="B58" s="99" t="s">
-        <v>772</v>
+      <c r="A58" s="69" t="s">
+        <v>774</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>775</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="I58" s="45"/>
       <c r="J58" s="45"/>
       <c r="K58" s="46">
         <v>43560.0</v>
@@ -29960,7 +30061,7 @@
         <v>23</v>
       </c>
       <c r="N58" s="45" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O58" s="124" t="s">
         <v>25</v>
@@ -29983,19 +30084,19 @@
     </row>
     <row r="59">
       <c r="A59" s="45" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B59" s="99" t="s">
-        <v>776</v>
-      </c>
-      <c r="C59" s="69" t="s">
-        <v>777</v>
+        <v>780</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>781</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -30010,7 +30111,7 @@
         <v>23</v>
       </c>
       <c r="N59" s="45" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O59" s="124" t="s">
         <v>25</v>
@@ -30033,19 +30134,19 @@
     </row>
     <row r="60">
       <c r="A60" s="45" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B60" s="99" t="s">
-        <v>780</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>781</v>
+        <v>784</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>785</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -30060,7 +30161,7 @@
         <v>23</v>
       </c>
       <c r="N60" s="45" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O60" s="124" t="s">
         <v>25</v>
@@ -30083,19 +30184,19 @@
     </row>
     <row r="61">
       <c r="A61" s="45" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B61" s="99" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -30110,7 +30211,7 @@
         <v>23</v>
       </c>
       <c r="N61" s="45" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O61" s="124" t="s">
         <v>25</v>
@@ -30132,38 +30233,38 @@
       <c r="AD61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="114" t="s">
-        <v>786</v>
-      </c>
-      <c r="B62" s="115" t="s">
-        <v>787</v>
-      </c>
-      <c r="C62" s="119" t="s">
-        <v>788</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="25" t="s">
-        <v>599</v>
+      <c r="A62" s="45" t="s">
+        <v>791</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>792</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>782</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>597</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="106" t="s">
-        <v>451</v>
-      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="45"/>
       <c r="K62" s="46">
-        <v>44139.0</v>
+        <v>43560.0</v>
       </c>
       <c r="L62" s="46"/>
-      <c r="M62" s="114" t="s">
+      <c r="M62" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="114" t="s">
-        <v>609</v>
-      </c>
-      <c r="O62" s="114" t="s">
-        <v>51</v>
+      <c r="N62" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="O62" s="124" t="s">
+        <v>25</v>
       </c>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -30182,71 +30283,75 @@
       <c r="AD62" s="19"/>
     </row>
     <row r="63">
-      <c r="B63" s="80"/>
-      <c r="C63" s="110"/>
+      <c r="A63" s="114" t="s">
+        <v>794</v>
+      </c>
+      <c r="B63" s="115" t="s">
+        <v>795</v>
+      </c>
+      <c r="C63" s="119" t="s">
+        <v>796</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="104"/>
+      <c r="J63" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="K63" s="46">
+        <v>44139.0</v>
+      </c>
+      <c r="L63" s="46"/>
+      <c r="M63" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="114" t="s">
+        <v>612</v>
+      </c>
+      <c r="O63" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
     </row>
     <row r="64">
-      <c r="A64" s="45" t="s">
-        <v>789</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="C64" s="111" t="s">
-        <v>791</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>599</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="110"/>
       <c r="I64" s="104"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L64" s="19"/>
-      <c r="M64" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="19"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
     </row>
     <row r="65">
       <c r="A65" s="45" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>793</v>
-      </c>
-      <c r="C65" s="100" t="s">
-        <v>794</v>
+        <v>798</v>
+      </c>
+      <c r="C65" s="111" t="s">
+        <v>799</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>769</v>
+        <v>602</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -30280,19 +30385,19 @@
     </row>
     <row r="66">
       <c r="A66" s="45" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C66" s="100" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -30325,19 +30430,60 @@
       <c r="AD66" s="19"/>
     </row>
     <row r="67">
-      <c r="B67" s="80"/>
-      <c r="C67" s="100"/>
+      <c r="A67" s="45" t="s">
+        <v>803</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>804</v>
+      </c>
+      <c r="C67" s="100" t="s">
+        <v>805</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
       <c r="I67" s="104"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
     </row>
     <row r="68">
       <c r="B68" s="80"/>
       <c r="C68" s="100"/>
       <c r="I68" s="104"/>
     </row>
-    <row r="70">
-      <c r="B70" s="80"/>
-      <c r="C70" s="100"/>
-      <c r="I70" s="104"/>
+    <row r="69">
+      <c r="B69" s="80"/>
+      <c r="C69" s="100"/>
+      <c r="I69" s="104"/>
     </row>
     <row r="71">
       <c r="B71" s="80"/>
@@ -30356,7 +30502,7 @@
     </row>
     <row r="74">
       <c r="B74" s="80"/>
-      <c r="C74" s="110"/>
+      <c r="C74" s="100"/>
       <c r="I74" s="104"/>
     </row>
     <row r="75">
@@ -34960,6 +35106,7 @@
       <c r="I994" s="104"/>
     </row>
     <row r="995">
+      <c r="B995" s="80"/>
       <c r="C995" s="110"/>
       <c r="I995" s="104"/>
     </row>
@@ -34987,23 +35134,27 @@
       <c r="C1001" s="110"/>
       <c r="I1001" s="104"/>
     </row>
+    <row r="1002">
+      <c r="C1002" s="110"/>
+      <c r="I1002" s="104"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AD221">
+  <conditionalFormatting sqref="A2:AD222">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AD221">
+  <conditionalFormatting sqref="A2:AD222">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB221">
+  <conditionalFormatting sqref="A2:AB222">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB221">
+  <conditionalFormatting sqref="A2:AB222">
     <cfRule type="expression" dxfId="6" priority="4">
       <formula>$M2="deprecated"</formula>
     </cfRule>
@@ -35024,16 +35175,16 @@
     <hyperlink r:id="rId13" ref="J47"/>
     <hyperlink r:id="rId14" ref="J48"/>
     <hyperlink r:id="rId15" ref="J49"/>
-    <hyperlink r:id="rId16" ref="J50"/>
-    <hyperlink r:id="rId17" ref="O50"/>
-    <hyperlink r:id="rId18" ref="O52"/>
-    <hyperlink r:id="rId19" ref="J55"/>
-    <hyperlink r:id="rId20" ref="O57"/>
-    <hyperlink r:id="rId21" ref="O58"/>
-    <hyperlink r:id="rId22" ref="O59"/>
-    <hyperlink r:id="rId23" ref="O60"/>
-    <hyperlink r:id="rId24" ref="O61"/>
-    <hyperlink r:id="rId25" ref="J62"/>
+    <hyperlink r:id="rId16" ref="J51"/>
+    <hyperlink r:id="rId17" ref="O51"/>
+    <hyperlink r:id="rId18" ref="O53"/>
+    <hyperlink r:id="rId19" ref="J56"/>
+    <hyperlink r:id="rId20" ref="O58"/>
+    <hyperlink r:id="rId21" ref="O59"/>
+    <hyperlink r:id="rId22" ref="O60"/>
+    <hyperlink r:id="rId23" ref="O61"/>
+    <hyperlink r:id="rId24" ref="O62"/>
+    <hyperlink r:id="rId25" ref="J63"/>
   </hyperlinks>
   <drawing r:id="rId26"/>
 </worksheet>
@@ -35106,19 +35257,19 @@
     </row>
     <row r="2">
       <c r="A2" s="126" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="D2" s="126" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="126" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>431</v>
@@ -35135,7 +35286,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="126" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="O2" s="130" t="s">
         <v>51</v>
@@ -35158,19 +35309,19 @@
     </row>
     <row r="3">
       <c r="A3" s="131" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D3" s="131" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>431</v>
@@ -35179,7 +35330,7 @@
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
       <c r="J3" s="134" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="K3" s="129">
         <v>44786.0</v>
@@ -35189,7 +35340,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="126" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O3" s="136" t="s">
         <v>25</v>
@@ -35212,19 +35363,19 @@
     </row>
     <row r="4">
       <c r="A4" s="138" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="D4" s="126" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>431</v>
@@ -35243,7 +35394,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="126" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="O4" s="130" t="s">
         <v>102</v>
@@ -35266,19 +35417,19 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>431</v>
@@ -35316,19 +35467,19 @@
     </row>
     <row r="6">
       <c r="A6" s="138" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="D6" s="126" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>431</v>
@@ -35336,7 +35487,7 @@
       <c r="G6" s="127"/>
       <c r="H6" s="127"/>
       <c r="I6" s="45" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="129">
@@ -35347,7 +35498,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="126" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="O6" s="130" t="s">
         <v>51</v>
@@ -35370,19 +35521,19 @@
     </row>
     <row r="7">
       <c r="A7" s="139" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="B7" s="140" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>431</v>
@@ -35390,7 +35541,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="141" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="10">
@@ -35403,7 +35554,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="O7" s="123" t="s">
         <v>102</v>
@@ -35426,19 +35577,19 @@
     </row>
     <row r="8">
       <c r="A8" s="139" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="B8" s="140" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>431</v>
@@ -35446,7 +35597,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="141" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="10">
@@ -35459,10 +35610,10 @@
         <v>23</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="O8" s="123" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -39616,25 +39767,25 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="46">
@@ -39645,7 +39796,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>102</v>
@@ -39678,19 +39829,19 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -39705,7 +39856,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>102</v>
@@ -39726,17 +39877,17 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -39772,17 +39923,17 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -39818,17 +39969,17 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -39843,7 +39994,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>102</v>
@@ -39864,17 +40015,17 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -39910,17 +40061,17 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -39956,17 +40107,17 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -40014,19 +40165,19 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -40041,7 +40192,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>102</v>
@@ -40062,17 +40213,17 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -40108,17 +40259,17 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -40154,17 +40305,17 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -40179,7 +40330,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>102</v>
@@ -40200,17 +40351,17 @@
     </row>
     <row r="16">
       <c r="A16" s="45" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -40246,17 +40397,17 @@
     </row>
     <row r="17">
       <c r="A17" s="45" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -40292,17 +40443,17 @@
     </row>
     <row r="18">
       <c r="A18" s="45" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -40350,19 +40501,19 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -40377,7 +40528,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>102</v>
@@ -40398,17 +40549,17 @@
     </row>
     <row r="21">
       <c r="A21" s="45" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -40444,17 +40595,17 @@
     </row>
     <row r="22">
       <c r="A22" s="45" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -40490,17 +40641,17 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -40536,17 +40687,17 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -40582,17 +40733,17 @@
     </row>
     <row r="25">
       <c r="A25" s="45" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -40628,23 +40779,23 @@
     </row>
     <row r="26">
       <c r="A26" s="45" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="46">
@@ -40676,23 +40827,23 @@
     </row>
     <row r="27">
       <c r="A27" s="45" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="46">
@@ -40735,25 +40886,25 @@
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="142" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="46">
@@ -40764,7 +40915,7 @@
         <v>23</v>
       </c>
       <c r="N29" s="143" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
@@ -40783,23 +40934,23 @@
     </row>
     <row r="30">
       <c r="A30" s="144" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="B30" s="145" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C30" s="146" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="147" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F30" s="148"/>
       <c r="G30" s="148"/>
       <c r="H30" s="148"/>
       <c r="I30" s="142" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="J30" s="149" t="s">
         <v>451</v>
@@ -40814,7 +40965,7 @@
         <v>23</v>
       </c>
       <c r="N30" s="143" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O30" s="152" t="s">
         <v>51</v>
@@ -40837,17 +40988,17 @@
     </row>
     <row r="31">
       <c r="A31" s="45" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -40881,17 +41032,17 @@
     </row>
     <row r="32">
       <c r="A32" s="45" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -45709,19 +45860,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>431</v>
@@ -45759,22 +45910,22 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -45791,7 +45942,7 @@
         <v>96</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -45809,22 +45960,22 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -45841,7 +45992,7 @@
         <v>96</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -45859,22 +46010,22 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -45891,7 +46042,7 @@
         <v>96</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1060">
   <si>
     <t>Term</t>
   </si>
@@ -18649,7 +18649,9 @@
       <c r="A59" s="45" t="s">
         <v>556</v>
       </c>
-      <c r="B59" s="61"/>
+      <c r="B59" s="45" t="s">
+        <v>556</v>
+      </c>
       <c r="C59" s="100" t="s">
         <v>557</v>
       </c>
@@ -18699,7 +18701,9 @@
       <c r="A60" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="B60" s="61"/>
+      <c r="B60" s="45" t="s">
+        <v>561</v>
+      </c>
       <c r="C60" s="100" t="s">
         <v>562</v>
       </c>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1088">
   <si>
     <t>Term</t>
   </si>
@@ -2110,11 +2110,10 @@
     <t>Autonomous</t>
   </si>
   <si>
-    <t>Level of automation corresponding to Level 6 in ISO/IEC 22989:2022 where the automation in system is capable of modifying its operation domain
-or its goals without external intervention, control or oversight</t>
-  </si>
-  <si>
-    <t>dpv:Automation</t>
+    <t>Level of automation corresponding to Level 6 in ISO/IEC 22989:2022 where the automation in system is capable of modifying its operation domain or its goals without external intervention, control or oversight</t>
+  </si>
+  <si>
+    <t>dpv:AutomationLevel</t>
   </si>
   <si>
     <t>Though Autonomous, such operations can still be associated with dpv:HumanInvolved e.g. for inputs, oversight or verification</t>
@@ -2139,8 +2138,7 @@
     <t>Full Automation</t>
   </si>
   <si>
-    <t>Level of automation corresponding to Level 5 in ISO/IEC 22989:2022 where the automation in system is capable of performing all its tasks
-regardless of the conditions without human involvement</t>
+    <t>Level of automation corresponding to Level 5 in ISO/IEC 22989:2022 where the automation in system is capable of performing all its tasks regardless of the conditions without human involvement</t>
   </si>
   <si>
     <t>Though Fully Automated such operations can still be associated with dpv:HumanInvolved e.g. for inputs, oversight or verification</t>
@@ -2165,8 +2163,7 @@
     <t>High Automation</t>
   </si>
   <si>
-    <t>Level of automation corresponding to Level 4 in ISO/IEC 22989:2022 where the automation in system is capable of performing all its tasks within
-specific controlled conditions without human involvement</t>
+    <t>Level of automation corresponding to Level 4 in ISO/IEC 22989:2022 where the automation in system is capable of performing all its tasks within specific controlled conditions without human involvement</t>
   </si>
   <si>
     <t>Human Involvement is implied here, e.g. for intervention, input, decisions</t>
@@ -2396,10 +2393,10 @@
     <t>dpv:EntityInvolvement</t>
   </si>
   <si>
-    <t>OptIn</t>
-  </si>
-  <si>
-    <t>Opt-in</t>
+    <t>OptingInToProcess</t>
+  </si>
+  <si>
+    <t>Opting in to Process</t>
   </si>
   <si>
     <t>Involvement where entity can opt-in to specified context</t>
@@ -2408,37 +2405,37 @@
     <t>dpv:EntityPermissiveInvolvement</t>
   </si>
   <si>
-    <t>OptOut</t>
-  </si>
-  <si>
-    <t>Opt-out</t>
+    <t>OptingOutFromProcess</t>
+  </si>
+  <si>
+    <t>Opting out of Process</t>
   </si>
   <si>
     <t>Involvement where entity can opt-out from specified context</t>
   </si>
   <si>
-    <t>ObjectToProcess</t>
-  </si>
-  <si>
-    <t>Object to Process</t>
+    <t>ObjectingToProcess</t>
+  </si>
+  <si>
+    <t>Objecting to Process</t>
   </si>
   <si>
     <t>Involvement where entity can object to process of specified context</t>
   </si>
   <si>
-    <t>WithdrawFromProcess</t>
-  </si>
-  <si>
-    <t>Withdraw from Process</t>
+    <t>WithdrawingFromProcess</t>
+  </si>
+  <si>
+    <t>Withdrawing from Process</t>
   </si>
   <si>
     <t>Involvement where entity can withdraw a previously given assent from specified context</t>
   </si>
   <si>
-    <t>ChallengeProcess</t>
-  </si>
-  <si>
-    <t>Challenge Process</t>
+    <t>ChallengingProcess</t>
+  </si>
+  <si>
+    <t>Challenging Process</t>
   </si>
   <si>
     <t>Involvement where entity can challenge the process of specified context</t>
@@ -2447,10 +2444,10 @@
     <t>Challenge refers to raising questions about validity, necessity, correctness, or other similar 'trustworthiness' attributes regarding the process or plan or implementation</t>
   </si>
   <si>
-    <t>ChallengeOutput</t>
-  </si>
-  <si>
-    <t>Challenge Output</t>
+    <t>ChallengingProcessOutput</t>
+  </si>
+  <si>
+    <t>Challenging Process Output</t>
   </si>
   <si>
     <t>Involvement where entity can challenge the output of specified context</t>
@@ -2459,28 +2456,34 @@
     <t>Challenge refers to raising questions about validity, necessity, correctness, or other similar 'trustworthiness' attributes regarding the output of the process or plan or implementation (where output is distinct from the process itself)</t>
   </si>
   <si>
-    <t>CorrectProcess</t>
-  </si>
-  <si>
-    <t>Correct Process</t>
+    <t>CorrectingProcess</t>
+  </si>
+  <si>
+    <t>Correcting Process</t>
   </si>
   <si>
     <t>Involvement where entity can correct the process of specified context</t>
   </si>
   <si>
-    <t>CorrectOutput</t>
-  </si>
-  <si>
-    <t>Correct Output</t>
+    <t>Correction of process refers to the ability to change how the process takes place</t>
+  </si>
+  <si>
+    <t>CorrectingProcessOutput</t>
+  </si>
+  <si>
+    <t>Correcting Process Output</t>
   </si>
   <si>
     <t>Involvement where entity can correct the output of specified context</t>
   </si>
   <si>
-    <t>ReverseEffects</t>
-  </si>
-  <si>
-    <t>Reverse Effects</t>
+    <t>Correction of outputs allows modification of the output - implying continuation of the process. This is distinct from reversing of outputs which revert the output back to its previous value and possibly imply not continuing with the process</t>
+  </si>
+  <si>
+    <t>ReversingProcessEffects</t>
+  </si>
+  <si>
+    <t>Reversing Process Effects</t>
   </si>
   <si>
     <t>Involvement where entity can reverse effects of specified context</t>
@@ -2489,6 +2492,45 @@
     <t>Effects refer to consequences and impacts arising from the process or from the outputs of a process</t>
   </si>
   <si>
+    <t>ReversingProcessOutput</t>
+  </si>
+  <si>
+    <t>Reversing Process Output</t>
+  </si>
+  <si>
+    <t>Involvement where entity can reverse output of specified context</t>
+  </si>
+  <si>
+    <t>Reversing of outputs indicate discarding the output and going back to the previous output. This is different from correction of output which allows modification of the output - implying continuation of the process.</t>
+  </si>
+  <si>
+    <t>ChallengingProcessInput</t>
+  </si>
+  <si>
+    <t>Challenging Process Input</t>
+  </si>
+  <si>
+    <t>Involvement where entity can challenge input of specified context</t>
+  </si>
+  <si>
+    <t>CorrectingProcessInput</t>
+  </si>
+  <si>
+    <t>Correcting Process Input</t>
+  </si>
+  <si>
+    <t>Involvement where entity can correct input of specified context</t>
+  </si>
+  <si>
+    <t>ReversingProcessInput</t>
+  </si>
+  <si>
+    <t>Reversing Process Input</t>
+  </si>
+  <si>
+    <t>Involvement where entity can reverse input of specified context</t>
+  </si>
+  <si>
     <t>EntityNonPermissiveInvolvement</t>
   </si>
   <si>
@@ -2498,10 +2540,10 @@
     <t>Involvement of an entity in specific context where it is not permitted or able to do something</t>
   </si>
   <si>
-    <t>CannotOptIn</t>
-  </si>
-  <si>
-    <t>Cannot Opt-in</t>
+    <t>CannotOptInToProcess</t>
+  </si>
+  <si>
+    <t>Cannot Opt-in to Process</t>
   </si>
   <si>
     <t>Involvement where entity cannot opt-in to specified context</t>
@@ -2510,10 +2552,10 @@
     <t>dpv:EntityNonPermissiveInvolvement</t>
   </si>
   <si>
-    <t>CannotOptOut</t>
-  </si>
-  <si>
-    <t>Cannot Opt-out</t>
+    <t>CannotOptOutFromProcess</t>
+  </si>
+  <si>
+    <t>Cannot Opt-out from Process</t>
   </si>
   <si>
     <t>Involvement where entity cannot opt-out from specified context</t>
@@ -2546,10 +2588,10 @@
     <t>Involvement where entity cannot challenge the process of specified context</t>
   </si>
   <si>
-    <t>CannotChallengeOutput</t>
-  </si>
-  <si>
-    <t>Cannot Challenge Output</t>
+    <t>CannotChallengeProcessOutput</t>
+  </si>
+  <si>
+    <t>Cannot Challenge Process Output</t>
   </si>
   <si>
     <t>Involvement where entity cannot challenge the output of specified context</t>
@@ -2564,24 +2606,60 @@
     <t>Involvement where entity cannot correct the process of specified context</t>
   </si>
   <si>
-    <t>CannotCorrectOutput</t>
-  </si>
-  <si>
-    <t>Cannot Correct Output</t>
+    <t>CannotCorrectProcessOutput</t>
+  </si>
+  <si>
+    <t>Cannot Correct Process Output</t>
   </si>
   <si>
     <t>Involvement where entity cannot correct the output of specified context</t>
   </si>
   <si>
-    <t>CannotReverseEffects</t>
-  </si>
-  <si>
-    <t>Cannot Reverse Effects</t>
+    <t>CannotReverseProcessEffects</t>
+  </si>
+  <si>
+    <t>Cannot Reverse Process Effects</t>
   </si>
   <si>
     <t>Involvement where entity cannot reverse effects of specified context</t>
   </si>
   <si>
+    <t>CannotReverseProcessOutput</t>
+  </si>
+  <si>
+    <t>Cannot Reverse Process Output</t>
+  </si>
+  <si>
+    <t>Involvement where entity cannot reverse output of specified context</t>
+  </si>
+  <si>
+    <t>CannotChallengeProcessInput</t>
+  </si>
+  <si>
+    <t>Cannot Challenge Process Input</t>
+  </si>
+  <si>
+    <t>Involvement where entity cannot challenge input of specified context</t>
+  </si>
+  <si>
+    <t>CannotCorrectProcessInput</t>
+  </si>
+  <si>
+    <t>Cannot Correct Process Input</t>
+  </si>
+  <si>
+    <t>Involvement where entity cannot correct input of specified context</t>
+  </si>
+  <si>
+    <t>CannotReverseProcessInput</t>
+  </si>
+  <si>
+    <t>Cannot Reverse Process Input</t>
+  </si>
+  <si>
+    <t>Involvement where entity cannot reverse input of specified context</t>
+  </si>
+  <si>
     <t>EntityActiveInvolvement</t>
   </si>
   <si>
@@ -2993,7 +3071,10 @@
     <t>Processing Location</t>
   </si>
   <si>
-    <t>Conditions regarding Location for processing of data or use of technologies</t>
+    <t>Location or geospatial scope where processing takes places</t>
+  </si>
+  <si>
+    <t>dpv:ProcessingCondition,dpv:Location</t>
   </si>
   <si>
     <t>ProcessingDuration</t>
@@ -3002,7 +3083,10 @@
     <t>Processing Duration</t>
   </si>
   <si>
-    <t>Conditions regarding Duration for processing of data or use of technologies</t>
+    <t>Duration or temporal limitation for processing</t>
+  </si>
+  <si>
+    <t>dpv:ProcessingCondition,dpv:Duration</t>
   </si>
   <si>
     <t>hasDataSource</t>
@@ -3064,9 +3148,6 @@
     <t>Indicates the level of automation involved in implementation of the specified context</t>
   </si>
   <si>
-    <t>dpv:AutomationLevel</t>
-  </si>
-  <si>
     <t>hasHumanInvolvement</t>
   </si>
   <si>
@@ -3124,10 +3205,10 @@
     <t>Indicates involvement of an entity in specified context</t>
   </si>
   <si>
-    <t>hasEntityActiveInvolvement</t>
-  </si>
-  <si>
-    <t>has entity activity involvement</t>
+    <t>hasActiveEntity</t>
+  </si>
+  <si>
+    <t>has active entity</t>
   </si>
   <si>
     <t>indicates the entity is actively involved in specified context</t>
@@ -3136,10 +3217,10 @@
     <t>dpv:EntityActiveInvolvement</t>
   </si>
   <si>
-    <t>hasEntityPassiveInvolvement</t>
-  </si>
-  <si>
-    <t>has entity passive involvement</t>
+    <t>hasPassiveEntity</t>
+  </si>
+  <si>
+    <t>has passive entity</t>
   </si>
   <si>
     <t>indicates the entity is passively involved in specified context</t>
@@ -3148,10 +3229,10 @@
     <t>dpv:EntityPassiveInvolvement</t>
   </si>
   <si>
-    <t>hasEntityNonInvolvement</t>
-  </si>
-  <si>
-    <t>has entity non-involvement</t>
+    <t>hasNonInvolvedEntity</t>
+  </si>
+  <si>
+    <t>has non-involved entity</t>
   </si>
   <si>
     <t>indicates the entity is not involved in specified context</t>
@@ -3166,10 +3247,10 @@
     <t>is determined by entity</t>
   </si>
   <si>
-    <t>Indicates the specified context was determined by indicated entity</t>
-  </si>
-  <si>
-    <t>Determination reflects the entities involved in deciding or influencing how/why/where/when etc. for the implementation of specified context</t>
+    <t>Indicates the context is determined by the specified entity</t>
+  </si>
+  <si>
+    <t>dpv:hasEntity</t>
   </si>
   <si>
     <t>hasActiveDataSubject</t>
@@ -3868,7 +3949,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4283,6 +4364,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -29238,10 +29325,12 @@
       <c r="H26" s="19"/>
       <c r="I26" s="107"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="46"/>
+      <c r="K26" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L26" s="46"/>
       <c r="M26" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
@@ -29282,10 +29371,12 @@
       <c r="H27" s="19"/>
       <c r="I27" s="107"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L27" s="46"/>
       <c r="M27" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
@@ -29324,10 +29415,12 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L28" s="19"/>
       <c r="M28" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
@@ -29366,10 +29459,12 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="K29" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L29" s="19"/>
       <c r="M29" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
@@ -29408,10 +29503,12 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="K30" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L30" s="19"/>
       <c r="M30" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -29450,10 +29547,12 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="K31" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
@@ -29494,10 +29593,12 @@
         <v>707</v>
       </c>
       <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="K32" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L32" s="19"/>
       <c r="M32" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
@@ -29538,10 +29639,12 @@
         <v>711</v>
       </c>
       <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="K33" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L33" s="19"/>
       <c r="M33" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
@@ -29578,12 +29681,16 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="45" t="s">
+        <v>715</v>
+      </c>
       <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="K34" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L34" s="19"/>
       <c r="M34" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
@@ -29605,13 +29712,13 @@
     </row>
     <row r="35">
       <c r="A35" s="45" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="45" t="s">
@@ -29620,12 +29727,16 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="107" t="s">
+        <v>719</v>
+      </c>
       <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="K35" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L35" s="19"/>
       <c r="M35" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
@@ -29647,13 +29758,13 @@
     </row>
     <row r="36">
       <c r="A36" s="45" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="45" t="s">
@@ -29663,13 +29774,15 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="45" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="K36" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L36" s="19"/>
       <c r="M36" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
@@ -29690,30 +29803,32 @@
       <c r="AD36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="69" t="s">
-        <v>722</v>
+      <c r="A37" s="45" t="s">
+        <v>724</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>723</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>724</v>
-      </c>
-      <c r="D37" s="116" t="s">
-        <v>690</v>
-      </c>
-      <c r="E37" s="116" t="s">
-        <v>596</v>
+        <v>725</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="D37" s="116"/>
+      <c r="E37" s="45" t="s">
+        <v>694</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="107"/>
+      <c r="I37" s="107" t="s">
+        <v>727</v>
+      </c>
       <c r="J37" s="19"/>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L37" s="46"/>
       <c r="M37" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
@@ -29735,30 +29850,32 @@
     </row>
     <row r="38">
       <c r="A38" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>729</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="D38" s="19"/>
+        <v>730</v>
+      </c>
+      <c r="D38" s="116"/>
       <c r="E38" s="45" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L38" s="19"/>
       <c r="M38" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
@@ -29777,30 +29894,32 @@
     </row>
     <row r="39">
       <c r="A39" s="45" t="s">
-        <v>729</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="C39" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="B39" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="D39" s="116"/>
       <c r="E39" s="45" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="107"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="K39" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="L39" s="46"/>
       <c r="M39" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -29819,30 +29938,32 @@
     </row>
     <row r="40">
       <c r="A40" s="45" t="s">
-        <v>732</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>733</v>
+        <v>734</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>735</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="D40" s="19"/>
+        <v>736</v>
+      </c>
+      <c r="D40" s="116"/>
       <c r="E40" s="45" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="K40" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L40" s="19"/>
       <c r="M40" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
@@ -29860,31 +29981,35 @@
       <c r="AD40" s="19"/>
     </row>
     <row r="41">
-      <c r="A41" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>736</v>
-      </c>
-      <c r="C41" s="45" t="s">
+      <c r="A41" s="69" t="s">
         <v>737</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="45" t="s">
-        <v>728</v>
+      <c r="B41" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="C41" s="100" t="s">
+        <v>739</v>
+      </c>
+      <c r="D41" s="116" t="s">
+        <v>690</v>
+      </c>
+      <c r="E41" s="116" t="s">
+        <v>596</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="K41" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="L41" s="46"/>
       <c r="M41" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -29903,29 +30028,29 @@
     </row>
     <row r="42">
       <c r="A42" s="45" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="45" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="45" t="s">
-        <v>707</v>
-      </c>
+      <c r="I42" s="19"/>
       <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="K42" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L42" s="19"/>
       <c r="M42" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
@@ -29947,29 +30072,29 @@
     </row>
     <row r="43">
       <c r="A43" s="45" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>743</v>
+        <v>745</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>746</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="45" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="45" t="s">
-        <v>711</v>
-      </c>
+      <c r="I43" s="19"/>
       <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
+      <c r="K43" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L43" s="19"/>
       <c r="M43" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
@@ -29991,27 +30116,29 @@
     </row>
     <row r="44">
       <c r="A44" s="45" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="45" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
+      <c r="K44" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L44" s="19"/>
       <c r="M44" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
@@ -30033,27 +30160,29 @@
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="45" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
+      <c r="K45" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L45" s="19"/>
       <c r="M45" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
@@ -30075,29 +30204,31 @@
     </row>
     <row r="46">
       <c r="A46" s="45" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="45" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="45" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="K46" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L46" s="19"/>
       <c r="M46" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -30117,31 +30248,77 @@
       <c r="AC46" s="19"/>
       <c r="AD46" s="19"/>
     </row>
+    <row r="47">
+      <c r="A47" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+    </row>
     <row r="48">
       <c r="A48" s="45" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="D48" s="116" t="s">
-        <v>690</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="45" t="s">
-        <v>596</v>
+        <v>743</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
+      <c r="K48" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L48" s="19"/>
       <c r="M48" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
@@ -30163,29 +30340,29 @@
     </row>
     <row r="49">
       <c r="A49" s="45" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>690</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="D49" s="19"/>
       <c r="E49" s="45" t="s">
-        <v>596</v>
+        <v>743</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="K49" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L49" s="19"/>
       <c r="M49" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
@@ -30207,27 +30384,31 @@
     </row>
     <row r="50">
       <c r="A50" s="45" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>761</v>
-      </c>
-      <c r="D50" s="116" t="s">
-        <v>690</v>
-      </c>
-      <c r="E50" s="19"/>
+        <v>767</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="45" t="s">
+        <v>743</v>
+      </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="I50" s="45" t="s">
+        <v>723</v>
+      </c>
       <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
+      <c r="K50" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L50" s="19"/>
       <c r="M50" s="45" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
@@ -30248,48 +30429,77 @@
       <c r="AD50" s="19"/>
     </row>
     <row r="51">
-      <c r="B51" s="80"/>
-      <c r="C51" s="100"/>
-      <c r="I51" s="104"/>
+      <c r="A51" s="45" t="s">
+        <v>768</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>769</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>770</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
     </row>
     <row r="52">
-      <c r="A52" s="69" t="s">
-        <v>762</v>
+      <c r="A52" s="45" t="s">
+        <v>771</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>763</v>
-      </c>
-      <c r="C52" s="100" t="s">
-        <v>764</v>
-      </c>
-      <c r="D52" s="116" t="s">
-        <v>690</v>
-      </c>
-      <c r="E52" s="116" t="s">
-        <v>596</v>
+        <v>772</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>773</v>
+      </c>
+      <c r="D52" s="116"/>
+      <c r="E52" s="45" t="s">
+        <v>743</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="107" t="s">
-        <v>765</v>
-      </c>
+      <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="46">
-        <v>44587.0</v>
-      </c>
-      <c r="L52" s="46">
-        <v>45402.0</v>
-      </c>
+        <v>45423.0</v>
+      </c>
+      <c r="L52" s="19"/>
       <c r="M52" s="45" t="s">
-        <v>617</v>
-      </c>
-      <c r="N52" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O52" s="47" t="s">
-        <v>101</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -30303,39 +30513,37 @@
       <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
     </row>
     <row r="53">
       <c r="A53" s="45" t="s">
-        <v>766</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>767</v>
-      </c>
-      <c r="C53" s="100" t="s">
-        <v>768</v>
-      </c>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116" t="s">
-        <v>769</v>
+        <v>774</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>775</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>776</v>
+      </c>
+      <c r="D53" s="116"/>
+      <c r="E53" s="45" t="s">
+        <v>743</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="107" t="s">
-        <v>770</v>
-      </c>
-      <c r="J53" s="105"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="46">
-        <v>44807.0</v>
-      </c>
-      <c r="L53" s="46">
-        <v>45270.0</v>
-      </c>
+        <v>45423.0</v>
+      </c>
+      <c r="L53" s="19"/>
       <c r="M53" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N53" s="45"/>
-      <c r="O53" s="114"/>
+      <c r="O53" s="45"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -30354,36 +30562,32 @@
     </row>
     <row r="54">
       <c r="A54" s="45" t="s">
-        <v>771</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="C54" s="100" t="s">
-        <v>773</v>
-      </c>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116" t="s">
-        <v>769</v>
+        <v>777</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>778</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>779</v>
+      </c>
+      <c r="D54" s="116"/>
+      <c r="E54" s="45" t="s">
+        <v>743</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="107" t="s">
-        <v>774</v>
-      </c>
-      <c r="J54" s="105"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="46">
-        <v>44808.0</v>
-      </c>
-      <c r="L54" s="81">
-        <v>45270.0</v>
-      </c>
+        <v>45423.0</v>
+      </c>
+      <c r="L54" s="19"/>
       <c r="M54" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N54" s="45"/>
-      <c r="O54" s="114"/>
+      <c r="O54" s="45"/>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
@@ -30401,85 +30605,38 @@
       <c r="AD54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="45" t="s">
-        <v>775</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>776</v>
-      </c>
-      <c r="C55" s="100" t="s">
-        <v>777</v>
-      </c>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116" t="s">
-        <v>769</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="107" t="s">
-        <v>778</v>
-      </c>
-      <c r="J55" s="105"/>
-      <c r="K55" s="46">
-        <v>44809.0</v>
-      </c>
-      <c r="L55" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="M55" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
+      <c r="K55" s="46"/>
     </row>
     <row r="56">
       <c r="A56" s="45" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>780</v>
-      </c>
-      <c r="C56" s="100" t="s">
         <v>781</v>
       </c>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116" t="s">
-        <v>769</v>
+      <c r="C56" s="45" t="s">
+        <v>782</v>
+      </c>
+      <c r="D56" s="116" t="s">
+        <v>690</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>596</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="107" t="s">
-        <v>782</v>
-      </c>
-      <c r="J56" s="105"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="46">
-        <v>44810.0</v>
-      </c>
-      <c r="L56" s="81">
-        <v>45270.0</v>
-      </c>
+        <v>45423.0</v>
+      </c>
+      <c r="L56" s="19"/>
       <c r="M56" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="114"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
@@ -30503,33 +30660,29 @@
       <c r="B57" s="45" t="s">
         <v>784</v>
       </c>
-      <c r="C57" s="100" t="s">
+      <c r="C57" s="45" t="s">
         <v>785</v>
       </c>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116" t="s">
-        <v>769</v>
+      <c r="D57" s="116" t="s">
+        <v>690</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>596</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="107" t="s">
-        <v>786</v>
-      </c>
-      <c r="J57" s="105"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="46">
-        <v>44811.0</v>
-      </c>
-      <c r="L57" s="46">
-        <v>45270.0</v>
-      </c>
+        <v>45423.0</v>
+      </c>
+      <c r="L57" s="19"/>
       <c r="M57" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O57" s="114"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -30548,38 +30701,32 @@
     </row>
     <row r="58">
       <c r="A58" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="B58" s="45" t="s">
         <v>787</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="C58" s="45" t="s">
         <v>788</v>
       </c>
-      <c r="C58" s="100" t="s">
-        <v>789</v>
-      </c>
-      <c r="D58" s="118"/>
-      <c r="E58" s="116" t="s">
-        <v>769</v>
-      </c>
+      <c r="D58" s="116" t="s">
+        <v>690</v>
+      </c>
+      <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="107" t="s">
-        <v>790</v>
-      </c>
-      <c r="J58" s="105"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="46">
-        <v>44811.0</v>
-      </c>
-      <c r="L58" s="81">
-        <v>45270.0</v>
-      </c>
+        <v>45423.0</v>
+      </c>
+      <c r="L58" s="19"/>
       <c r="M58" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O58" s="114"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -30597,85 +30744,48 @@
       <c r="AD58" s="19"/>
     </row>
     <row r="59">
-      <c r="A59" s="45" t="s">
+      <c r="B59" s="80"/>
+      <c r="C59" s="100"/>
+      <c r="I59" s="104"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>790</v>
+      </c>
+      <c r="C60" s="100" t="s">
         <v>791</v>
       </c>
-      <c r="B59" s="45" t="s">
-        <v>792</v>
-      </c>
-      <c r="C59" s="100" t="s">
-        <v>793</v>
-      </c>
-      <c r="D59" s="118"/>
-      <c r="E59" s="116" t="s">
-        <v>769</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="107" t="s">
-        <v>794</v>
-      </c>
-      <c r="J59" s="105"/>
-      <c r="K59" s="46">
-        <v>44811.0</v>
-      </c>
-      <c r="L59" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="M59" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N59" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O59" s="114"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="45" t="s">
-        <v>795</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>796</v>
-      </c>
-      <c r="C60" s="100" t="s">
-        <v>797</v>
-      </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45" t="s">
-        <v>769</v>
+      <c r="D60" s="116" t="s">
+        <v>690</v>
+      </c>
+      <c r="E60" s="116" t="s">
+        <v>596</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="107" t="s">
-        <v>798</v>
-      </c>
-      <c r="J60" s="105"/>
+        <v>792</v>
+      </c>
+      <c r="J60" s="19"/>
       <c r="K60" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L60" s="46"/>
+        <v>44587.0</v>
+      </c>
+      <c r="L60" s="46">
+        <v>45402.0</v>
+      </c>
       <c r="M60" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N60" s="45"/>
-      <c r="O60" s="114"/>
+        <v>617</v>
+      </c>
+      <c r="N60" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="O60" s="47" t="s">
+        <v>101</v>
+      </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
@@ -30689,64 +30799,126 @@
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="45"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="I61" s="107"/>
+      <c r="A61" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>794</v>
+      </c>
+      <c r="C61" s="100" t="s">
+        <v>795</v>
+      </c>
+      <c r="D61" s="118"/>
+      <c r="E61" s="116" t="s">
+        <v>796</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="107" t="s">
+        <v>797</v>
+      </c>
       <c r="J61" s="105"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="45"/>
+      <c r="K61" s="46">
+        <v>44807.0</v>
+      </c>
+      <c r="L61" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="M61" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N61" s="45"/>
       <c r="O61" s="114"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="45" t="s">
+        <v>798</v>
+      </c>
+      <c r="B62" s="45" t="s">
         <v>799</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="I62" s="107"/>
+      <c r="C62" s="100" t="s">
+        <v>800</v>
+      </c>
+      <c r="D62" s="118"/>
+      <c r="E62" s="116" t="s">
+        <v>796</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="107" t="s">
+        <v>801</v>
+      </c>
       <c r="J62" s="105"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="45"/>
+      <c r="K62" s="46">
+        <v>44808.0</v>
+      </c>
+      <c r="L62" s="81">
+        <v>45270.0</v>
+      </c>
+      <c r="M62" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N62" s="45"/>
       <c r="O62" s="114"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
     </row>
     <row r="63">
       <c r="A63" s="45" t="s">
-        <v>800</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>803</v>
       </c>
       <c r="C63" s="100" t="s">
-        <v>802</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>803</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>18</v>
+        <v>804</v>
+      </c>
+      <c r="D63" s="118"/>
+      <c r="E63" s="116" t="s">
+        <v>796</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="107" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="J63" s="105"/>
       <c r="K63" s="46">
-        <v>44797.0</v>
+        <v>44809.0</v>
       </c>
       <c r="L63" s="46">
         <v>45270.0</v>
@@ -30754,9 +30926,7 @@
       <c r="M63" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="45" t="s">
-        <v>805</v>
-      </c>
+      <c r="N63" s="45"/>
       <c r="O63" s="114"/>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -30775,41 +30945,37 @@
       <c r="AD63" s="19"/>
     </row>
     <row r="64">
-      <c r="A64" s="114" t="s">
+      <c r="A64" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="B64" s="115" t="s">
-        <v>799</v>
-      </c>
-      <c r="C64" s="119" t="s">
+      <c r="B64" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="D64" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>596</v>
+      <c r="C64" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="D64" s="118"/>
+      <c r="E64" s="116" t="s">
+        <v>796</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="120" t="s">
-        <v>808</v>
-      </c>
-      <c r="J64" s="114"/>
+      <c r="I64" s="107" t="s">
+        <v>809</v>
+      </c>
+      <c r="J64" s="105"/>
       <c r="K64" s="46">
-        <v>44139.0</v>
-      </c>
-      <c r="L64" s="46"/>
-      <c r="M64" s="114" t="s">
+        <v>44810.0</v>
+      </c>
+      <c r="L64" s="81">
+        <v>45270.0</v>
+      </c>
+      <c r="M64" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="O64" s="114" t="s">
-        <v>50</v>
-      </c>
+      <c r="N64" s="45"/>
+      <c r="O64" s="114"/>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
@@ -30828,34 +30994,36 @@
     </row>
     <row r="65">
       <c r="A65" s="45" t="s">
-        <v>809</v>
-      </c>
-      <c r="B65" s="61" t="s">
         <v>810</v>
       </c>
+      <c r="B65" s="45" t="s">
+        <v>811</v>
+      </c>
       <c r="C65" s="100" t="s">
-        <v>811</v>
-      </c>
-      <c r="D65" s="45" t="s">
         <v>812</v>
       </c>
-      <c r="E65" s="45" t="s">
-        <v>18</v>
+      <c r="D65" s="118"/>
+      <c r="E65" s="116" t="s">
+        <v>796</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="114"/>
+      <c r="I65" s="107" t="s">
+        <v>813</v>
+      </c>
+      <c r="J65" s="105"/>
       <c r="K65" s="46">
-        <v>44587.0</v>
-      </c>
-      <c r="L65" s="46"/>
+        <v>44811.0</v>
+      </c>
+      <c r="L65" s="46">
+        <v>45270.0</v>
+      </c>
       <c r="M65" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N65" s="45" t="s">
-        <v>813</v>
+        <v>95</v>
       </c>
       <c r="O65" s="114"/>
       <c r="P65" s="19"/>
@@ -30878,17 +31046,15 @@
       <c r="A66" s="45" t="s">
         <v>814</v>
       </c>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="45" t="s">
         <v>815</v>
       </c>
       <c r="C66" s="100" t="s">
         <v>816</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>18</v>
+      <c r="D66" s="118"/>
+      <c r="E66" s="116" t="s">
+        <v>796</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -30896,16 +31062,18 @@
       <c r="I66" s="107" t="s">
         <v>817</v>
       </c>
-      <c r="J66" s="114"/>
+      <c r="J66" s="105"/>
       <c r="K66" s="46">
-        <v>44587.0</v>
-      </c>
-      <c r="L66" s="46"/>
+        <v>44811.0</v>
+      </c>
+      <c r="L66" s="81">
+        <v>45270.0</v>
+      </c>
       <c r="M66" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N66" s="45" t="s">
-        <v>813</v>
+        <v>95</v>
       </c>
       <c r="O66" s="114"/>
       <c r="P66" s="19"/>
@@ -30928,31 +31096,35 @@
       <c r="A67" s="45" t="s">
         <v>818</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="45" t="s">
         <v>819</v>
       </c>
       <c r="C67" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>18</v>
+      <c r="D67" s="118"/>
+      <c r="E67" s="116" t="s">
+        <v>796</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="104"/>
+      <c r="I67" s="107" t="s">
+        <v>821</v>
+      </c>
       <c r="J67" s="105"/>
       <c r="K67" s="46">
-        <v>45211.0</v>
-      </c>
-      <c r="L67" s="46"/>
+        <v>44811.0</v>
+      </c>
+      <c r="L67" s="46">
+        <v>45270.0</v>
+      </c>
       <c r="M67" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="114"/>
+      <c r="N67" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="O67" s="114"/>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
@@ -30972,33 +31144,33 @@
     </row>
     <row r="68">
       <c r="A68" s="45" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C68" s="100" t="s">
-        <v>823</v>
-      </c>
-      <c r="D68" s="45" t="s">
-        <v>812</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="D68" s="45"/>
       <c r="E68" s="45" t="s">
-        <v>18</v>
+        <v>796</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="104"/>
+      <c r="I68" s="107" t="s">
+        <v>825</v>
+      </c>
       <c r="J68" s="105"/>
       <c r="K68" s="46">
-        <v>45211.0</v>
+        <v>45270.0</v>
       </c>
       <c r="L68" s="46"/>
       <c r="M68" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N68" s="114"/>
+      <c r="N68" s="45"/>
       <c r="O68" s="114"/>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
@@ -31017,92 +31189,98 @@
       <c r="AD68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="45" t="s">
-        <v>824</v>
-      </c>
-      <c r="B69" s="61" t="s">
-        <v>825</v>
-      </c>
-      <c r="C69" s="100" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="114"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="69" t="s">
         <v>826</v>
       </c>
-      <c r="D69" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="46">
-        <v>45211.0</v>
-      </c>
-      <c r="L69" s="46"/>
-      <c r="M69" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19"/>
-      <c r="AA69" s="19"/>
-      <c r="AB69" s="19"/>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="19"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="45"/>
-      <c r="B70" s="115"/>
+      <c r="B70" s="61"/>
       <c r="C70" s="100"/>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
-      <c r="I70" s="104"/>
+      <c r="I70" s="107"/>
       <c r="J70" s="105"/>
       <c r="K70" s="46"/>
       <c r="L70" s="46"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="114"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
       <c r="O70" s="114"/>
     </row>
     <row r="71">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="45" t="s">
         <v>827</v>
       </c>
-      <c r="B71" s="115"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="I71" s="104"/>
+      <c r="B71" s="61" t="s">
+        <v>828</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>829</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>830</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="107" t="s">
+        <v>831</v>
+      </c>
       <c r="J71" s="105"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="114"/>
+      <c r="K71" s="46">
+        <v>44797.0</v>
+      </c>
+      <c r="L71" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="M71" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="45" t="s">
+        <v>832</v>
+      </c>
       <c r="O71" s="114"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
     </row>
     <row r="72">
       <c r="A72" s="114" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B72" s="115" t="s">
-        <v>829</v>
-      </c>
-      <c r="C72" s="100" t="s">
-        <v>830</v>
-      </c>
-      <c r="D72" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72" s="119" t="s">
+        <v>834</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>601</v>
       </c>
       <c r="E72" s="45" t="s">
@@ -31111,10 +31289,10 @@
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="106" t="s">
-        <v>450</v>
-      </c>
+      <c r="I72" s="120" t="s">
+        <v>835</v>
+      </c>
+      <c r="J72" s="114"/>
       <c r="K72" s="46">
         <v>44139.0</v>
       </c>
@@ -31122,8 +31300,8 @@
       <c r="M72" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N72" s="114" t="s">
-        <v>611</v>
+      <c r="N72" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="O72" s="114" t="s">
         <v>50</v>
@@ -31146,38 +31324,36 @@
     </row>
     <row r="73">
       <c r="A73" s="45" t="s">
-        <v>831</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>832</v>
+        <v>836</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>837</v>
       </c>
       <c r="C73" s="100" t="s">
-        <v>833</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>838</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>839</v>
+      </c>
       <c r="E73" s="45" t="s">
-        <v>834</v>
+        <v>18</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="106" t="s">
-        <v>450</v>
-      </c>
+      <c r="I73" s="121"/>
+      <c r="J73" s="114"/>
       <c r="K73" s="46">
-        <v>44856.0</v>
-      </c>
-      <c r="L73" s="46">
-        <v>44895.0</v>
-      </c>
+        <v>44587.0</v>
+      </c>
+      <c r="L73" s="46"/>
       <c r="M73" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N73" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O73" s="45"/>
+        <v>840</v>
+      </c>
+      <c r="O73" s="114"/>
       <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
@@ -31196,38 +31372,38 @@
     </row>
     <row r="74">
       <c r="A74" s="45" t="s">
-        <v>835</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>836</v>
+        <v>841</v>
+      </c>
+      <c r="B74" s="61" t="s">
+        <v>842</v>
       </c>
       <c r="C74" s="100" t="s">
-        <v>837</v>
-      </c>
-      <c r="D74" s="19"/>
+        <v>843</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>839</v>
+      </c>
       <c r="E74" s="45" t="s">
-        <v>834</v>
+        <v>18</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="106" t="s">
-        <v>450</v>
-      </c>
+      <c r="I74" s="107" t="s">
+        <v>844</v>
+      </c>
+      <c r="J74" s="114"/>
       <c r="K74" s="46">
-        <v>44856.0</v>
-      </c>
-      <c r="L74" s="46">
-        <v>44895.0</v>
-      </c>
+        <v>44587.0</v>
+      </c>
+      <c r="L74" s="46"/>
       <c r="M74" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N74" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O74" s="45"/>
+        <v>840</v>
+      </c>
+      <c r="O74" s="114"/>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
@@ -31246,36 +31422,34 @@
     </row>
     <row r="75">
       <c r="A75" s="45" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="B75" s="61" t="s">
+        <v>846</v>
+      </c>
+      <c r="C75" s="100" t="s">
+        <v>847</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>839</v>
       </c>
-      <c r="C75" s="100" t="s">
-        <v>840</v>
-      </c>
-      <c r="D75" s="45"/>
       <c r="E75" s="45" t="s">
-        <v>841</v>
+        <v>18</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="107" t="s">
-        <v>842</v>
-      </c>
+      <c r="I75" s="104"/>
       <c r="J75" s="105"/>
       <c r="K75" s="46">
-        <v>45396.0</v>
+        <v>45211.0</v>
       </c>
       <c r="L75" s="46"/>
       <c r="M75" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N75" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O75" s="44"/>
+      <c r="N75" s="114"/>
+      <c r="O75" s="114"/>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
@@ -31293,39 +31467,35 @@
       <c r="AD75" s="19"/>
     </row>
     <row r="76">
-      <c r="A76" s="114" t="s">
-        <v>843</v>
-      </c>
-      <c r="B76" s="115" t="s">
-        <v>844</v>
-      </c>
-      <c r="C76" s="111" t="s">
-        <v>845</v>
+      <c r="A76" s="45" t="s">
+        <v>848</v>
+      </c>
+      <c r="B76" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="C76" s="100" t="s">
+        <v>850</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="E76" s="19"/>
+        <v>839</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>18</v>
+      </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="104"/>
-      <c r="J76" s="106" t="s">
-        <v>450</v>
-      </c>
+      <c r="J76" s="105"/>
       <c r="K76" s="46">
-        <v>44139.0</v>
+        <v>45211.0</v>
       </c>
       <c r="L76" s="46"/>
       <c r="M76" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="N76" s="114" t="s">
-        <v>611</v>
-      </c>
-      <c r="O76" s="44" t="s">
-        <v>96</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N76" s="114"/>
+      <c r="O76" s="114"/>
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
@@ -31339,135 +31509,121 @@
       <c r="Z76" s="19"/>
       <c r="AA76" s="19"/>
       <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="45" t="s">
+        <v>851</v>
+      </c>
+      <c r="B77" s="61" t="s">
+        <v>852</v>
+      </c>
+      <c r="C77" s="100" t="s">
+        <v>853</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>839</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="46">
+        <v>45211.0</v>
+      </c>
+      <c r="L77" s="46"/>
+      <c r="M77" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="114"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="122" t="s">
-        <v>848</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="10">
-        <v>44587.0</v>
-      </c>
-      <c r="L78" s="49"/>
-      <c r="M78" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O78" s="123" t="s">
-        <v>849</v>
-      </c>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="8"/>
-      <c r="AC78" s="8"/>
-      <c r="AD78" s="8"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="114"/>
     </row>
     <row r="79">
       <c r="A79" s="69" t="s">
-        <v>850</v>
-      </c>
-      <c r="B79" s="61" t="s">
-        <v>851</v>
-      </c>
-      <c r="C79" s="100" t="s">
-        <v>852</v>
-      </c>
-      <c r="D79" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="B79" s="115"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="114" t="s">
+        <v>855</v>
+      </c>
+      <c r="B80" s="115" t="s">
+        <v>856</v>
+      </c>
+      <c r="C80" s="100" t="s">
+        <v>857</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E80" s="45" t="s">
         <v>596</v>
-      </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="107" t="s">
-        <v>853</v>
-      </c>
-      <c r="J79" s="19"/>
-      <c r="K79" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L79" s="19"/>
-      <c r="M79" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="45" t="s">
-        <v>854</v>
-      </c>
-      <c r="B80" s="61" t="s">
-        <v>855</v>
-      </c>
-      <c r="C80" s="100" t="s">
-        <v>856</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="45" t="s">
-        <v>857</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="104"/>
-      <c r="J80" s="19"/>
+      <c r="J80" s="106" t="s">
+        <v>450</v>
+      </c>
       <c r="K80" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L80" s="19"/>
-      <c r="M80" s="45" t="s">
+        <v>44139.0</v>
+      </c>
+      <c r="L80" s="46"/>
+      <c r="M80" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
+      <c r="N80" s="114" t="s">
+        <v>611</v>
+      </c>
+      <c r="O80" s="114" t="s">
+        <v>50</v>
+      </c>
       <c r="P80" s="19"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
@@ -31485,43 +31641,39 @@
       <c r="AD80" s="19"/>
     </row>
     <row r="81">
-      <c r="A81" s="114" t="s">
+      <c r="A81" s="45" t="s">
         <v>858</v>
       </c>
-      <c r="B81" s="115" t="s">
+      <c r="B81" s="45" t="s">
         <v>859</v>
       </c>
       <c r="C81" s="100" t="s">
         <v>860</v>
       </c>
       <c r="D81" s="19"/>
-      <c r="E81" s="25" t="s">
-        <v>857</v>
+      <c r="E81" s="45" t="s">
+        <v>861</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="107" t="s">
-        <v>861</v>
-      </c>
+      <c r="I81" s="104"/>
       <c r="J81" s="106" t="s">
         <v>450</v>
       </c>
       <c r="K81" s="46">
-        <v>44139.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L81" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="M81" s="114" t="s">
+        <v>44895.0</v>
+      </c>
+      <c r="M81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N81" s="114" t="s">
-        <v>611</v>
-      </c>
-      <c r="O81" s="114" t="s">
-        <v>50</v>
-      </c>
+      <c r="N81" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="O81" s="45"/>
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
@@ -31538,40 +31690,88 @@
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
     </row>
+    <row r="82">
+      <c r="A82" s="45" t="s">
+        <v>862</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>863</v>
+      </c>
+      <c r="C82" s="100" t="s">
+        <v>864</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="45" t="s">
+        <v>861</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="K82" s="46">
+        <v>44856.0</v>
+      </c>
+      <c r="L82" s="46">
+        <v>44895.0</v>
+      </c>
+      <c r="M82" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="O82" s="45"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+    </row>
     <row r="83">
-      <c r="A83" s="69" t="s">
-        <v>862</v>
+      <c r="A83" s="45" t="s">
+        <v>865</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>863</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>864</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>865</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="C83" s="100" t="s">
+        <v>867</v>
+      </c>
+      <c r="D83" s="45"/>
       <c r="E83" s="45" t="s">
-        <v>596</v>
+        <v>868</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
+      <c r="I83" s="107" t="s">
+        <v>869</v>
+      </c>
+      <c r="J83" s="105"/>
       <c r="K83" s="46">
-        <v>43560.0</v>
+        <v>45396.0</v>
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N83" s="45" t="s">
-        <v>866</v>
-      </c>
-      <c r="O83" s="124" t="s">
-        <v>25</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O83" s="44"/>
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
@@ -31589,38 +31789,38 @@
       <c r="AD83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="45" t="s">
-        <v>867</v>
-      </c>
-      <c r="B84" s="99" t="s">
-        <v>868</v>
-      </c>
-      <c r="C84" s="45" t="s">
-        <v>869</v>
+      <c r="A84" s="114" t="s">
+        <v>870</v>
+      </c>
+      <c r="B84" s="115" t="s">
+        <v>871</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>872</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>870</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>596</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="45"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="106" t="s">
+        <v>450</v>
+      </c>
       <c r="K84" s="46">
-        <v>43560.0</v>
+        <v>44139.0</v>
       </c>
       <c r="L84" s="46"/>
       <c r="M84" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N84" s="45" t="s">
-        <v>866</v>
-      </c>
-      <c r="O84" s="124" t="s">
-        <v>25</v>
+        <v>311</v>
+      </c>
+      <c r="N84" s="114" t="s">
+        <v>611</v>
+      </c>
+      <c r="O84" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
@@ -31635,121 +31835,71 @@
       <c r="Z84" s="19"/>
       <c r="AA84" s="19"/>
       <c r="AB84" s="19"/>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="19"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="45" t="s">
-        <v>871</v>
-      </c>
-      <c r="B85" s="99" t="s">
-        <v>872</v>
-      </c>
-      <c r="C85" s="69" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="B86" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="E85" s="45" t="s">
-        <v>596</v>
-      </c>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="46">
-        <v>43560.0</v>
-      </c>
-      <c r="L85" s="46"/>
-      <c r="M85" s="45" t="s">
+      <c r="D86" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="122" t="s">
+        <v>875</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="10">
+        <v>44587.0</v>
+      </c>
+      <c r="L86" s="49"/>
+      <c r="M86" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N85" s="45" t="s">
-        <v>866</v>
-      </c>
-      <c r="O85" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="19"/>
-      <c r="X85" s="19"/>
-      <c r="Y85" s="19"/>
-      <c r="Z85" s="19"/>
-      <c r="AA85" s="19"/>
-      <c r="AB85" s="19"/>
-      <c r="AC85" s="19"/>
-      <c r="AD85" s="19"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="45" t="s">
-        <v>875</v>
-      </c>
-      <c r="B86" s="99" t="s">
+      <c r="N86" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O86" s="123" t="s">
         <v>876</v>
       </c>
-      <c r="C86" s="45" t="s">
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="69" t="s">
         <v>877</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="B87" s="61" t="s">
         <v>878</v>
       </c>
-      <c r="E86" s="45" t="s">
-        <v>596</v>
-      </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="46">
-        <v>43560.0</v>
-      </c>
-      <c r="L86" s="46"/>
-      <c r="M86" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" s="45" t="s">
-        <v>866</v>
-      </c>
-      <c r="O86" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="19"/>
-      <c r="AC86" s="19"/>
-      <c r="AD86" s="19"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="45" t="s">
+      <c r="C87" s="100" t="s">
         <v>879</v>
       </c>
-      <c r="B87" s="99" t="s">
-        <v>880</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>881</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>870</v>
+      <c r="D87" s="25" t="s">
+        <v>601</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>596</v>
@@ -31757,21 +31907,19 @@
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="45"/>
+      <c r="I87" s="107" t="s">
+        <v>880</v>
+      </c>
+      <c r="J87" s="19"/>
       <c r="K87" s="46">
-        <v>43560.0</v>
-      </c>
-      <c r="L87" s="46"/>
+        <v>45270.0</v>
+      </c>
+      <c r="L87" s="19"/>
       <c r="M87" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N87" s="45" t="s">
-        <v>866</v>
-      </c>
-      <c r="O87" s="124" t="s">
-        <v>25</v>
-      </c>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
       <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
@@ -31789,39 +31937,33 @@
       <c r="AD87" s="19"/>
     </row>
     <row r="88">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="45" t="s">
+        <v>881</v>
+      </c>
+      <c r="B88" s="61" t="s">
         <v>882</v>
       </c>
-      <c r="B88" s="115" t="s">
+      <c r="C88" s="100" t="s">
         <v>883</v>
       </c>
-      <c r="C88" s="119" t="s">
+      <c r="D88" s="19"/>
+      <c r="E88" s="45" t="s">
         <v>884</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="25" t="s">
-        <v>601</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="104"/>
-      <c r="J88" s="106" t="s">
-        <v>450</v>
-      </c>
+      <c r="J88" s="19"/>
       <c r="K88" s="46">
-        <v>44139.0</v>
-      </c>
-      <c r="L88" s="46"/>
-      <c r="M88" s="114" t="s">
+        <v>45270.0</v>
+      </c>
+      <c r="L88" s="19"/>
+      <c r="M88" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N88" s="114" t="s">
-        <v>611</v>
-      </c>
-      <c r="O88" s="114" t="s">
-        <v>50</v>
-      </c>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
       <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
@@ -31839,68 +31981,71 @@
       <c r="AD88" s="19"/>
     </row>
     <row r="89">
-      <c r="B89" s="80"/>
-      <c r="C89" s="110"/>
-      <c r="I89" s="104"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="45" t="s">
+      <c r="A89" s="114" t="s">
         <v>885</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B89" s="115" t="s">
         <v>886</v>
       </c>
-      <c r="C90" s="111" t="s">
+      <c r="C89" s="100" t="s">
         <v>887</v>
       </c>
-      <c r="D90" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="E90" s="45" t="s">
-        <v>596</v>
-      </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="104"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="46">
+      <c r="D89" s="19"/>
+      <c r="E89" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="107" t="s">
+        <v>888</v>
+      </c>
+      <c r="J89" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="K89" s="46">
+        <v>44139.0</v>
+      </c>
+      <c r="L89" s="46">
         <v>45270.0</v>
       </c>
-      <c r="L90" s="19"/>
-      <c r="M90" s="45" t="s">
+      <c r="M89" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="19"/>
-      <c r="Z90" s="19"/>
-      <c r="AA90" s="19"/>
-      <c r="AB90" s="19"/>
-      <c r="AC90" s="19"/>
-      <c r="AD90" s="19"/>
+      <c r="N89" s="114" t="s">
+        <v>611</v>
+      </c>
+      <c r="O89" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="19"/>
     </row>
     <row r="91">
-      <c r="A91" s="45" t="s">
-        <v>888</v>
-      </c>
-      <c r="B91" s="45" t="s">
+      <c r="A91" s="69" t="s">
         <v>889</v>
       </c>
-      <c r="C91" s="100" t="s">
+      <c r="B91" s="61" t="s">
         <v>890</v>
       </c>
+      <c r="C91" s="45" t="s">
+        <v>891</v>
+      </c>
       <c r="D91" s="45" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="E91" s="45" t="s">
         <v>596</v>
@@ -31908,17 +32053,21 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="104"/>
-      <c r="J91" s="19"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
       <c r="K91" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L91" s="19"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L91" s="46"/>
       <c r="M91" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
+      <c r="N91" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="O91" s="124" t="s">
+        <v>25</v>
+      </c>
       <c r="P91" s="19"/>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
@@ -31937,16 +32086,16 @@
     </row>
     <row r="92">
       <c r="A92" s="45" t="s">
-        <v>891</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>892</v>
-      </c>
-      <c r="C92" s="100" t="s">
-        <v>893</v>
+        <v>894</v>
+      </c>
+      <c r="B92" s="99" t="s">
+        <v>895</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>896</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>596</v>
@@ -31954,17 +32103,21 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="104"/>
-      <c r="J92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="45"/>
       <c r="K92" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="L92" s="19"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L92" s="46"/>
       <c r="M92" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
+      <c r="N92" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="O92" s="124" t="s">
+        <v>25</v>
+      </c>
       <c r="P92" s="19"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="19"/>
@@ -31982,24 +32135,204 @@
       <c r="AD92" s="19"/>
     </row>
     <row r="93">
-      <c r="B93" s="80"/>
-      <c r="C93" s="110"/>
-      <c r="I93" s="104"/>
+      <c r="A93" s="45" t="s">
+        <v>898</v>
+      </c>
+      <c r="B93" s="99" t="s">
+        <v>899</v>
+      </c>
+      <c r="C93" s="69" t="s">
+        <v>900</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>901</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="46">
+        <v>43560.0</v>
+      </c>
+      <c r="L93" s="46"/>
+      <c r="M93" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="O93" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="19"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19"/>
     </row>
     <row r="94">
-      <c r="B94" s="80"/>
-      <c r="C94" s="110"/>
-      <c r="I94" s="104"/>
+      <c r="A94" s="45" t="s">
+        <v>902</v>
+      </c>
+      <c r="B94" s="99" t="s">
+        <v>903</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>904</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>905</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="46">
+        <v>43560.0</v>
+      </c>
+      <c r="L94" s="46"/>
+      <c r="M94" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="O94" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
     </row>
     <row r="95">
-      <c r="B95" s="80"/>
-      <c r="C95" s="110"/>
-      <c r="I95" s="104"/>
+      <c r="A95" s="45" t="s">
+        <v>906</v>
+      </c>
+      <c r="B95" s="99" t="s">
+        <v>907</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>908</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>897</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="46">
+        <v>43560.0</v>
+      </c>
+      <c r="L95" s="46"/>
+      <c r="M95" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="O95" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="19"/>
+      <c r="AB95" s="19"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="19"/>
     </row>
     <row r="96">
-      <c r="B96" s="80"/>
-      <c r="C96" s="110"/>
+      <c r="A96" s="114" t="s">
+        <v>909</v>
+      </c>
+      <c r="B96" s="115" t="s">
+        <v>910</v>
+      </c>
+      <c r="C96" s="119" t="s">
+        <v>911</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
       <c r="I96" s="104"/>
+      <c r="J96" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="K96" s="46">
+        <v>44139.0</v>
+      </c>
+      <c r="L96" s="46"/>
+      <c r="M96" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="114" t="s">
+        <v>611</v>
+      </c>
+      <c r="O96" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="19"/>
+      <c r="AA96" s="19"/>
+      <c r="AB96" s="19"/>
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="19"/>
     </row>
     <row r="97">
       <c r="B97" s="80"/>
@@ -32007,19 +32340,146 @@
       <c r="I97" s="104"/>
     </row>
     <row r="98">
-      <c r="B98" s="80"/>
-      <c r="C98" s="110"/>
+      <c r="A98" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>913</v>
+      </c>
+      <c r="C98" s="111" t="s">
+        <v>914</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="E98" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
       <c r="I98" s="104"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="L98" s="19"/>
+      <c r="M98" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
     </row>
     <row r="99">
-      <c r="B99" s="80"/>
-      <c r="C99" s="110"/>
+      <c r="A99" s="45" t="s">
+        <v>915</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>916</v>
+      </c>
+      <c r="C99" s="100" t="s">
+        <v>917</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>918</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
       <c r="I99" s="104"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="L99" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="M99" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
     </row>
     <row r="100">
-      <c r="B100" s="80"/>
-      <c r="C100" s="110"/>
+      <c r="A100" s="45" t="s">
+        <v>919</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>920</v>
+      </c>
+      <c r="C100" s="100" t="s">
+        <v>921</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>922</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
       <c r="I100" s="104"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="L100" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="M100" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="19"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19"/>
     </row>
     <row r="101">
       <c r="B101" s="80"/>
@@ -36377,50 +36837,90 @@
       <c r="I971" s="104"/>
     </row>
     <row r="972">
+      <c r="B972" s="80"/>
       <c r="C972" s="110"/>
       <c r="I972" s="104"/>
     </row>
     <row r="973">
+      <c r="B973" s="80"/>
       <c r="C973" s="110"/>
       <c r="I973" s="104"/>
     </row>
     <row r="974">
+      <c r="B974" s="80"/>
       <c r="C974" s="110"/>
       <c r="I974" s="104"/>
     </row>
     <row r="975">
+      <c r="B975" s="80"/>
       <c r="C975" s="110"/>
       <c r="I975" s="104"/>
     </row>
     <row r="976">
+      <c r="B976" s="80"/>
       <c r="C976" s="110"/>
       <c r="I976" s="104"/>
     </row>
     <row r="977">
+      <c r="B977" s="80"/>
       <c r="C977" s="110"/>
       <c r="I977" s="104"/>
     </row>
     <row r="978">
+      <c r="B978" s="80"/>
       <c r="C978" s="110"/>
       <c r="I978" s="104"/>
     </row>
+    <row r="979">
+      <c r="B979" s="80"/>
+      <c r="C979" s="110"/>
+      <c r="I979" s="104"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="110"/>
+      <c r="I980" s="104"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="110"/>
+      <c r="I981" s="104"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="110"/>
+      <c r="I982" s="104"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="110"/>
+      <c r="I983" s="104"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="110"/>
+      <c r="I984" s="104"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="110"/>
+      <c r="I985" s="104"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="110"/>
+      <c r="I986" s="104"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AD198">
+  <conditionalFormatting sqref="A2:AD206">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AD198">
+  <conditionalFormatting sqref="A2:AD206">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB198">
+  <conditionalFormatting sqref="A2:AB206">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB198">
+  <conditionalFormatting sqref="A2:AB206">
     <cfRule type="expression" dxfId="6" priority="4">
       <formula>$M2="deprecated"</formula>
     </cfRule>
@@ -36444,20 +36944,20 @@
     <hyperlink r:id="rId16" ref="O22"/>
     <hyperlink r:id="rId17" ref="O23"/>
     <hyperlink r:id="rId18" ref="O24"/>
-    <hyperlink r:id="rId19" ref="O52"/>
-    <hyperlink r:id="rId20" ref="J72"/>
-    <hyperlink r:id="rId21" ref="J73"/>
-    <hyperlink r:id="rId22" ref="J74"/>
-    <hyperlink r:id="rId23" ref="J76"/>
-    <hyperlink r:id="rId24" ref="O76"/>
-    <hyperlink r:id="rId25" ref="O78"/>
-    <hyperlink r:id="rId26" ref="J81"/>
-    <hyperlink r:id="rId27" ref="O83"/>
-    <hyperlink r:id="rId28" ref="O84"/>
-    <hyperlink r:id="rId29" ref="O85"/>
-    <hyperlink r:id="rId30" ref="O86"/>
-    <hyperlink r:id="rId31" ref="O87"/>
-    <hyperlink r:id="rId32" ref="J88"/>
+    <hyperlink r:id="rId19" ref="O60"/>
+    <hyperlink r:id="rId20" ref="J80"/>
+    <hyperlink r:id="rId21" ref="J81"/>
+    <hyperlink r:id="rId22" ref="J82"/>
+    <hyperlink r:id="rId23" ref="J84"/>
+    <hyperlink r:id="rId24" ref="O84"/>
+    <hyperlink r:id="rId25" ref="O86"/>
+    <hyperlink r:id="rId26" ref="J89"/>
+    <hyperlink r:id="rId27" ref="O91"/>
+    <hyperlink r:id="rId28" ref="O92"/>
+    <hyperlink r:id="rId29" ref="O93"/>
+    <hyperlink r:id="rId30" ref="O94"/>
+    <hyperlink r:id="rId31" ref="O95"/>
+    <hyperlink r:id="rId32" ref="J96"/>
   </hyperlinks>
   <drawing r:id="rId33"/>
 </worksheet>
@@ -36530,19 +37030,19 @@
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="129" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>430</v>
@@ -36559,7 +37059,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="O2" s="133" t="s">
         <v>50</v>
@@ -36582,19 +37082,19 @@
     </row>
     <row r="3">
       <c r="A3" s="134" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>899</v>
+        <v>928</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>900</v>
+        <v>929</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="134" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>430</v>
@@ -36603,7 +37103,7 @@
       <c r="H3" s="136"/>
       <c r="I3" s="136"/>
       <c r="J3" s="137" t="s">
-        <v>901</v>
+        <v>930</v>
       </c>
       <c r="K3" s="132">
         <v>44786.0</v>
@@ -36613,7 +37113,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="129" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="O3" s="139" t="s">
         <v>25</v>
@@ -36636,19 +37136,19 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="129" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>430</v>
@@ -36667,7 +37167,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="129" t="s">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="O4" s="133" t="s">
         <v>101</v>
@@ -36690,19 +37190,19 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>909</v>
+        <v>621</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>430</v>
@@ -36742,19 +37242,19 @@
     </row>
     <row r="6">
       <c r="A6" s="141" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="C6" s="129" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>430</v>
@@ -36762,7 +37262,7 @@
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
       <c r="I6" s="45" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="132">
@@ -36773,7 +37273,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="129" t="s">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="O6" s="133" t="s">
         <v>50</v>
@@ -36796,19 +37296,19 @@
     </row>
     <row r="7">
       <c r="A7" s="142" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>915</v>
+        <v>943</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>430</v>
@@ -36816,7 +37316,7 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="144" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="145">
@@ -36829,7 +37329,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="O7" s="146" t="s">
         <v>101</v>
@@ -36852,19 +37352,19 @@
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>430</v>
@@ -36872,7 +37372,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="144" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="145">
@@ -36885,10 +37385,10 @@
         <v>23</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="O8" s="146" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
@@ -36908,13 +37408,13 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>17</v>
@@ -36929,10 +37429,12 @@
       <c r="H9" s="19"/>
       <c r="I9" s="104"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L9" s="19"/>
-      <c r="M9" s="45" t="s">
-        <v>491</v>
+      <c r="M9" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
@@ -36954,19 +37456,19 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>430</v>
@@ -36975,10 +37477,12 @@
       <c r="H10" s="19"/>
       <c r="I10" s="104"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L10" s="19"/>
-      <c r="M10" s="45" t="s">
-        <v>491</v>
+      <c r="M10" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
@@ -37000,19 +37504,19 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>936</v>
+        <v>964</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>430</v>
@@ -37021,10 +37525,12 @@
       <c r="H11" s="19"/>
       <c r="I11" s="104"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="45" t="s">
-        <v>491</v>
+      <c r="M11" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
@@ -37046,19 +37552,19 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>430</v>
@@ -37067,10 +37573,12 @@
       <c r="H12" s="19"/>
       <c r="I12" s="104"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="46">
+        <v>45423.0</v>
+      </c>
       <c r="L12" s="19"/>
-      <c r="M12" s="45" t="s">
-        <v>491</v>
+      <c r="M12" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -37091,68 +37599,70 @@
       <c r="AD12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
-        <v>941</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>942</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>943</v>
-      </c>
-      <c r="D13" s="45" t="s">
+      <c r="A13" s="147" t="s">
+        <v>969</v>
+      </c>
+      <c r="B13" s="148" t="s">
+        <v>970</v>
+      </c>
+      <c r="C13" s="147" t="s">
+        <v>971</v>
+      </c>
+      <c r="D13" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>923</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="107" t="s">
-        <v>944</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
+      <c r="E13" s="147" t="s">
+        <v>951</v>
+      </c>
+      <c r="F13" s="147" t="s">
+        <v>972</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="145">
+        <v>45422.0</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>947</v>
+        <v>975</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>430</v>
@@ -37160,7 +37670,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="107" t="s">
-        <v>949</v>
+        <v>977</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -37188,19 +37698,19 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>430</v>
@@ -37208,7 +37718,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -37267,15 +37777,15 @@
       <c r="I23" s="104"/>
     </row>
     <row r="24">
-      <c r="C24" s="147"/>
+      <c r="C24" s="149"/>
       <c r="I24" s="104"/>
     </row>
     <row r="25">
-      <c r="C25" s="147"/>
+      <c r="C25" s="149"/>
       <c r="I25" s="104"/>
     </row>
     <row r="26">
-      <c r="C26" s="147"/>
+      <c r="C26" s="149"/>
       <c r="I26" s="104"/>
     </row>
     <row r="27">
@@ -37283,11 +37793,11 @@
       <c r="I27" s="104"/>
     </row>
     <row r="28">
-      <c r="C28" s="148"/>
+      <c r="C28" s="150"/>
       <c r="I28" s="104"/>
     </row>
     <row r="29">
-      <c r="C29" s="148"/>
+      <c r="C29" s="150"/>
       <c r="I29" s="104"/>
     </row>
     <row r="30">
@@ -41192,13 +41702,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>601</v>
@@ -41210,7 +41720,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="46">
@@ -41221,7 +41731,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41254,16 +41764,16 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>596</v>
@@ -41281,7 +41791,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -41302,17 +41812,17 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -41348,17 +41858,17 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -41394,17 +41904,17 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -41419,7 +41929,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -41440,17 +41950,17 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -41486,17 +41996,17 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -41532,17 +42042,17 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>979</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -41590,16 +42100,16 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>983</v>
+        <v>1011</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>596</v>
@@ -41617,7 +42127,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -41638,17 +42148,17 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -41684,17 +42194,17 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -41730,17 +42240,17 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -41755,7 +42265,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -41776,17 +42286,17 @@
     </row>
     <row r="16">
       <c r="A16" s="45" t="s">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -41822,17 +42332,17 @@
     </row>
     <row r="17">
       <c r="A17" s="45" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -41868,17 +42378,17 @@
     </row>
     <row r="18">
       <c r="A18" s="45" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -41926,16 +42436,16 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>596</v>
@@ -41953,7 +42463,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -41974,17 +42484,17 @@
     </row>
     <row r="21">
       <c r="A21" s="45" t="s">
-        <v>1007</v>
+        <v>1035</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -42020,17 +42530,17 @@
     </row>
     <row r="22">
       <c r="A22" s="45" t="s">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -42066,17 +42576,17 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>1016</v>
+        <v>1044</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -42112,17 +42622,17 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>1017</v>
+        <v>1045</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -42158,17 +42668,17 @@
     </row>
     <row r="25">
       <c r="A25" s="45" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -42204,23 +42714,23 @@
     </row>
     <row r="26">
       <c r="A26" s="45" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="46">
@@ -42252,23 +42762,23 @@
     </row>
     <row r="27">
       <c r="A27" s="45" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="46">
@@ -42304,23 +42814,23 @@
       <c r="C28" s="100"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
-      <c r="I28" s="149"/>
+      <c r="I28" s="151"/>
       <c r="K28" s="46"/>
       <c r="M28" s="45"/>
-      <c r="N28" s="150"/>
+      <c r="N28" s="152"/>
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>596</v>
@@ -42328,8 +42838,8 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="149" t="s">
-        <v>1034</v>
+      <c r="I29" s="151" t="s">
+        <v>1062</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="46">
@@ -42339,7 +42849,7 @@
       <c r="M29" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="150" t="s">
+      <c r="N29" s="152" t="s">
         <v>611</v>
       </c>
       <c r="O29" s="19"/>
@@ -42358,72 +42868,72 @@
       <c r="AB29" s="19"/>
     </row>
     <row r="30">
-      <c r="A30" s="151" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B30" s="152" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C30" s="153" t="s">
-        <v>1037</v>
+      <c r="A30" s="153" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B30" s="154" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C30" s="155" t="s">
+        <v>1065</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="154" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="149" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J30" s="156" t="s">
+      <c r="E30" s="156" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="151" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J30" s="158" t="s">
         <v>450</v>
       </c>
-      <c r="K30" s="157">
+      <c r="K30" s="159">
         <v>44139.0</v>
       </c>
-      <c r="L30" s="158">
+      <c r="L30" s="160">
         <v>44811.0</v>
       </c>
-      <c r="M30" s="154" t="s">
+      <c r="M30" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="150" t="s">
+      <c r="N30" s="152" t="s">
         <v>611</v>
       </c>
-      <c r="O30" s="159" t="s">
+      <c r="O30" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
     </row>
     <row r="31">
       <c r="A31" s="45" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -42437,7 +42947,7 @@
       <c r="M31" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="154" t="s">
+      <c r="N31" s="156" t="s">
         <v>95</v>
       </c>
       <c r="O31" s="19"/>
@@ -42457,17 +42967,17 @@
     </row>
     <row r="32">
       <c r="A32" s="45" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -42481,7 +42991,7 @@
       <c r="M32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="154" t="s">
+      <c r="N32" s="156" t="s">
         <v>95</v>
       </c>
       <c r="O32" s="19"/>
@@ -47285,19 +47795,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>430</v>
@@ -47335,22 +47845,22 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -47367,7 +47877,7 @@
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -47385,22 +47895,22 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -47417,7 +47927,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -47435,22 +47945,22 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1059</v>
+        <v>1087</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -47467,7 +47977,7 @@
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1089">
   <si>
     <t>Term</t>
   </si>
@@ -2529,6 +2529,9 @@
   </si>
   <si>
     <t>Involvement where entity can reverse input of specified context</t>
+  </si>
+  <si>
+    <t>Reversion can be considered a form of correction in some instances. We welcome inputs to further explore and define this relation between correction and reversion concepts.</t>
   </si>
   <si>
     <t>EntityNonPermissiveInvolvement</t>
@@ -29953,7 +29956,9 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="45" t="s">
+        <v>737</v>
+      </c>
       <c r="J40" s="19"/>
       <c r="K40" s="46">
         <v>45423.0</v>
@@ -29982,13 +29987,13 @@
     </row>
     <row r="41">
       <c r="A41" s="69" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D41" s="116" t="s">
         <v>690</v>
@@ -30028,17 +30033,17 @@
     </row>
     <row r="42">
       <c r="A42" s="45" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -30072,17 +30077,17 @@
     </row>
     <row r="43">
       <c r="A43" s="45" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -30116,17 +30121,17 @@
     </row>
     <row r="44">
       <c r="A44" s="45" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -30160,17 +30165,17 @@
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -30204,17 +30209,17 @@
     </row>
     <row r="46">
       <c r="A46" s="45" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -30250,17 +30255,17 @@
     </row>
     <row r="47">
       <c r="A47" s="45" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -30296,17 +30301,17 @@
     </row>
     <row r="48">
       <c r="A48" s="45" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -30340,17 +30345,17 @@
     </row>
     <row r="49">
       <c r="A49" s="45" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -30384,17 +30389,17 @@
     </row>
     <row r="50">
       <c r="A50" s="45" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -30430,17 +30435,17 @@
     </row>
     <row r="51">
       <c r="A51" s="45" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -30474,17 +30479,17 @@
     </row>
     <row r="52">
       <c r="A52" s="45" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -30518,17 +30523,17 @@
     </row>
     <row r="53">
       <c r="A53" s="45" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -30562,22 +30567,24 @@
     </row>
     <row r="54">
       <c r="A54" s="45" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="45" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="I54" s="45" t="s">
+        <v>737</v>
+      </c>
       <c r="J54" s="19"/>
       <c r="K54" s="46">
         <v>45423.0</v>
@@ -30609,13 +30616,13 @@
     </row>
     <row r="56">
       <c r="A56" s="45" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D56" s="116" t="s">
         <v>690</v>
@@ -30655,13 +30662,13 @@
     </row>
     <row r="57">
       <c r="A57" s="45" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D57" s="116" t="s">
         <v>690</v>
@@ -30701,13 +30708,13 @@
     </row>
     <row r="58">
       <c r="A58" s="45" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D58" s="116" t="s">
         <v>690</v>
@@ -30750,13 +30757,13 @@
     </row>
     <row r="60">
       <c r="A60" s="69" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C60" s="100" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D60" s="116" t="s">
         <v>690</v>
@@ -30768,7 +30775,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="107" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="46">
@@ -30802,23 +30809,23 @@
     </row>
     <row r="61">
       <c r="A61" s="45" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C61" s="100" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D61" s="118"/>
       <c r="E61" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="107" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J61" s="105"/>
       <c r="K61" s="46">
@@ -30850,23 +30857,23 @@
     </row>
     <row r="62">
       <c r="A62" s="45" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C62" s="100" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D62" s="118"/>
       <c r="E62" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="107" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J62" s="105"/>
       <c r="K62" s="46">
@@ -30898,23 +30905,23 @@
     </row>
     <row r="63">
       <c r="A63" s="45" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C63" s="100" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D63" s="118"/>
       <c r="E63" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="107" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J63" s="105"/>
       <c r="K63" s="46">
@@ -30946,23 +30953,23 @@
     </row>
     <row r="64">
       <c r="A64" s="45" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D64" s="118"/>
       <c r="E64" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="107" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J64" s="105"/>
       <c r="K64" s="46">
@@ -30994,23 +31001,23 @@
     </row>
     <row r="65">
       <c r="A65" s="45" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C65" s="100" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D65" s="118"/>
       <c r="E65" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="107" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J65" s="105"/>
       <c r="K65" s="46">
@@ -31044,23 +31051,23 @@
     </row>
     <row r="66">
       <c r="A66" s="45" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C66" s="100" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D66" s="118"/>
       <c r="E66" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="107" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J66" s="105"/>
       <c r="K66" s="46">
@@ -31094,23 +31101,23 @@
     </row>
     <row r="67">
       <c r="A67" s="45" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C67" s="100" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D67" s="118"/>
       <c r="E67" s="116" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="107" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J67" s="105"/>
       <c r="K67" s="46">
@@ -31144,23 +31151,23 @@
     </row>
     <row r="68">
       <c r="A68" s="45" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C68" s="100" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="107" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J68" s="105"/>
       <c r="K68" s="46">
@@ -31204,7 +31211,7 @@
     </row>
     <row r="70">
       <c r="A70" s="69" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B70" s="61"/>
       <c r="C70" s="100"/>
@@ -31220,16 +31227,16 @@
     </row>
     <row r="71">
       <c r="A71" s="45" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C71" s="100" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E71" s="45" t="s">
         <v>18</v>
@@ -31238,7 +31245,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="107" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J71" s="105"/>
       <c r="K71" s="46">
@@ -31251,7 +31258,7 @@
         <v>23</v>
       </c>
       <c r="N71" s="45" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="O71" s="114"/>
       <c r="P71" s="19"/>
@@ -31272,13 +31279,13 @@
     </row>
     <row r="72">
       <c r="A72" s="114" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B72" s="115" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C72" s="119" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>601</v>
@@ -31290,7 +31297,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="120" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J72" s="114"/>
       <c r="K72" s="46">
@@ -31324,16 +31331,16 @@
     </row>
     <row r="73">
       <c r="A73" s="45" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C73" s="100" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E73" s="45" t="s">
         <v>18</v>
@@ -31351,7 +31358,7 @@
         <v>23</v>
       </c>
       <c r="N73" s="45" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="O73" s="114"/>
       <c r="P73" s="19"/>
@@ -31372,16 +31379,16 @@
     </row>
     <row r="74">
       <c r="A74" s="45" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C74" s="100" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E74" s="45" t="s">
         <v>18</v>
@@ -31390,7 +31397,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="107" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J74" s="114"/>
       <c r="K74" s="46">
@@ -31401,7 +31408,7 @@
         <v>23</v>
       </c>
       <c r="N74" s="45" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="O74" s="114"/>
       <c r="P74" s="19"/>
@@ -31422,16 +31429,16 @@
     </row>
     <row r="75">
       <c r="A75" s="45" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C75" s="100" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E75" s="45" t="s">
         <v>18</v>
@@ -31468,16 +31475,16 @@
     </row>
     <row r="76">
       <c r="A76" s="45" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C76" s="100" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E76" s="45" t="s">
         <v>18</v>
@@ -31514,16 +31521,16 @@
     </row>
     <row r="77">
       <c r="A77" s="45" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C77" s="100" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E77" s="45" t="s">
         <v>18</v>
@@ -31574,7 +31581,7 @@
     </row>
     <row r="79">
       <c r="A79" s="69" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="100"/>
@@ -31590,13 +31597,13 @@
     </row>
     <row r="80">
       <c r="A80" s="114" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B80" s="115" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>601</v>
@@ -31642,17 +31649,17 @@
     </row>
     <row r="81">
       <c r="A81" s="45" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C81" s="100" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="45" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -31692,17 +31699,17 @@
     </row>
     <row r="82">
       <c r="A82" s="45" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C82" s="100" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="45" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -31742,23 +31749,23 @@
     </row>
     <row r="83">
       <c r="A83" s="45" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C83" s="100" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="45" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="107" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J83" s="105"/>
       <c r="K83" s="46">
@@ -31790,13 +31797,13 @@
     </row>
     <row r="84">
       <c r="A84" s="114" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B84" s="115" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C84" s="111" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D84" s="45" t="s">
         <v>601</v>
@@ -31838,13 +31845,13 @@
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>17</v>
@@ -31856,7 +31863,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="122" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="10">
@@ -31870,7 +31877,7 @@
         <v>95</v>
       </c>
       <c r="O86" s="123" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
@@ -31890,13 +31897,13 @@
     </row>
     <row r="87">
       <c r="A87" s="69" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C87" s="100" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>601</v>
@@ -31908,7 +31915,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="107" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J87" s="19"/>
       <c r="K87" s="46">
@@ -31938,17 +31945,17 @@
     </row>
     <row r="88">
       <c r="A88" s="45" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C88" s="100" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="45" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
@@ -31982,23 +31989,23 @@
     </row>
     <row r="89">
       <c r="A89" s="114" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B89" s="115" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C89" s="100" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="25" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="107" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J89" s="106" t="s">
         <v>450</v>
@@ -32036,16 +32043,16 @@
     </row>
     <row r="91">
       <c r="A91" s="69" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E91" s="45" t="s">
         <v>596</v>
@@ -32063,7 +32070,7 @@
         <v>23</v>
       </c>
       <c r="N91" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O91" s="124" t="s">
         <v>25</v>
@@ -32086,16 +32093,16 @@
     </row>
     <row r="92">
       <c r="A92" s="45" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B92" s="99" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>596</v>
@@ -32113,7 +32120,7 @@
         <v>23</v>
       </c>
       <c r="N92" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O92" s="124" t="s">
         <v>25</v>
@@ -32136,16 +32143,16 @@
     </row>
     <row r="93">
       <c r="A93" s="45" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B93" s="99" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C93" s="69" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E93" s="45" t="s">
         <v>596</v>
@@ -32163,7 +32170,7 @@
         <v>23</v>
       </c>
       <c r="N93" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O93" s="124" t="s">
         <v>25</v>
@@ -32186,16 +32193,16 @@
     </row>
     <row r="94">
       <c r="A94" s="45" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B94" s="99" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E94" s="45" t="s">
         <v>596</v>
@@ -32213,7 +32220,7 @@
         <v>23</v>
       </c>
       <c r="N94" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O94" s="124" t="s">
         <v>25</v>
@@ -32236,16 +32243,16 @@
     </row>
     <row r="95">
       <c r="A95" s="45" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B95" s="99" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E95" s="45" t="s">
         <v>596</v>
@@ -32263,7 +32270,7 @@
         <v>23</v>
       </c>
       <c r="N95" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O95" s="124" t="s">
         <v>25</v>
@@ -32286,13 +32293,13 @@
     </row>
     <row r="96">
       <c r="A96" s="114" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B96" s="115" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C96" s="119" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="25" t="s">
@@ -32341,13 +32348,13 @@
     </row>
     <row r="98">
       <c r="A98" s="45" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C98" s="111" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>601</v>
@@ -32387,16 +32394,16 @@
     </row>
     <row r="99">
       <c r="A99" s="45" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C99" s="100" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E99" s="45" t="s">
         <v>596</v>
@@ -32435,16 +32442,16 @@
     </row>
     <row r="100">
       <c r="A100" s="45" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C100" s="100" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>596</v>
@@ -37030,19 +37037,19 @@
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="129" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>430</v>
@@ -37059,7 +37066,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O2" s="133" t="s">
         <v>50</v>
@@ -37082,19 +37089,19 @@
     </row>
     <row r="3">
       <c r="A3" s="134" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="134" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>430</v>
@@ -37103,7 +37110,7 @@
       <c r="H3" s="136"/>
       <c r="I3" s="136"/>
       <c r="J3" s="137" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K3" s="132">
         <v>44786.0</v>
@@ -37113,7 +37120,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="129" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O3" s="139" t="s">
         <v>25</v>
@@ -37136,19 +37143,19 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="129" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>430</v>
@@ -37167,7 +37174,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="129" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O4" s="133" t="s">
         <v>101</v>
@@ -37190,13 +37197,13 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
@@ -37242,19 +37249,19 @@
     </row>
     <row r="6">
       <c r="A6" s="141" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C6" s="129" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>430</v>
@@ -37262,7 +37269,7 @@
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
       <c r="I6" s="45" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="132">
@@ -37273,7 +37280,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="129" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O6" s="133" t="s">
         <v>50</v>
@@ -37296,19 +37303,19 @@
     </row>
     <row r="7">
       <c r="A7" s="142" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>430</v>
@@ -37316,7 +37323,7 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="144" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="145">
@@ -37329,7 +37336,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O7" s="146" t="s">
         <v>101</v>
@@ -37352,19 +37359,19 @@
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>430</v>
@@ -37372,7 +37379,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="144" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="145">
@@ -37385,10 +37392,10 @@
         <v>23</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O8" s="146" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
@@ -37408,13 +37415,13 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>17</v>
@@ -37456,19 +37463,19 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>430</v>
@@ -37504,19 +37511,19 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>430</v>
@@ -37552,19 +37559,19 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>430</v>
@@ -37600,22 +37607,22 @@
     </row>
     <row r="13">
       <c r="A13" s="147" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B13" s="148" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D13" s="147" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="147" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F13" s="147" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -37650,19 +37657,19 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>430</v>
@@ -37670,7 +37677,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="107" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -37698,19 +37705,19 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>430</v>
@@ -37718,7 +37725,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -41702,13 +41709,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>601</v>
@@ -41720,7 +41727,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="46">
@@ -41731,7 +41738,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41764,16 +41771,16 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>596</v>
@@ -41791,7 +41798,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -41812,17 +41819,17 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -41858,17 +41865,17 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -41904,17 +41911,17 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -41929,7 +41936,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -41950,17 +41957,17 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -41996,17 +42003,17 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -42042,17 +42049,17 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -42100,16 +42107,16 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>596</v>
@@ -42127,7 +42134,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -42148,17 +42155,17 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -42194,17 +42201,17 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -42240,17 +42247,17 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -42265,7 +42272,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -42286,17 +42293,17 @@
     </row>
     <row r="16">
       <c r="A16" s="45" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -42332,17 +42339,17 @@
     </row>
     <row r="17">
       <c r="A17" s="45" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -42378,17 +42385,17 @@
     </row>
     <row r="18">
       <c r="A18" s="45" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -42436,16 +42443,16 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>596</v>
@@ -42463,7 +42470,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -42484,17 +42491,17 @@
     </row>
     <row r="21">
       <c r="A21" s="45" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -42530,17 +42537,17 @@
     </row>
     <row r="22">
       <c r="A22" s="45" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -42576,17 +42583,17 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -42622,17 +42629,17 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -42668,17 +42675,17 @@
     </row>
     <row r="25">
       <c r="A25" s="45" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -42714,23 +42721,23 @@
     </row>
     <row r="26">
       <c r="A26" s="45" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="46">
@@ -42762,23 +42769,23 @@
     </row>
     <row r="27">
       <c r="A27" s="45" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="46">
@@ -42821,16 +42828,16 @@
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>596</v>
@@ -42839,7 +42846,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="151" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="46">
@@ -42869,23 +42876,23 @@
     </row>
     <row r="30">
       <c r="A30" s="153" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B30" s="154" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="156" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F30" s="157"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
       <c r="I30" s="151" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J30" s="158" t="s">
         <v>450</v>
@@ -42923,17 +42930,17 @@
     </row>
     <row r="31">
       <c r="A31" s="45" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -42967,17 +42974,17 @@
     </row>
     <row r="32">
       <c r="A32" s="45" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -47795,19 +47802,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>430</v>
@@ -47845,22 +47852,22 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -47877,7 +47884,7 @@
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -47895,22 +47902,22 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -47927,7 +47934,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -47945,22 +47952,22 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -47977,7 +47984,7 @@
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1092">
   <si>
     <t>Term</t>
   </si>
@@ -3026,7 +3026,7 @@
     <t>Duration or temporal limitation on storage of data</t>
   </si>
   <si>
-    <t>dpv:StorageCondition,dpv:Duration</t>
+    <t>dpv:StorageCondition,dpv:ProcessingDuration</t>
   </si>
   <si>
     <t>StorageLocation</t>
@@ -3038,7 +3038,7 @@
     <t>Location or geospatial scope where the data is stored</t>
   </si>
   <si>
-    <t>dpv:StorageCondition,dpv:Location</t>
+    <t>dpv:StorageCondition,dpv:ProcessingLocation</t>
   </si>
   <si>
     <t>StorageRestoration</t>
@@ -3074,7 +3074,7 @@
     <t>Processing Location</t>
   </si>
   <si>
-    <t>Location or geospatial scope where processing takes places</t>
+    <t>Conditions regarding location or geospatial scope where processing takes places</t>
   </si>
   <si>
     <t>dpv:ProcessingCondition,dpv:Location</t>
@@ -3086,7 +3086,7 @@
     <t>Processing Duration</t>
   </si>
   <si>
-    <t>Duration or temporal limitation for processing</t>
+    <t>Conditinos regarding duration or temporal limitation for processing</t>
   </si>
   <si>
     <t>dpv:ProcessingCondition,dpv:Duration</t>
@@ -3128,6 +3128,15 @@
       </rPr>
       <t>https://specialprivacy.ercim.eu/)</t>
     </r>
+  </si>
+  <si>
+    <t>hasProcessingCondition</t>
+  </si>
+  <si>
+    <t>has processing condition</t>
+  </si>
+  <si>
+    <t>Indicates information about processing condition</t>
   </si>
   <si>
     <t>hasAlgorithmicLogic</t>
@@ -32148,7 +32157,7 @@
       <c r="B93" s="99" t="s">
         <v>900</v>
       </c>
-      <c r="C93" s="69" t="s">
+      <c r="C93" s="45" t="s">
         <v>901</v>
       </c>
       <c r="D93" s="45" t="s">
@@ -32347,13 +32356,13 @@
       <c r="I97" s="104"/>
     </row>
     <row r="98">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="69" t="s">
         <v>913</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>914</v>
       </c>
-      <c r="C98" s="111" t="s">
+      <c r="C98" s="100" t="s">
         <v>915</v>
       </c>
       <c r="D98" s="45" t="s">
@@ -37103,8 +37112,8 @@
       <c r="E3" s="134" t="s">
         <v>898</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>430</v>
+      <c r="F3" s="129" t="s">
+        <v>893</v>
       </c>
       <c r="G3" s="136"/>
       <c r="H3" s="136"/>
@@ -37155,7 +37164,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="129" t="s">
-        <v>935</v>
+        <v>893</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>430</v>
@@ -37164,21 +37173,17 @@
       <c r="H4" s="130"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="132">
-        <v>44139.0</v>
-      </c>
-      <c r="L4" s="132">
-        <v>44727.0</v>
-      </c>
+      <c r="K4" s="46">
+        <v>45270.0</v>
+      </c>
+      <c r="L4" s="132"/>
       <c r="M4" s="129" t="s">
         <v>23</v>
       </c>
       <c r="N4" s="129" t="s">
-        <v>927</v>
-      </c>
-      <c r="O4" s="133" t="s">
-        <v>101</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O4" s="129"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -37196,182 +37201,180 @@
       <c r="AD4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="141" t="s">
+        <v>935</v>
+      </c>
+      <c r="B5" s="141" t="s">
         <v>936</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="129" t="s">
         <v>937</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="D5" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="129" t="s">
         <v>938</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>621</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="132">
-        <v>44786.0</v>
-      </c>
-      <c r="L5" s="46">
-        <v>45402.0</v>
+        <v>44139.0</v>
+      </c>
+      <c r="L5" s="132">
+        <v>44727.0</v>
       </c>
       <c r="M5" s="129" t="s">
-        <v>617</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="129" t="s">
+        <v>927</v>
+      </c>
+      <c r="O5" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="45" t="s">
         <v>939</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="45" t="s">
         <v>940</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="100" t="s">
         <v>941</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>797</v>
+      <c r="E6" s="45" t="s">
+        <v>621</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="45" t="s">
-        <v>942</v>
-      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="19"/>
       <c r="K6" s="132">
-        <v>44139.0</v>
-      </c>
-      <c r="L6" s="132"/>
+        <v>44786.0</v>
+      </c>
+      <c r="L6" s="46">
+        <v>45402.0</v>
+      </c>
       <c r="M6" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="129" t="s">
-        <v>927</v>
-      </c>
-      <c r="O6" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
+        <v>617</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="141" t="s">
+        <v>942</v>
+      </c>
+      <c r="B7" s="141" t="s">
         <v>943</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="C7" s="129" t="s">
         <v>944</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="45" t="s">
         <v>945</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>946</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="144" t="s">
-        <v>947</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="145">
-        <v>44587.0</v>
-      </c>
-      <c r="L7" s="145">
-        <v>44727.0</v>
-      </c>
-      <c r="M7" s="40" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="132">
+        <v>44139.0</v>
+      </c>
+      <c r="L7" s="132"/>
+      <c r="M7" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="40" t="s">
-        <v>948</v>
-      </c>
-      <c r="O7" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
+      <c r="N7" s="129" t="s">
+        <v>927</v>
+      </c>
+      <c r="O7" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>430</v>
@@ -37379,23 +37382,23 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="144" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="145">
-        <v>43592.0</v>
+        <v>44587.0</v>
       </c>
       <c r="L8" s="145">
-        <v>44587.0</v>
+        <v>44727.0</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="O8" s="146" t="s">
-        <v>877</v>
+        <v>101</v>
       </c>
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
@@ -37414,52 +37417,60 @@
       <c r="AD8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="142" t="s">
+        <v>952</v>
+      </c>
+      <c r="B9" s="143" t="s">
+        <v>953</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>954</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="F9" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="144" t="s">
         <v>956</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>957</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>690</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="46">
-        <v>45423.0</v>
-      </c>
-      <c r="L9" s="19"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="145">
+        <v>43592.0</v>
+      </c>
+      <c r="L9" s="145">
+        <v>44587.0</v>
+      </c>
       <c r="M9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
+      <c r="N9" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="O9" s="146" t="s">
+        <v>877</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
@@ -37475,7 +37486,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>961</v>
+        <v>690</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>430</v>
@@ -37511,19 +37522,19 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
+        <v>961</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>962</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="C11" s="100" t="s">
         <v>963</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>964</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>430</v>
@@ -37559,19 +37570,19 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
+        <v>965</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>966</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" s="100" t="s">
         <v>967</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>968</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>430</v>
@@ -37606,118 +37617,118 @@
       <c r="AD12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="45" t="s">
+        <v>969</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>970</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="C13" s="100" t="s">
         <v>971</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="D13" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>972</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="F13" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="46">
+        <v>45423.0</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="147" t="s">
+        <v>973</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" s="147" t="s">
+        <v>975</v>
+      </c>
+      <c r="D14" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="147" t="s">
-        <v>952</v>
-      </c>
-      <c r="F13" s="147" t="s">
-        <v>973</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="145">
+      <c r="E14" s="147" t="s">
+        <v>955</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>976</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="145">
         <v>45422.0</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="42" t="s">
+      <c r="L14" s="40"/>
+      <c r="M14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="144" t="s">
+      <c r="N14" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="45" t="s">
-        <v>974</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>975</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>976</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>977</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="107" t="s">
-        <v>978</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="C15" s="100" t="s">
         <v>979</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>980</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>981</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>430</v>
@@ -37725,7 +37736,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -37752,8 +37763,52 @@
       <c r="AD15" s="19"/>
     </row>
     <row r="16">
-      <c r="C16" s="110"/>
-      <c r="I16" s="104"/>
+      <c r="A16" s="45" t="s">
+        <v>982</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>983</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>984</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="107" t="s">
+        <v>985</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
     </row>
     <row r="17">
       <c r="C17" s="110"/>
@@ -37764,7 +37819,7 @@
       <c r="I18" s="104"/>
     </row>
     <row r="19">
-      <c r="C19" s="100"/>
+      <c r="C19" s="110"/>
       <c r="I19" s="104"/>
     </row>
     <row r="20">
@@ -37784,7 +37839,7 @@
       <c r="I23" s="104"/>
     </row>
     <row r="24">
-      <c r="C24" s="149"/>
+      <c r="C24" s="100"/>
       <c r="I24" s="104"/>
     </row>
     <row r="25">
@@ -37796,11 +37851,11 @@
       <c r="I26" s="104"/>
     </row>
     <row r="27">
-      <c r="C27" s="100"/>
+      <c r="C27" s="149"/>
       <c r="I27" s="104"/>
     </row>
     <row r="28">
-      <c r="C28" s="150"/>
+      <c r="C28" s="100"/>
       <c r="I28" s="104"/>
     </row>
     <row r="29">
@@ -37808,7 +37863,7 @@
       <c r="I29" s="104"/>
     </row>
     <row r="30">
-      <c r="C30" s="100"/>
+      <c r="C30" s="150"/>
       <c r="I30" s="104"/>
     </row>
     <row r="31">
@@ -37820,7 +37875,7 @@
       <c r="I32" s="104"/>
     </row>
     <row r="33">
-      <c r="C33" s="110"/>
+      <c r="C33" s="100"/>
       <c r="I33" s="104"/>
     </row>
     <row r="34">
@@ -37868,7 +37923,7 @@
       <c r="I44" s="104"/>
     </row>
     <row r="45">
-      <c r="C45" s="100"/>
+      <c r="C45" s="110"/>
       <c r="I45" s="104"/>
     </row>
     <row r="46">
@@ -37880,7 +37935,7 @@
       <c r="I47" s="104"/>
     </row>
     <row r="48">
-      <c r="C48" s="110"/>
+      <c r="C48" s="100"/>
       <c r="I48" s="104"/>
     </row>
     <row r="49">
@@ -37888,14 +37943,14 @@
       <c r="I49" s="104"/>
     </row>
     <row r="50">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="69"/>
+      <c r="C50" s="110"/>
       <c r="I50" s="104"/>
     </row>
     <row r="51">
-      <c r="C51" s="100"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="69"/>
       <c r="I51" s="104"/>
     </row>
     <row r="52">
@@ -37931,7 +37986,7 @@
       <c r="I59" s="104"/>
     </row>
     <row r="60">
-      <c r="C60" s="110"/>
+      <c r="C60" s="100"/>
       <c r="I60" s="104"/>
     </row>
     <row r="61">
@@ -41614,19 +41669,33 @@
       <c r="C980" s="110"/>
       <c r="I980" s="104"/>
     </row>
+    <row r="981">
+      <c r="C981" s="110"/>
+      <c r="I981" s="104"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AD980">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$M4="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$M4="deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD981">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$M1="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AD980">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A1:AD981">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AD980">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A1:AD981">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M1="modified"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41634,10 +41703,10 @@
     <hyperlink r:id="rId1" ref="O2"/>
     <hyperlink r:id="rId2" ref="J3"/>
     <hyperlink r:id="rId3" ref="O3"/>
-    <hyperlink r:id="rId4" ref="O4"/>
-    <hyperlink r:id="rId5" ref="O6"/>
-    <hyperlink r:id="rId6" ref="O7"/>
-    <hyperlink r:id="rId7" ref="O8"/>
+    <hyperlink r:id="rId4" ref="O5"/>
+    <hyperlink r:id="rId5" ref="O7"/>
+    <hyperlink r:id="rId6" ref="O8"/>
+    <hyperlink r:id="rId7" ref="O9"/>
   </hyperlinks>
   <drawing r:id="rId8"/>
 </worksheet>
@@ -41709,13 +41778,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>601</v>
@@ -41727,7 +41796,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="46">
@@ -41738,7 +41807,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41771,16 +41840,16 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>596</v>
@@ -41798,7 +41867,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -41819,17 +41888,17 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -41865,17 +41934,17 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -41911,17 +41980,17 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -41936,7 +42005,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -41957,17 +42026,17 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -42003,17 +42072,17 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -42049,17 +42118,17 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -42107,16 +42176,16 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>596</v>
@@ -42134,7 +42203,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -42155,17 +42224,17 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -42201,17 +42270,17 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -42247,17 +42316,17 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -42272,7 +42341,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -42293,17 +42362,17 @@
     </row>
     <row r="16">
       <c r="A16" s="45" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -42339,17 +42408,17 @@
     </row>
     <row r="17">
       <c r="A17" s="45" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -42385,17 +42454,17 @@
     </row>
     <row r="18">
       <c r="A18" s="45" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -42443,16 +42512,16 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>596</v>
@@ -42470,7 +42539,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -42491,17 +42560,17 @@
     </row>
     <row r="21">
       <c r="A21" s="45" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -42537,17 +42606,17 @@
     </row>
     <row r="22">
       <c r="A22" s="45" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -42583,17 +42652,17 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -42629,17 +42698,17 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -42675,17 +42744,17 @@
     </row>
     <row r="25">
       <c r="A25" s="45" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -42721,23 +42790,23 @@
     </row>
     <row r="26">
       <c r="A26" s="45" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="46">
@@ -42769,23 +42838,23 @@
     </row>
     <row r="27">
       <c r="A27" s="45" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="46">
@@ -42828,16 +42897,16 @@
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>596</v>
@@ -42846,7 +42915,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="151" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="46">
@@ -42876,23 +42945,23 @@
     </row>
     <row r="30">
       <c r="A30" s="153" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B30" s="154" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="156" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="F30" s="157"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
       <c r="I30" s="151" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="J30" s="158" t="s">
         <v>450</v>
@@ -42930,17 +42999,17 @@
     </row>
     <row r="31">
       <c r="A31" s="45" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -42974,17 +43043,17 @@
     </row>
     <row r="32">
       <c r="A32" s="45" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -47802,19 +47871,19 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>430</v>
@@ -47852,22 +47921,22 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -47884,7 +47953,7 @@
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -47902,22 +47971,22 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -47934,7 +48003,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -47952,22 +48021,22 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -47984,7 +48053,7 @@
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -512,7 +512,7 @@
     <t>Targeted Advertising</t>
   </si>
   <si>
-    <t>Purposes associated with creating and providing pesonalised advertisement where the personalisation is targeted to a specific individual or group of individuals</t>
+    <t>Purposes associated with creating and providing personalised advertisement where the personalisation is targeted to a specific individual or group of individuals</t>
   </si>
   <si>
     <t>dpv:PersonalisedAdvertising</t>
@@ -726,7 +726,7 @@
     <t>Purposes associated with manage creation, storage, and use of records relevant to operations, events, and processes e.g. to store logs or access requests</t>
   </si>
   <si>
-    <t>This purpose relates specifiaclly for record creation and management. This can be combined or used along with other purposes to express intentions such as records for legal compliance or vendor payments.</t>
+    <t>This purpose relates specifically for record creation and management. This can be combined or used along with other purposes to express intentions such as records for legal compliance or vendor payments.</t>
   </si>
   <si>
     <t>VendorManagement</t>
@@ -1227,7 +1227,7 @@
     <t>svpu:Custom</t>
   </si>
   <si>
-    <t>The term optmisation here refers to the efficiency of the service in terms of technical provision (or similar means) with benefits for everybody. Personalisation implies making changes that benefit the current user or persona.</t>
+    <t>The term optimisation here refers to the efficiency of the service in terms of technical provision (or similar means) with benefits for everybody. Personalisation implies making changes that benefit the current user or persona.</t>
   </si>
   <si>
     <t>OptimiseUserInterface</t>
@@ -2210,7 +2210,7 @@
     <t>Partial Automation</t>
   </si>
   <si>
-    <t>Level of automation corresponding to Level 2 in ISO/IEC 22989:2022 where the automation is present in multiple parts of the system or in a manner that does not require the human to contro/use these parts while still retaining control over the system</t>
+    <t>Level of automation corresponding to Level 2 in ISO/IEC 22989:2022 where the automation is present in multiple parts of the system or in a manner that does not require the human to control/use these parts while still retaining control over the system</t>
   </si>
   <si>
     <t>Human Involvement is implied here, specifically the ability to Control operations, but also possibly for intervention, oversight, and verification</t>
@@ -2879,7 +2879,7 @@
     <t>ThirdPartyDataSource</t>
   </si>
   <si>
-    <t>ThirdParty as Data Source</t>
+    <t>Third Party as Data Source</t>
   </si>
   <si>
     <t>Data Sourced from a Third Party, e.g. when data is collected from an entity that is neither the Controller nor the Data Subject</t>
@@ -3086,7 +3086,7 @@
     <t>Processing Duration</t>
   </si>
   <si>
-    <t>Conditinos regarding duration or temporal limitation for processing</t>
+    <t>Conditions regarding duration or temporal limitation for processing</t>
   </si>
   <si>
     <t>dpv:ProcessingCondition,dpv:Duration</t>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1091">
   <si>
     <t>Term</t>
   </si>
@@ -2099,9 +2099,6 @@
       </rPr>
       <t>https://www.iso.org/standard/74296.html)</t>
     </r>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit, Delaram Golpayegani</t>
@@ -4079,6 +4076,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4086,9 +4086,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5635,7 +5632,9 @@
       <c r="J19" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="40"/>
+      <c r="K19" s="43">
+        <v>45421.0</v>
+      </c>
       <c r="L19" s="40"/>
       <c r="M19" s="42" t="s">
         <v>23</v>
@@ -5734,7 +5733,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="43"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="22">
         <v>44671.0</v>
       </c>
@@ -5745,7 +5744,7 @@
       <c r="N21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P21" s="40"/>
@@ -5767,16 +5766,16 @@
       <c r="AF21" s="40"/>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="46" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="23" t="s">
@@ -5787,14 +5786,14 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="46">
+      <c r="K22" s="43">
         <v>44727.0</v>
       </c>
       <c r="L22" s="19"/>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O22" s="47" t="s">
@@ -5993,7 +5992,9 @@
       <c r="H26" s="8"/>
       <c r="I26" s="51"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L26" s="49"/>
       <c r="M26" s="5"/>
       <c r="N26" s="9"/>
@@ -6455,16 +6456,16 @@
       <c r="AF35" s="21"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="46" t="s">
         <v>145</v>
       </c>
       <c r="E36" s="23" t="s">
@@ -6475,14 +6476,14 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="46">
+      <c r="K36" s="43">
         <v>44650.0</v>
       </c>
       <c r="L36" s="19"/>
-      <c r="M36" s="45" t="s">
+      <c r="M36" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="45" t="s">
+      <c r="N36" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O36" s="47" t="s">
@@ -6900,7 +6901,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
-      <c r="J45" s="43"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="22">
         <v>44671.0</v>
       </c>
@@ -6911,7 +6912,7 @@
       <c r="N45" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O45" s="44" t="s">
+      <c r="O45" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P45" s="40"/>
@@ -6952,7 +6953,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
-      <c r="J46" s="43"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="22">
         <v>44671.0</v>
       </c>
@@ -6963,7 +6964,7 @@
       <c r="N46" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O46" s="44" t="s">
+      <c r="O46" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P46" s="40"/>
@@ -7281,7 +7282,7 @@
       <c r="N52" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="O52" s="44" t="s">
+      <c r="O52" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P52" s="19"/>
@@ -7303,16 +7304,16 @@
       <c r="AF52" s="19"/>
     </row>
     <row r="53">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="46" t="s">
         <v>215</v>
       </c>
       <c r="E53" s="23" t="s">
@@ -7323,14 +7324,14 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
-      <c r="K53" s="46">
+      <c r="K53" s="43">
         <v>44727.0</v>
       </c>
       <c r="L53" s="19"/>
-      <c r="M53" s="45" t="s">
+      <c r="M53" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="45" t="s">
+      <c r="N53" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O53" s="47" t="s">
@@ -7355,16 +7356,16 @@
       <c r="AF53" s="19"/>
     </row>
     <row r="54">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="46" t="s">
         <v>215</v>
       </c>
       <c r="E54" s="23" t="s">
@@ -7375,14 +7376,14 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
-      <c r="K54" s="46">
+      <c r="K54" s="43">
         <v>44727.0</v>
       </c>
       <c r="L54" s="19"/>
-      <c r="M54" s="45" t="s">
+      <c r="M54" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="45" t="s">
+      <c r="N54" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O54" s="47" t="s">
@@ -7858,7 +7859,9 @@
       <c r="J65" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="K65" s="40"/>
+      <c r="K65" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L65" s="40"/>
       <c r="M65" s="42" t="s">
         <v>23</v>
@@ -7906,7 +7909,9 @@
       <c r="J66" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="K66" s="40"/>
+      <c r="K66" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L66" s="40"/>
       <c r="M66" s="42" t="s">
         <v>23</v>
@@ -8875,16 +8880,16 @@
       <c r="AF87" s="19"/>
     </row>
     <row r="88">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="46" t="s">
         <v>324</v>
       </c>
       <c r="B88" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D88" s="46" t="s">
         <v>288</v>
       </c>
       <c r="E88" s="23" t="s">
@@ -8895,14 +8900,14 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
-      <c r="K88" s="46">
+      <c r="K88" s="43">
         <v>44874.0</v>
       </c>
       <c r="L88" s="19"/>
-      <c r="M88" s="45" t="s">
+      <c r="M88" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N88" s="45" t="s">
+      <c r="N88" s="46" t="s">
         <v>327</v>
       </c>
       <c r="O88" s="19"/>
@@ -9506,7 +9511,7 @@
       <c r="AF101" s="29"/>
     </row>
     <row r="102">
-      <c r="A102" s="45" t="s">
+      <c r="A102" s="46" t="s">
         <v>374</v>
       </c>
       <c r="B102" s="13" t="s">
@@ -9515,7 +9520,7 @@
       <c r="C102" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="46" t="s">
         <v>366</v>
       </c>
       <c r="E102" s="23" t="s">
@@ -9530,7 +9535,7 @@
         <v>44874.0</v>
       </c>
       <c r="L102" s="19"/>
-      <c r="M102" s="45" t="s">
+      <c r="M102" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N102" s="13" t="s">
@@ -9556,13 +9561,13 @@
       <c r="AF102" s="19"/>
     </row>
     <row r="103">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="46" t="s">
         <v>377</v>
       </c>
       <c r="B103" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="C103" s="45" t="s">
+      <c r="C103" s="46" t="s">
         <v>379</v>
       </c>
       <c r="D103" s="19"/>
@@ -9578,7 +9583,7 @@
         <v>44874.0</v>
       </c>
       <c r="L103" s="19"/>
-      <c r="M103" s="45" t="s">
+      <c r="M103" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N103" s="13" t="s">
@@ -9625,7 +9630,9 @@
       <c r="H105" s="68"/>
       <c r="I105" s="40"/>
       <c r="J105" s="68"/>
-      <c r="K105" s="40"/>
+      <c r="K105" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L105" s="40"/>
       <c r="M105" s="42" t="s">
         <v>23</v>
@@ -9677,7 +9684,9 @@
       <c r="J106" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K106" s="40"/>
+      <c r="K106" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L106" s="40"/>
       <c r="M106" s="42" t="s">
         <v>23</v>
@@ -9727,7 +9736,9 @@
       <c r="J107" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K107" s="40"/>
+      <c r="K107" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L107" s="40"/>
       <c r="M107" s="42" t="s">
         <v>23</v>
@@ -9777,7 +9788,9 @@
       <c r="J108" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K108" s="40"/>
+      <c r="K108" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L108" s="40"/>
       <c r="M108" s="42" t="s">
         <v>23</v>
@@ -9827,7 +9840,9 @@
       <c r="J109" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K109" s="40"/>
+      <c r="K109" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L109" s="40"/>
       <c r="M109" s="42" t="s">
         <v>23</v>
@@ -9877,7 +9892,9 @@
       <c r="J110" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K110" s="40"/>
+      <c r="K110" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L110" s="40"/>
       <c r="M110" s="42" t="s">
         <v>23</v>
@@ -9927,7 +9944,9 @@
       <c r="J111" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K111" s="40"/>
+      <c r="K111" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L111" s="40"/>
       <c r="M111" s="42" t="s">
         <v>23</v>
@@ -9977,7 +9996,9 @@
       <c r="J112" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K112" s="40"/>
+      <c r="K112" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L112" s="40"/>
       <c r="M112" s="42" t="s">
         <v>23</v>
@@ -10027,7 +10048,9 @@
       <c r="J113" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="K113" s="40"/>
+      <c r="K113" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L113" s="40"/>
       <c r="M113" s="42" t="s">
         <v>23</v>
@@ -10077,7 +10100,9 @@
       <c r="J114" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="K114" s="40"/>
+      <c r="K114" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L114" s="40"/>
       <c r="M114" s="42" t="s">
         <v>23</v>
@@ -10127,7 +10152,9 @@
       <c r="J115" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="K115" s="40"/>
+      <c r="K115" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L115" s="40"/>
       <c r="M115" s="42" t="s">
         <v>23</v>
@@ -10177,7 +10204,9 @@
       <c r="J116" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="K116" s="40"/>
+      <c r="K116" s="48">
+        <v>45336.0</v>
+      </c>
       <c r="L116" s="40"/>
       <c r="M116" s="42" t="s">
         <v>23</v>
@@ -10224,7 +10253,7 @@
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="43"/>
+      <c r="J117" s="44"/>
       <c r="K117" s="22">
         <v>44671.0</v>
       </c>
@@ -10237,7 +10266,7 @@
       <c r="N117" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O117" s="44" t="s">
+      <c r="O117" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P117" s="40"/>
@@ -13218,7 +13247,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>427</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -13227,32 +13256,32 @@
       <c r="C2" s="100" t="s">
         <v>429</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="45" t="str">
+      <c r="E2" s="46" t="str">
         <f>CONCATENATE("dpv:",RIGHT(A2,LEN(A2) - 3))</f>
         <v>dpv:Purpose</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="43">
         <v>43559.0</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="43">
         <v>44139.0</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>431</v>
       </c>
       <c r="O2" s="47" t="s">
@@ -13273,22 +13302,22 @@
       <c r="AB2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>432</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G3" s="19"/>
@@ -13298,8 +13327,8 @@
       <c r="K3" s="101">
         <v>43560.0</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="45" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="19"/>
@@ -16422,16 +16451,16 @@
       <c r="AF2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="100"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="I3" s="104"/>
-      <c r="K3" s="46"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="K3" s="43"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
@@ -16439,18 +16468,18 @@
       </c>
       <c r="B4" s="99"/>
       <c r="C4" s="100"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="104"/>
       <c r="J4" s="105"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="45"/>
-      <c r="O4" s="45"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="46"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>442</v>
       </c>
       <c r="B5" s="99" t="s">
@@ -16460,25 +16489,25 @@
         <v>443</v>
       </c>
       <c r="D5" s="19"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="104"/>
       <c r="J5" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="19"/>
@@ -16504,7 +16533,7 @@
       <c r="AF5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="99" t="s">
@@ -16514,7 +16543,7 @@
         <v>449</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F6" s="19"/>
@@ -16524,11 +16553,11 @@
       <c r="J6" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="19"/>
@@ -16554,7 +16583,7 @@
       <c r="AF6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>451</v>
       </c>
       <c r="B7" s="99" t="s">
@@ -16564,7 +16593,7 @@
         <v>452</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F7" s="19"/>
@@ -16574,11 +16603,11 @@
       <c r="J7" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="45" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="19"/>
@@ -16604,7 +16633,7 @@
       <c r="AF7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>453</v>
       </c>
       <c r="B8" s="99" t="s">
@@ -16614,7 +16643,7 @@
         <v>454</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F8" s="19"/>
@@ -16624,11 +16653,11 @@
       <c r="J8" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="45" t="s">
+      <c r="L8" s="43"/>
+      <c r="M8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="19"/>
@@ -16654,7 +16683,7 @@
       <c r="AF8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>455</v>
       </c>
       <c r="B9" s="99" t="s">
@@ -16664,7 +16693,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F9" s="19"/>
@@ -16674,11 +16703,11 @@
       <c r="J9" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="45" t="s">
+      <c r="L9" s="43"/>
+      <c r="M9" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="19"/>
@@ -16704,7 +16733,7 @@
       <c r="AF9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>457</v>
       </c>
       <c r="B10" s="80" t="s">
@@ -16714,7 +16743,7 @@
         <v>458</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F10" s="19"/>
@@ -16724,11 +16753,11 @@
       <c r="J10" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="45" t="s">
+      <c r="L10" s="43"/>
+      <c r="M10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="19"/>
@@ -16754,7 +16783,7 @@
       <c r="AF10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>459</v>
       </c>
       <c r="B11" s="80" t="s">
@@ -16764,25 +16793,25 @@
         <v>460</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="104"/>
       <c r="J11" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="45" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="19"/>
@@ -16808,7 +16837,7 @@
       <c r="AF11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>462</v>
       </c>
       <c r="B12" s="80" t="s">
@@ -16818,7 +16847,7 @@
         <v>463</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F12" s="19"/>
@@ -16828,11 +16857,11 @@
       <c r="J12" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="45" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="19"/>
@@ -16858,7 +16887,7 @@
       <c r="AF12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>464</v>
       </c>
       <c r="B13" s="99" t="s">
@@ -16868,7 +16897,7 @@
         <v>465</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F13" s="19"/>
@@ -16878,11 +16907,11 @@
       <c r="J13" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="45" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="19"/>
@@ -16913,19 +16942,19 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>466</v>
       </c>
       <c r="C16" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F16" s="19"/>
@@ -16933,14 +16962,14 @@
       <c r="H16" s="19"/>
       <c r="I16" s="104"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="46">
+      <c r="K16" s="43">
         <v>44727.0</v>
       </c>
       <c r="L16" s="19"/>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O16" s="47" t="s">
@@ -16965,7 +16994,7 @@
       <c r="AF16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>469</v>
       </c>
       <c r="B17" s="99" t="s">
@@ -16974,28 +17003,28 @@
       <c r="C17" s="100" t="s">
         <v>470</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="43"/>
+      <c r="M17" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="19"/>
@@ -17021,19 +17050,19 @@
       <c r="AF17" s="19"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="46" t="s">
         <v>472</v>
       </c>
       <c r="C18" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F18" s="19"/>
@@ -17041,14 +17070,14 @@
       <c r="H18" s="19"/>
       <c r="I18" s="104"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="46">
+      <c r="K18" s="43">
         <v>44727.0</v>
       </c>
       <c r="L18" s="19"/>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O18" s="47" t="s">
@@ -17073,7 +17102,7 @@
       <c r="AF18" s="19"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
         <v>474</v>
       </c>
       <c r="B19" s="99" t="s">
@@ -17082,28 +17111,28 @@
       <c r="C19" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="104"/>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="45" t="s">
+      <c r="L19" s="43"/>
+      <c r="M19" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="19"/>
@@ -17129,19 +17158,19 @@
       <c r="AF19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="46" t="s">
         <v>478</v>
       </c>
       <c r="C20" s="100" t="s">
         <v>479</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F20" s="19"/>
@@ -17149,14 +17178,14 @@
       <c r="H20" s="19"/>
       <c r="I20" s="104"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="46">
+      <c r="K20" s="43">
         <v>44727.0</v>
       </c>
       <c r="L20" s="19"/>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O20" s="47" t="s">
@@ -17181,19 +17210,19 @@
       <c r="AF20" s="19"/>
     </row>
     <row r="21">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="46" t="s">
         <v>481</v>
       </c>
       <c r="C21" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F21" s="19"/>
@@ -17201,14 +17230,14 @@
       <c r="H21" s="19"/>
       <c r="I21" s="104"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="46">
+      <c r="K21" s="43">
         <v>44727.0</v>
       </c>
       <c r="L21" s="19"/>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O21" s="47" t="s">
@@ -17233,39 +17262,39 @@
       <c r="AF21" s="19"/>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
         <v>483</v>
       </c>
       <c r="B22" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="104"/>
       <c r="J22" s="106" t="s">
         <v>485</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="43">
         <v>44671.0</v>
       </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="45" t="s">
+      <c r="L22" s="43"/>
+      <c r="M22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O22" s="44" t="s">
+      <c r="O22" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P22" s="19"/>
@@ -17287,7 +17316,7 @@
       <c r="AF22" s="19"/>
     </row>
     <row r="23">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>486</v>
       </c>
       <c r="B23" s="99" t="s">
@@ -17296,10 +17325,10 @@
       <c r="C23" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F23" s="19"/>
@@ -17309,11 +17338,11 @@
       <c r="J23" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="45" t="s">
+      <c r="L23" s="43"/>
+      <c r="M23" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N23" s="19"/>
@@ -17339,7 +17368,7 @@
       <c r="AF23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>488</v>
       </c>
       <c r="B24" s="99" t="s">
@@ -17348,10 +17377,10 @@
       <c r="C24" s="100" t="s">
         <v>489</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F24" s="19"/>
@@ -17361,11 +17390,11 @@
       <c r="J24" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="45" t="s">
+      <c r="L24" s="43"/>
+      <c r="M24" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="19"/>
@@ -17391,10 +17420,10 @@
       <c r="AF24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="46" t="s">
         <v>490</v>
       </c>
       <c r="C25" s="19"/>
@@ -17407,7 +17436,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="45" t="s">
+      <c r="M25" s="46" t="s">
         <v>491</v>
       </c>
       <c r="N25" s="19"/>
@@ -17436,7 +17465,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>493</v>
       </c>
       <c r="B28" s="99" t="s">
@@ -17445,10 +17474,10 @@
       <c r="C28" s="100" t="s">
         <v>494</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F28" s="19"/>
@@ -17458,11 +17487,11 @@
       <c r="J28" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="45" t="s">
+      <c r="L28" s="43"/>
+      <c r="M28" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="19"/>
@@ -17488,7 +17517,7 @@
       <c r="AF28" s="19"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>496</v>
       </c>
       <c r="B29" s="99" t="s">
@@ -17497,28 +17526,28 @@
       <c r="C29" s="100" t="s">
         <v>497</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="104"/>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="43"/>
+      <c r="M29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="19"/>
@@ -17544,26 +17573,26 @@
       <c r="AF29" s="19"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="46" t="s">
         <v>499</v>
       </c>
       <c r="B30" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="107" t="s">
@@ -17572,11 +17601,11 @@
       <c r="J30" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="45" t="s">
+      <c r="L30" s="43"/>
+      <c r="M30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="19"/>
@@ -17602,7 +17631,7 @@
       <c r="AF30" s="19"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>503</v>
       </c>
       <c r="B31" s="61" t="s">
@@ -17611,10 +17640,10 @@
       <c r="C31" s="100" t="s">
         <v>504</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F31" s="19"/>
@@ -17624,19 +17653,19 @@
         <v>506</v>
       </c>
       <c r="J31" s="105"/>
-      <c r="K31" s="46">
+      <c r="K31" s="43">
         <v>44671.0</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="43">
         <v>44848.0</v>
       </c>
-      <c r="M31" s="45" t="s">
+      <c r="M31" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O31" s="44" t="s">
+      <c r="O31" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P31" s="19"/>
@@ -17658,7 +17687,7 @@
       <c r="AF31" s="19"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>507</v>
       </c>
       <c r="B32" s="61" t="s">
@@ -17667,10 +17696,10 @@
       <c r="C32" s="100" t="s">
         <v>508</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F32" s="19"/>
@@ -17678,17 +17707,17 @@
       <c r="H32" s="19"/>
       <c r="I32" s="104"/>
       <c r="J32" s="105"/>
-      <c r="K32" s="46">
+      <c r="K32" s="43">
         <v>44671.0</v>
       </c>
-      <c r="L32" s="46"/>
-      <c r="M32" s="45" t="s">
+      <c r="L32" s="43"/>
+      <c r="M32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="45" t="s">
+      <c r="N32" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="44" t="s">
+      <c r="O32" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P32" s="19"/>
@@ -17710,19 +17739,19 @@
       <c r="AF32" s="19"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="46" t="s">
         <v>509</v>
       </c>
       <c r="C33" s="100" t="s">
         <v>510</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F33" s="19"/>
@@ -17730,14 +17759,14 @@
       <c r="H33" s="19"/>
       <c r="I33" s="104"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="46">
+      <c r="K33" s="43">
         <v>44727.0</v>
       </c>
       <c r="L33" s="19"/>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="45" t="s">
+      <c r="N33" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O33" s="47" t="s">
@@ -17762,7 +17791,7 @@
       <c r="AF33" s="19"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>511</v>
       </c>
       <c r="B34" s="99" t="s">
@@ -17771,10 +17800,10 @@
       <c r="C34" s="100" t="s">
         <v>512</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F34" s="19"/>
@@ -17784,11 +17813,11 @@
       <c r="J34" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L34" s="46"/>
-      <c r="M34" s="45" t="s">
+      <c r="L34" s="43"/>
+      <c r="M34" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="19"/>
@@ -17814,16 +17843,16 @@
       <c r="AF34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="46"/>
       <c r="I35" s="104"/>
       <c r="J35" s="105"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="45"/>
-      <c r="O35" s="45"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="46"/>
+      <c r="O35" s="46"/>
     </row>
     <row r="36">
       <c r="A36" s="69" t="s">
@@ -17831,16 +17860,16 @@
       </c>
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
-      <c r="D36" s="45"/>
+      <c r="D36" s="46"/>
       <c r="I36" s="104"/>
       <c r="J36" s="105"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="46"/>
+      <c r="O36" s="46"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>514</v>
       </c>
       <c r="B37" s="99" t="s">
@@ -17849,10 +17878,10 @@
       <c r="C37" s="100" t="s">
         <v>515</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F37" s="19"/>
@@ -17862,11 +17891,11 @@
       <c r="J37" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L37" s="46"/>
-      <c r="M37" s="45" t="s">
+      <c r="L37" s="43"/>
+      <c r="M37" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="19"/>
@@ -17892,7 +17921,7 @@
       <c r="AF37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
         <v>517</v>
       </c>
       <c r="B38" s="99" t="s">
@@ -17901,10 +17930,10 @@
       <c r="C38" s="100" t="s">
         <v>518</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F38" s="19"/>
@@ -17914,11 +17943,11 @@
       <c r="J38" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L38" s="46"/>
-      <c r="M38" s="45" t="s">
+      <c r="L38" s="43"/>
+      <c r="M38" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N38" s="19"/>
@@ -17944,37 +17973,37 @@
       <c r="AF38" s="19"/>
     </row>
     <row r="39">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="46" t="s">
         <v>519</v>
       </c>
       <c r="B39" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="45"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="104"/>
       <c r="J39" s="105"/>
-      <c r="K39" s="46">
+      <c r="K39" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="45" t="s">
+      <c r="L39" s="43"/>
+      <c r="M39" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="45" t="s">
+      <c r="N39" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="45"/>
+      <c r="O39" s="46"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -17994,65 +18023,65 @@
       <c r="AF39" s="19"/>
     </row>
     <row r="40">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="99"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="104"/>
       <c r="J40" s="105"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="45"/>
-      <c r="O40" s="45"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="46"/>
+      <c r="O40" s="46"/>
     </row>
     <row r="41">
       <c r="A41" s="69" t="s">
         <v>459</v>
       </c>
       <c r="B41" s="99"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="H41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="104"/>
       <c r="J41" s="105"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="45"/>
-      <c r="O41" s="45"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="46"/>
+      <c r="O41" s="46"/>
     </row>
     <row r="42">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="46" t="s">
         <v>521</v>
       </c>
       <c r="B42" s="99" t="s">
         <v>521</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="104"/>
       <c r="J42" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L42" s="46"/>
-      <c r="M42" s="45" t="s">
+      <c r="L42" s="43"/>
+      <c r="M42" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N42" s="19"/>
@@ -18078,7 +18107,7 @@
       <c r="AF42" s="19"/>
     </row>
     <row r="43">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
         <v>525</v>
       </c>
       <c r="B43" s="61" t="s">
@@ -18087,10 +18116,10 @@
       <c r="C43" s="100" t="s">
         <v>527</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F43" s="19"/>
@@ -18098,17 +18127,17 @@
       <c r="H43" s="19"/>
       <c r="I43" s="104"/>
       <c r="J43" s="105"/>
-      <c r="K43" s="46">
+      <c r="K43" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="45" t="s">
+      <c r="L43" s="43"/>
+      <c r="M43" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="45" t="s">
+      <c r="N43" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O43" s="45"/>
+      <c r="O43" s="46"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
@@ -18131,13 +18160,13 @@
       <c r="A44" s="69"/>
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="46"/>
       <c r="I44" s="104"/>
       <c r="J44" s="105"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="45"/>
-      <c r="O44" s="45"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="46"/>
+      <c r="O44" s="46"/>
     </row>
     <row r="45">
       <c r="A45" s="69" t="s">
@@ -18145,16 +18174,16 @@
       </c>
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="45"/>
+      <c r="D45" s="46"/>
       <c r="I45" s="104"/>
       <c r="J45" s="105"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="45"/>
-      <c r="O45" s="45"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="46"/>
+      <c r="O45" s="46"/>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="46" t="s">
         <v>529</v>
       </c>
       <c r="B46" s="99" t="s">
@@ -18163,10 +18192,10 @@
       <c r="C46" s="100" t="s">
         <v>530</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F46" s="19"/>
@@ -18176,11 +18205,11 @@
       <c r="J46" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L46" s="46"/>
-      <c r="M46" s="45" t="s">
+      <c r="L46" s="43"/>
+      <c r="M46" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N46" s="19"/>
@@ -18206,7 +18235,7 @@
       <c r="AF46" s="19"/>
     </row>
     <row r="47">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="46" t="s">
         <v>532</v>
       </c>
       <c r="B47" s="99" t="s">
@@ -18215,10 +18244,10 @@
       <c r="C47" s="100" t="s">
         <v>533</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F47" s="19"/>
@@ -18228,11 +18257,11 @@
       <c r="J47" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="45" t="s">
+      <c r="L47" s="43"/>
+      <c r="M47" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N47" s="19"/>
@@ -18258,7 +18287,7 @@
       <c r="AF47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="46" t="s">
         <v>534</v>
       </c>
       <c r="B48" s="99" t="s">
@@ -18267,10 +18296,10 @@
       <c r="C48" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F48" s="19"/>
@@ -18280,11 +18309,11 @@
       <c r="J48" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L48" s="46"/>
-      <c r="M48" s="45" t="s">
+      <c r="L48" s="43"/>
+      <c r="M48" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N48" s="19"/>
@@ -18310,19 +18339,19 @@
       <c r="AF48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="46" t="s">
         <v>536</v>
       </c>
       <c r="C49" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F49" s="19"/>
@@ -18330,14 +18359,14 @@
       <c r="H49" s="19"/>
       <c r="I49" s="104"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="46">
+      <c r="K49" s="43">
         <v>44727.0</v>
       </c>
       <c r="L49" s="19"/>
-      <c r="M49" s="45" t="s">
+      <c r="M49" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="45" t="s">
+      <c r="N49" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O49" s="47" t="s">
@@ -18362,7 +18391,7 @@
       <c r="AF49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="46" t="s">
         <v>539</v>
       </c>
       <c r="B50" s="99" t="s">
@@ -18371,28 +18400,28 @@
       <c r="C50" s="100" t="s">
         <v>540</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F50" s="19"/>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="H50" s="45" t="s">
+      <c r="H50" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I50" s="104"/>
       <c r="J50" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L50" s="46"/>
-      <c r="M50" s="45" t="s">
+      <c r="L50" s="43"/>
+      <c r="M50" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N50" s="19"/>
@@ -18418,7 +18447,7 @@
       <c r="AF50" s="19"/>
     </row>
     <row r="51">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="46" t="s">
         <v>542</v>
       </c>
       <c r="B51" s="99" t="s">
@@ -18427,28 +18456,28 @@
       <c r="C51" s="100" t="s">
         <v>543</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="H51" s="45" t="s">
+      <c r="H51" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I51" s="104"/>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L51" s="46"/>
-      <c r="M51" s="45" t="s">
+      <c r="L51" s="43"/>
+      <c r="M51" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N51" s="19"/>
@@ -18474,7 +18503,7 @@
       <c r="AF51" s="19"/>
     </row>
     <row r="52">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="46" t="s">
         <v>545</v>
       </c>
       <c r="B52" s="61" t="s">
@@ -18483,34 +18512,34 @@
       <c r="C52" s="100" t="s">
         <v>546</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F52" s="19"/>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="H52" s="45" t="s">
+      <c r="H52" s="46" t="s">
         <v>20</v>
       </c>
       <c r="I52" s="104"/>
       <c r="J52" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L52" s="46"/>
-      <c r="M52" s="45" t="s">
+      <c r="L52" s="43"/>
+      <c r="M52" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="45" t="s">
+      <c r="N52" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="O52" s="45"/>
+      <c r="O52" s="46"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -18530,19 +18559,19 @@
       <c r="AF52" s="19"/>
     </row>
     <row r="53">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="46" t="s">
         <v>547</v>
       </c>
       <c r="C53" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F53" s="19"/>
@@ -18550,14 +18579,14 @@
       <c r="H53" s="19"/>
       <c r="I53" s="104"/>
       <c r="J53" s="19"/>
-      <c r="K53" s="46">
+      <c r="K53" s="43">
         <v>44727.0</v>
       </c>
       <c r="L53" s="19"/>
-      <c r="M53" s="45" t="s">
+      <c r="M53" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="45" t="s">
+      <c r="N53" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O53" s="47" t="s">
@@ -18582,7 +18611,7 @@
       <c r="AF53" s="19"/>
     </row>
     <row r="54">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
         <v>549</v>
       </c>
       <c r="B54" s="61" t="s">
@@ -18591,10 +18620,10 @@
       <c r="C54" s="100" t="s">
         <v>550</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F54" s="19"/>
@@ -18604,13 +18633,13 @@
       <c r="J54" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="43">
         <v>44848.0</v>
       </c>
-      <c r="M54" s="45" t="s">
+      <c r="M54" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N54" s="19"/>
@@ -18636,7 +18665,7 @@
       <c r="AF54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="46" t="s">
         <v>551</v>
       </c>
       <c r="B55" s="99" t="s">
@@ -18645,10 +18674,10 @@
       <c r="C55" s="108" t="s">
         <v>552</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F55" s="19"/>
@@ -18658,11 +18687,11 @@
       <c r="J55" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L55" s="46"/>
-      <c r="M55" s="45" t="s">
+      <c r="L55" s="43"/>
+      <c r="M55" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N55" s="19"/>
@@ -18688,19 +18717,19 @@
       <c r="AF55" s="19"/>
     </row>
     <row r="56">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="46" t="s">
         <v>553</v>
       </c>
       <c r="C56" s="100" t="s">
         <v>554</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F56" s="19"/>
@@ -18708,14 +18737,14 @@
       <c r="H56" s="19"/>
       <c r="I56" s="104"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="46">
+      <c r="K56" s="43">
         <v>44727.0</v>
       </c>
       <c r="L56" s="19"/>
-      <c r="M56" s="45" t="s">
+      <c r="M56" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="46" t="s">
         <v>100</v>
       </c>
       <c r="O56" s="47" t="s">
@@ -18745,10 +18774,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="46" t="s">
         <v>556</v>
       </c>
       <c r="C59" s="100" t="s">
@@ -18757,7 +18786,7 @@
       <c r="D59" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F59" s="19"/>
@@ -18767,17 +18796,17 @@
       <c r="J59" s="109" t="s">
         <v>559</v>
       </c>
-      <c r="K59" s="46">
+      <c r="K59" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L59" s="46"/>
-      <c r="M59" s="45" t="s">
+      <c r="L59" s="43"/>
+      <c r="M59" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="45" t="s">
+      <c r="N59" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="O59" s="45"/>
+      <c r="O59" s="46"/>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
@@ -18797,10 +18826,10 @@
       <c r="AF59" s="19"/>
     </row>
     <row r="60">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="46" t="s">
         <v>561</v>
       </c>
       <c r="C60" s="100" t="s">
@@ -18809,7 +18838,7 @@
       <c r="D60" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F60" s="19"/>
@@ -18819,17 +18848,17 @@
       <c r="J60" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="K60" s="46">
+      <c r="K60" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L60" s="46"/>
-      <c r="M60" s="45" t="s">
+      <c r="L60" s="43"/>
+      <c r="M60" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="45" t="s">
+      <c r="N60" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="O60" s="45"/>
+      <c r="O60" s="46"/>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
@@ -18849,7 +18878,7 @@
       <c r="AF60" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="46" t="s">
         <v>564</v>
       </c>
       <c r="B61" s="61" t="s">
@@ -18861,7 +18890,7 @@
       <c r="D61" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E61" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F61" s="19"/>
@@ -18871,17 +18900,17 @@
       <c r="J61" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="K61" s="46">
+      <c r="K61" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L61" s="46"/>
-      <c r="M61" s="45" t="s">
+      <c r="L61" s="43"/>
+      <c r="M61" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="45" t="s">
+      <c r="N61" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="O61" s="45"/>
+      <c r="O61" s="46"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
@@ -18901,7 +18930,7 @@
       <c r="AF61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="46" t="s">
         <v>566</v>
       </c>
       <c r="B62" s="99" t="s">
@@ -18910,10 +18939,10 @@
       <c r="C62" s="100" t="s">
         <v>568</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F62" s="19"/>
@@ -18923,11 +18952,11 @@
       <c r="J62" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K62" s="46">
+      <c r="K62" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L62" s="46"/>
-      <c r="M62" s="45" t="s">
+      <c r="L62" s="43"/>
+      <c r="M62" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N62" s="19"/>
@@ -18953,7 +18982,7 @@
       <c r="AF62" s="19"/>
     </row>
     <row r="63">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="46" t="s">
         <v>569</v>
       </c>
       <c r="B63" s="99" t="s">
@@ -18962,10 +18991,10 @@
       <c r="C63" s="100" t="s">
         <v>570</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F63" s="19"/>
@@ -18975,11 +19004,11 @@
       <c r="J63" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K63" s="46">
+      <c r="K63" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L63" s="46"/>
-      <c r="M63" s="45" t="s">
+      <c r="L63" s="43"/>
+      <c r="M63" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N63" s="19"/>
@@ -19005,7 +19034,7 @@
       <c r="AF63" s="19"/>
     </row>
     <row r="64">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="46" t="s">
         <v>571</v>
       </c>
       <c r="B64" s="99" t="s">
@@ -19014,10 +19043,10 @@
       <c r="C64" s="100" t="s">
         <v>573</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F64" s="19"/>
@@ -19027,11 +19056,11 @@
       <c r="J64" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K64" s="46">
+      <c r="K64" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L64" s="46"/>
-      <c r="M64" s="45" t="s">
+      <c r="L64" s="43"/>
+      <c r="M64" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N64" s="19"/>
@@ -19057,7 +19086,7 @@
       <c r="AF64" s="19"/>
     </row>
     <row r="65">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="46" t="s">
         <v>574</v>
       </c>
       <c r="B65" s="80" t="s">
@@ -19066,10 +19095,10 @@
       <c r="C65" s="100" t="s">
         <v>575</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F65" s="19"/>
@@ -19079,11 +19108,11 @@
       <c r="J65" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K65" s="46">
+      <c r="K65" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L65" s="46"/>
-      <c r="M65" s="45" t="s">
+      <c r="L65" s="43"/>
+      <c r="M65" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N65" s="19"/>
@@ -19109,7 +19138,7 @@
       <c r="AF65" s="19"/>
     </row>
     <row r="66">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="46" t="s">
         <v>576</v>
       </c>
       <c r="B66" s="80" t="s">
@@ -19118,10 +19147,10 @@
       <c r="C66" s="100" t="s">
         <v>577</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F66" s="19"/>
@@ -19131,11 +19160,11 @@
       <c r="J66" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K66" s="46">
+      <c r="K66" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L66" s="46"/>
-      <c r="M66" s="45" t="s">
+      <c r="L66" s="43"/>
+      <c r="M66" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N66" s="19"/>
@@ -19166,7 +19195,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="46" t="s">
         <v>579</v>
       </c>
       <c r="B69" s="80" t="s">
@@ -19175,10 +19204,10 @@
       <c r="C69" s="100" t="s">
         <v>580</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F69" s="19"/>
@@ -19188,11 +19217,11 @@
       <c r="J69" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K69" s="43">
         <v>43592.0</v>
       </c>
-      <c r="L69" s="46"/>
-      <c r="M69" s="45" t="s">
+      <c r="L69" s="43"/>
+      <c r="M69" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N69" s="19"/>
@@ -19218,7 +19247,7 @@
       <c r="AF69" s="19"/>
     </row>
     <row r="70">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="46" t="s">
         <v>582</v>
       </c>
       <c r="B70" s="61" t="s">
@@ -19227,10 +19256,10 @@
       <c r="C70" s="100" t="s">
         <v>583</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F70" s="19"/>
@@ -19240,14 +19269,14 @@
       <c r="J70" s="109" t="s">
         <v>585</v>
       </c>
-      <c r="K70" s="46">
+      <c r="K70" s="43">
         <v>45396.0</v>
       </c>
       <c r="L70" s="19"/>
-      <c r="M70" s="45" t="s">
+      <c r="M70" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N70" s="45" t="s">
+      <c r="N70" s="46" t="s">
         <v>560</v>
       </c>
       <c r="O70" s="19"/>
@@ -19270,7 +19299,7 @@
       <c r="AF70" s="19"/>
     </row>
     <row r="71">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="46" t="s">
         <v>586</v>
       </c>
       <c r="B71" s="61" t="s">
@@ -19279,10 +19308,10 @@
       <c r="C71" s="100" t="s">
         <v>587</v>
       </c>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="46" t="s">
         <v>444</v>
       </c>
       <c r="F71" s="19"/>
@@ -19292,14 +19321,14 @@
       <c r="J71" s="109" t="s">
         <v>585</v>
       </c>
-      <c r="K71" s="46">
+      <c r="K71" s="43">
         <v>45396.0</v>
       </c>
       <c r="L71" s="19"/>
-      <c r="M71" s="45" t="s">
+      <c r="M71" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N71" s="45" t="s">
+      <c r="N71" s="46" t="s">
         <v>560</v>
       </c>
       <c r="O71" s="19"/>
@@ -24221,7 +24250,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>589</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -24230,32 +24259,32 @@
       <c r="C2" s="100" t="s">
         <v>591</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="45" t="str">
+      <c r="E2" s="46" t="str">
         <f>CONCATENATE("dpv:",RIGHT(A2,LEN(A2) - 3))</f>
         <v>dpv:Processing</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="43">
         <v>43559.0</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="43">
         <v>44139.0</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>431</v>
       </c>
       <c r="O2" s="47" t="s">
@@ -28294,7 +28323,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>592</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -28303,10 +28332,10 @@
       <c r="C2" s="100" t="s">
         <v>594</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F2" s="19"/>
@@ -28314,14 +28343,14 @@
       <c r="H2" s="19"/>
       <c r="I2" s="107"/>
       <c r="J2" s="114"/>
-      <c r="K2" s="46">
+      <c r="K2" s="43">
         <v>44601.0</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="45" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O2" s="114"/>
@@ -28342,17 +28371,17 @@
       <c r="AD2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="61"/>
       <c r="C3" s="100"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="I3" s="107"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="114"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
@@ -28360,17 +28389,17 @@
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="100"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="I4" s="107"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="114"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>598</v>
       </c>
       <c r="B5" s="61" t="s">
@@ -28379,10 +28408,10 @@
       <c r="C5" s="100" t="s">
         <v>600</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F5" s="19"/>
@@ -28392,16 +28421,16 @@
         <v>602</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="46">
+      <c r="K5" s="43">
         <v>44587.0</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="43">
         <v>45270.0</v>
       </c>
       <c r="M5" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
@@ -28424,7 +28453,7 @@
       <c r="AD5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>603</v>
       </c>
       <c r="B6" s="61" t="s">
@@ -28433,28 +28462,28 @@
       <c r="C6" s="100" t="s">
         <v>605</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="105"/>
-      <c r="K6" s="46">
+      <c r="K6" s="43">
         <v>44811.0</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
@@ -28481,28 +28510,28 @@
       <c r="C7" s="100" t="s">
         <v>608</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="46" t="s">
         <v>610</v>
       </c>
       <c r="J7" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="43">
         <v>44139.0</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="43">
         <v>44811.0</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="114" t="s">
@@ -28528,17 +28557,17 @@
       <c r="AD7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="100"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="I8" s="107"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9">
       <c r="A9" s="69" t="s">
@@ -28547,35 +28576,35 @@
       <c r="B9" s="69" t="s">
         <v>613</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="46" t="s">
         <v>615</v>
       </c>
       <c r="J9" s="106" t="s">
         <v>616</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>617</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>618</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -28591,43 +28620,45 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>619</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>620</v>
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="107" t="s">
+        <v>621</v>
+      </c>
+      <c r="J10" s="106" t="s">
         <v>622</v>
       </c>
-      <c r="J10" s="106" t="s">
-        <v>623</v>
-      </c>
-      <c r="K10" s="46">
+      <c r="K10" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N10" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O10" s="45"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -28641,43 +28672,45 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>625</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>626</v>
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="107" t="s">
+        <v>626</v>
+      </c>
+      <c r="J11" s="106" t="s">
         <v>627</v>
       </c>
-      <c r="J11" s="106" t="s">
-        <v>628</v>
-      </c>
-      <c r="K11" s="46">
+      <c r="K11" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N11" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O11" s="45"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -28691,43 +28724,45 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>630</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>631</v>
       </c>
       <c r="D12" s="116"/>
       <c r="E12" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="107" t="s">
+        <v>631</v>
+      </c>
+      <c r="J12" s="106" t="s">
         <v>632</v>
       </c>
-      <c r="J12" s="106" t="s">
-        <v>633</v>
-      </c>
-      <c r="K12" s="46">
+      <c r="K12" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N12" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="46"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
@@ -28741,43 +28776,45 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>635</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>636</v>
       </c>
       <c r="D13" s="116"/>
       <c r="E13" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="107" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J13" s="106" t="s">
-        <v>637</v>
-      </c>
-      <c r="K13" s="46">
+        <v>636</v>
+      </c>
+      <c r="K13" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N13" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O13" s="45"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
@@ -28791,43 +28828,45 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>639</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>640</v>
       </c>
       <c r="D14" s="116"/>
       <c r="E14" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="107" t="s">
+        <v>640</v>
+      </c>
+      <c r="J14" s="106" t="s">
         <v>641</v>
       </c>
-      <c r="J14" s="106" t="s">
-        <v>642</v>
-      </c>
-      <c r="K14" s="46">
+      <c r="K14" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N14" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O14" s="45"/>
+      <c r="O14" s="46"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -28841,43 +28880,45 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
       <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>644</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>645</v>
       </c>
       <c r="D15" s="116"/>
       <c r="E15" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
+        <v>645</v>
+      </c>
+      <c r="J15" s="106" t="s">
         <v>646</v>
       </c>
-      <c r="J15" s="106" t="s">
-        <v>647</v>
-      </c>
-      <c r="K15" s="46">
+      <c r="K15" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N15" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -28891,43 +28932,45 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>649</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>650</v>
       </c>
       <c r="D16" s="116"/>
       <c r="E16" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="107" t="s">
+        <v>650</v>
+      </c>
+      <c r="J16" s="106" t="s">
         <v>651</v>
       </c>
-      <c r="J16" s="106" t="s">
-        <v>652</v>
-      </c>
-      <c r="K16" s="46">
+      <c r="K16" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="N16" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="O16" s="45"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -28941,29 +28984,31 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="100"/>
       <c r="D17" s="116"/>
       <c r="E17" s="116"/>
       <c r="I17" s="107"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18">
       <c r="A18" s="69" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>653</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="C18" s="100" t="s">
         <v>654</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>655</v>
       </c>
       <c r="D18" s="116" t="s">
         <v>601</v>
@@ -28975,17 +29020,17 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="107" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J18" s="19"/>
-      <c r="K18" s="46">
+      <c r="K18" s="43">
         <v>44727.0</v>
       </c>
       <c r="L18" s="19"/>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="47" t="s">
@@ -29006,38 +29051,38 @@
       <c r="AB18" s="19"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>657</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="C19" s="100" t="s">
         <v>658</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="D19" s="116" t="s">
         <v>659</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="E19" s="116" t="s">
         <v>660</v>
-      </c>
-      <c r="E19" s="116" t="s">
-        <v>661</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J19" s="19"/>
-      <c r="K19" s="46">
+      <c r="K19" s="43">
         <v>44727.0</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="43">
         <v>44811.0</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O19" s="47" t="s">
@@ -29058,38 +29103,38 @@
       <c r="AB19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>663</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="C20" s="100" t="s">
         <v>664</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="D20" s="116" t="s">
         <v>665</v>
       </c>
-      <c r="D20" s="116" t="s">
-        <v>666</v>
-      </c>
       <c r="E20" s="116" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="107" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J20" s="19"/>
-      <c r="K20" s="46">
+      <c r="K20" s="43">
         <v>44727.0</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="43">
         <v>44811.0</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O20" s="47" t="s">
@@ -29110,38 +29155,38 @@
       <c r="AB20" s="19"/>
     </row>
     <row r="21">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="C21" s="100" t="s">
         <v>669</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="D21" s="116" t="s">
         <v>670</v>
       </c>
-      <c r="D21" s="116" t="s">
-        <v>671</v>
-      </c>
       <c r="E21" s="116" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="107" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J21" s="19"/>
-      <c r="K21" s="46">
+      <c r="K21" s="43">
         <v>44727.0</v>
       </c>
       <c r="L21" s="101">
         <v>44109.0</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O21" s="47" t="s">
@@ -29162,34 +29207,34 @@
       <c r="AB21" s="19"/>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
+        <v>672</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>673</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="C22" s="100" t="s">
         <v>674</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>675</v>
       </c>
       <c r="D22" s="117"/>
       <c r="E22" s="116" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="46">
+      <c r="K22" s="43">
         <v>44727.0</v>
       </c>
       <c r="L22" s="19"/>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="47" t="s">
@@ -29210,32 +29255,32 @@
       <c r="AB22" s="19"/>
     </row>
     <row r="23">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>677</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="C23" s="100" t="s">
         <v>678</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>679</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="116" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="104"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="46">
+      <c r="K23" s="43">
         <v>44727.0</v>
       </c>
       <c r="L23" s="19"/>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O23" s="47" t="s">
@@ -29256,34 +29301,34 @@
       <c r="AB23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>680</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="C24" s="100" t="s">
         <v>681</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>682</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="116" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="107" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J24" s="19"/>
-      <c r="K24" s="46">
+      <c r="K24" s="43">
         <v>44727.0</v>
       </c>
       <c r="L24" s="19"/>
-      <c r="M24" s="45" t="s">
+      <c r="M24" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O24" s="47" t="s">
@@ -29304,27 +29349,27 @@
       <c r="AB24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="61"/>
       <c r="C25" s="100"/>
       <c r="D25" s="118"/>
       <c r="E25" s="117"/>
       <c r="I25" s="107"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="114"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26">
       <c r="A26" s="69" t="s">
+        <v>683</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="C26" s="100" t="s">
         <v>685</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>686</v>
       </c>
       <c r="D26" s="116" t="s">
         <v>601</v>
@@ -29337,15 +29382,15 @@
       <c r="H26" s="19"/>
       <c r="I26" s="107"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="46">
+      <c r="K26" s="43">
         <v>45423.0</v>
       </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -29364,16 +29409,16 @@
     </row>
     <row r="27">
       <c r="A27" s="69" t="s">
+        <v>686</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>687</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="C27" s="100" t="s">
         <v>688</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="D27" s="116" t="s">
         <v>689</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>690</v>
       </c>
       <c r="E27" s="116" t="s">
         <v>596</v>
@@ -29383,15 +29428,15 @@
       <c r="H27" s="19"/>
       <c r="I27" s="107"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="46">
+      <c r="K27" s="43">
         <v>45423.0</v>
       </c>
-      <c r="L27" s="46"/>
-      <c r="M27" s="45" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
@@ -29409,29 +29454,29 @@
       <c r="AD27" s="19"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>691</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>692</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="46" t="s">
         <v>693</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="45" t="s">
-        <v>694</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="46">
+      <c r="K28" s="43">
         <v>45423.0</v>
       </c>
       <c r="L28" s="19"/>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="19"/>
@@ -29453,29 +29498,29 @@
       <c r="AD28" s="19"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
+        <v>694</v>
+      </c>
+      <c r="B29" s="46" t="s">
         <v>695</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="C29" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>697</v>
-      </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="45" t="s">
-        <v>694</v>
+      <c r="E29" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="46">
+      <c r="K29" s="43">
         <v>45423.0</v>
       </c>
       <c r="L29" s="19"/>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="19"/>
@@ -29497,29 +29542,29 @@
       <c r="AD29" s="19"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="46" t="s">
+        <v>697</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>698</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="C30" s="46" t="s">
         <v>699</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>700</v>
-      </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="45" t="s">
-        <v>694</v>
+      <c r="E30" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="46">
+      <c r="K30" s="43">
         <v>45423.0</v>
       </c>
       <c r="L30" s="19"/>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="19"/>
@@ -29541,29 +29586,29 @@
       <c r="AD30" s="19"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>701</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="C31" s="46" t="s">
         <v>702</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>703</v>
-      </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="45" t="s">
-        <v>694</v>
+      <c r="E31" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="46">
+      <c r="K31" s="43">
         <v>45423.0</v>
       </c>
       <c r="L31" s="19"/>
-      <c r="M31" s="45" t="s">
+      <c r="M31" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N31" s="19"/>
@@ -29585,31 +29630,31 @@
       <c r="AD31" s="19"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
+        <v>703</v>
+      </c>
+      <c r="B32" s="46" t="s">
         <v>704</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="C32" s="46" t="s">
         <v>705</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>706</v>
-      </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="45" t="s">
-        <v>694</v>
+      <c r="E32" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="45" t="s">
-        <v>707</v>
+      <c r="I32" s="46" t="s">
+        <v>706</v>
       </c>
       <c r="J32" s="19"/>
-      <c r="K32" s="46">
+      <c r="K32" s="43">
         <v>45423.0</v>
       </c>
       <c r="L32" s="19"/>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="19"/>
@@ -29631,31 +29676,31 @@
       <c r="AD32" s="19"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
+        <v>707</v>
+      </c>
+      <c r="B33" s="46" t="s">
         <v>708</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="C33" s="46" t="s">
         <v>709</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>710</v>
-      </c>
       <c r="D33" s="19"/>
-      <c r="E33" s="45" t="s">
-        <v>694</v>
+      <c r="E33" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="45" t="s">
-        <v>711</v>
+      <c r="I33" s="46" t="s">
+        <v>710</v>
       </c>
       <c r="J33" s="19"/>
-      <c r="K33" s="46">
+      <c r="K33" s="43">
         <v>45423.0</v>
       </c>
       <c r="L33" s="19"/>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N33" s="19"/>
@@ -29677,31 +29722,31 @@
       <c r="AD33" s="19"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="B34" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="C34" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>714</v>
-      </c>
       <c r="D34" s="19"/>
-      <c r="E34" s="45" t="s">
-        <v>694</v>
+      <c r="E34" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="45" t="s">
-        <v>715</v>
+      <c r="I34" s="46" t="s">
+        <v>714</v>
       </c>
       <c r="J34" s="19"/>
-      <c r="K34" s="46">
+      <c r="K34" s="43">
         <v>45423.0</v>
       </c>
       <c r="L34" s="19"/>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="19"/>
@@ -29723,31 +29768,31 @@
       <c r="AD34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="B35" s="46" t="s">
         <v>716</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="C35" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>718</v>
-      </c>
       <c r="D35" s="19"/>
-      <c r="E35" s="45" t="s">
-        <v>694</v>
+      <c r="E35" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J35" s="19"/>
-      <c r="K35" s="46">
+      <c r="K35" s="43">
         <v>45423.0</v>
       </c>
       <c r="L35" s="19"/>
-      <c r="M35" s="45" t="s">
+      <c r="M35" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N35" s="19"/>
@@ -29769,31 +29814,31 @@
       <c r="AD35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="B36" s="46" t="s">
         <v>720</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="C36" s="46" t="s">
         <v>721</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>722</v>
-      </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="45" t="s">
-        <v>694</v>
+      <c r="E36" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="45" t="s">
-        <v>723</v>
+      <c r="I36" s="46" t="s">
+        <v>722</v>
       </c>
       <c r="J36" s="19"/>
-      <c r="K36" s="46">
+      <c r="K36" s="43">
         <v>45423.0</v>
       </c>
       <c r="L36" s="19"/>
-      <c r="M36" s="45" t="s">
+      <c r="M36" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N36" s="19"/>
@@ -29815,35 +29860,35 @@
       <c r="AD36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="B37" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="C37" s="46" t="s">
         <v>725</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>726</v>
-      </c>
       <c r="D37" s="116"/>
-      <c r="E37" s="45" t="s">
-        <v>694</v>
+      <c r="E37" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J37" s="19"/>
-      <c r="K37" s="46">
+      <c r="K37" s="43">
         <v>45423.0</v>
       </c>
-      <c r="L37" s="46"/>
-      <c r="M37" s="45" t="s">
+      <c r="L37" s="43"/>
+      <c r="M37" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
@@ -29861,33 +29906,33 @@
       <c r="AD37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
+        <v>727</v>
+      </c>
+      <c r="B38" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="C38" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>730</v>
-      </c>
       <c r="D38" s="116"/>
-      <c r="E38" s="45" t="s">
-        <v>694</v>
+      <c r="E38" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="46">
+      <c r="K38" s="43">
         <v>45423.0</v>
       </c>
       <c r="L38" s="19"/>
-      <c r="M38" s="45" t="s">
+      <c r="M38" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
@@ -29905,33 +29950,33 @@
       <c r="AD38" s="19"/>
     </row>
     <row r="39">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="B39" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="C39" s="46" t="s">
         <v>732</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>733</v>
-      </c>
       <c r="D39" s="116"/>
-      <c r="E39" s="45" t="s">
-        <v>694</v>
+      <c r="E39" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="107"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="46">
+      <c r="K39" s="43">
         <v>45423.0</v>
       </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="45" t="s">
+      <c r="L39" s="43"/>
+      <c r="M39" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -29949,35 +29994,35 @@
       <c r="AD39" s="19"/>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="B40" s="61" t="s">
         <v>734</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="C40" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>736</v>
-      </c>
       <c r="D40" s="116"/>
-      <c r="E40" s="45" t="s">
-        <v>694</v>
+      <c r="E40" s="46" t="s">
+        <v>693</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="45" t="s">
-        <v>737</v>
+      <c r="I40" s="46" t="s">
+        <v>736</v>
       </c>
       <c r="J40" s="19"/>
-      <c r="K40" s="46">
+      <c r="K40" s="43">
         <v>45423.0</v>
       </c>
       <c r="L40" s="19"/>
-      <c r="M40" s="45" t="s">
+      <c r="M40" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
@@ -29996,16 +30041,16 @@
     </row>
     <row r="41">
       <c r="A41" s="69" t="s">
+        <v>737</v>
+      </c>
+      <c r="B41" s="61" t="s">
         <v>738</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="C41" s="100" t="s">
         <v>739</v>
       </c>
-      <c r="C41" s="100" t="s">
-        <v>740</v>
-      </c>
       <c r="D41" s="116" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E41" s="116" t="s">
         <v>596</v>
@@ -30015,15 +30060,15 @@
       <c r="H41" s="19"/>
       <c r="I41" s="107"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="46">
+      <c r="K41" s="43">
         <v>45423.0</v>
       </c>
-      <c r="L41" s="46"/>
-      <c r="M41" s="45" t="s">
+      <c r="L41" s="43"/>
+      <c r="M41" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -30041,29 +30086,29 @@
       <c r="AD41" s="19"/>
     </row>
     <row r="42">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="46" t="s">
+        <v>740</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>741</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="C42" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="46" t="s">
         <v>743</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="45" t="s">
-        <v>744</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
-      <c r="K42" s="46">
+      <c r="K42" s="43">
         <v>45423.0</v>
       </c>
       <c r="L42" s="19"/>
-      <c r="M42" s="45" t="s">
+      <c r="M42" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N42" s="19"/>
@@ -30085,29 +30130,29 @@
       <c r="AD42" s="19"/>
     </row>
     <row r="43">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
+        <v>744</v>
+      </c>
+      <c r="B43" s="46" t="s">
         <v>745</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="C43" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>747</v>
-      </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="45" t="s">
-        <v>744</v>
+      <c r="E43" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
-      <c r="K43" s="46">
+      <c r="K43" s="43">
         <v>45423.0</v>
       </c>
       <c r="L43" s="19"/>
-      <c r="M43" s="45" t="s">
+      <c r="M43" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N43" s="19"/>
@@ -30129,29 +30174,29 @@
       <c r="AD43" s="19"/>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="46" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>748</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="C44" s="46" t="s">
         <v>749</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>750</v>
-      </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="45" t="s">
-        <v>744</v>
+      <c r="E44" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="46">
+      <c r="K44" s="43">
         <v>45423.0</v>
       </c>
       <c r="L44" s="19"/>
-      <c r="M44" s="45" t="s">
+      <c r="M44" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N44" s="19"/>
@@ -30173,29 +30218,29 @@
       <c r="AD44" s="19"/>
     </row>
     <row r="45">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>751</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="C45" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="C45" s="45" t="s">
-        <v>753</v>
-      </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="45" t="s">
-        <v>744</v>
+      <c r="E45" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
-      <c r="K45" s="46">
+      <c r="K45" s="43">
         <v>45423.0</v>
       </c>
       <c r="L45" s="19"/>
-      <c r="M45" s="45" t="s">
+      <c r="M45" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N45" s="19"/>
@@ -30217,31 +30262,31 @@
       <c r="AD45" s="19"/>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="B46" s="46" t="s">
         <v>754</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="C46" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>756</v>
-      </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="45" t="s">
-        <v>744</v>
+      <c r="E46" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="45" t="s">
-        <v>707</v>
+      <c r="I46" s="46" t="s">
+        <v>706</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="46">
+      <c r="K46" s="43">
         <v>45423.0</v>
       </c>
       <c r="L46" s="19"/>
-      <c r="M46" s="45" t="s">
+      <c r="M46" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N46" s="19"/>
@@ -30263,31 +30308,31 @@
       <c r="AD46" s="19"/>
     </row>
     <row r="47">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="B47" s="46" t="s">
         <v>757</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="C47" s="46" t="s">
         <v>758</v>
       </c>
-      <c r="C47" s="45" t="s">
-        <v>759</v>
-      </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="45" t="s">
-        <v>744</v>
+      <c r="E47" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="45" t="s">
-        <v>711</v>
+      <c r="I47" s="46" t="s">
+        <v>710</v>
       </c>
       <c r="J47" s="19"/>
-      <c r="K47" s="46">
+      <c r="K47" s="43">
         <v>45423.0</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="M47" s="45" t="s">
+      <c r="M47" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N47" s="19"/>
@@ -30309,29 +30354,29 @@
       <c r="AD47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>760</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="C48" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C48" s="45" t="s">
-        <v>762</v>
-      </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="45" t="s">
-        <v>744</v>
+      <c r="E48" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="46">
+      <c r="K48" s="43">
         <v>45423.0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N48" s="19"/>
@@ -30353,29 +30398,29 @@
       <c r="AD48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="B49" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="C49" s="46" t="s">
         <v>764</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>765</v>
-      </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="45" t="s">
-        <v>744</v>
+      <c r="E49" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="46">
+      <c r="K49" s="43">
         <v>45423.0</v>
       </c>
       <c r="L49" s="19"/>
-      <c r="M49" s="45" t="s">
+      <c r="M49" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N49" s="19"/>
@@ -30397,31 +30442,31 @@
       <c r="AD49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="B50" s="46" t="s">
         <v>766</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="C50" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="C50" s="45" t="s">
-        <v>768</v>
-      </c>
       <c r="D50" s="19"/>
-      <c r="E50" s="45" t="s">
-        <v>744</v>
+      <c r="E50" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="45" t="s">
-        <v>723</v>
+      <c r="I50" s="46" t="s">
+        <v>722</v>
       </c>
       <c r="J50" s="19"/>
-      <c r="K50" s="46">
+      <c r="K50" s="43">
         <v>45423.0</v>
       </c>
       <c r="L50" s="19"/>
-      <c r="M50" s="45" t="s">
+      <c r="M50" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N50" s="19"/>
@@ -30443,29 +30488,29 @@
       <c r="AD50" s="19"/>
     </row>
     <row r="51">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="B51" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="C51" s="46" t="s">
         <v>770</v>
       </c>
-      <c r="C51" s="45" t="s">
-        <v>771</v>
-      </c>
       <c r="D51" s="19"/>
-      <c r="E51" s="45" t="s">
-        <v>744</v>
+      <c r="E51" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="46">
+      <c r="K51" s="43">
         <v>45423.0</v>
       </c>
       <c r="L51" s="19"/>
-      <c r="M51" s="45" t="s">
+      <c r="M51" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N51" s="19"/>
@@ -30487,33 +30532,33 @@
       <c r="AD51" s="19"/>
     </row>
     <row r="52">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="B52" s="61" t="s">
         <v>772</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="C52" s="46" t="s">
         <v>773</v>
       </c>
-      <c r="C52" s="45" t="s">
-        <v>774</v>
-      </c>
       <c r="D52" s="116"/>
-      <c r="E52" s="45" t="s">
-        <v>744</v>
+      <c r="E52" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
-      <c r="K52" s="46">
+      <c r="K52" s="43">
         <v>45423.0</v>
       </c>
       <c r="L52" s="19"/>
-      <c r="M52" s="45" t="s">
+      <c r="M52" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -30531,33 +30576,33 @@
       <c r="AD52" s="19"/>
     </row>
     <row r="53">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="B53" s="61" t="s">
         <v>775</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="C53" s="46" t="s">
         <v>776</v>
       </c>
-      <c r="C53" s="45" t="s">
-        <v>777</v>
-      </c>
       <c r="D53" s="116"/>
-      <c r="E53" s="45" t="s">
-        <v>744</v>
+      <c r="E53" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
-      <c r="K53" s="46">
+      <c r="K53" s="43">
         <v>45423.0</v>
       </c>
       <c r="L53" s="19"/>
-      <c r="M53" s="45" t="s">
+      <c r="M53" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -30575,35 +30620,35 @@
       <c r="AD53" s="19"/>
     </row>
     <row r="54">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="B54" s="61" t="s">
         <v>778</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="C54" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="C54" s="45" t="s">
-        <v>780</v>
-      </c>
       <c r="D54" s="116"/>
-      <c r="E54" s="45" t="s">
-        <v>744</v>
+      <c r="E54" s="46" t="s">
+        <v>743</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="45" t="s">
-        <v>737</v>
+      <c r="I54" s="46" t="s">
+        <v>736</v>
       </c>
       <c r="J54" s="19"/>
-      <c r="K54" s="46">
+      <c r="K54" s="43">
         <v>45423.0</v>
       </c>
       <c r="L54" s="19"/>
-      <c r="M54" s="45" t="s">
+      <c r="M54" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
@@ -30621,22 +30666,22 @@
       <c r="AD54" s="19"/>
     </row>
     <row r="55">
-      <c r="K55" s="46"/>
+      <c r="K55" s="43"/>
     </row>
     <row r="56">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="B56" s="46" t="s">
         <v>781</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="C56" s="46" t="s">
         <v>782</v>
       </c>
-      <c r="C56" s="45" t="s">
-        <v>783</v>
-      </c>
       <c r="D56" s="116" t="s">
-        <v>690</v>
-      </c>
-      <c r="E56" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F56" s="19"/>
@@ -30644,11 +30689,11 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="46">
+      <c r="K56" s="43">
         <v>45423.0</v>
       </c>
       <c r="L56" s="19"/>
-      <c r="M56" s="45" t="s">
+      <c r="M56" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N56" s="19"/>
@@ -30670,19 +30715,19 @@
       <c r="AD56" s="19"/>
     </row>
     <row r="57">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="46" t="s">
+        <v>783</v>
+      </c>
+      <c r="B57" s="46" t="s">
         <v>784</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="C57" s="46" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="45" t="s">
-        <v>786</v>
-      </c>
       <c r="D57" s="116" t="s">
-        <v>690</v>
-      </c>
-      <c r="E57" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="E57" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F57" s="19"/>
@@ -30690,11 +30735,11 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
-      <c r="K57" s="46">
+      <c r="K57" s="43">
         <v>45423.0</v>
       </c>
       <c r="L57" s="19"/>
-      <c r="M57" s="45" t="s">
+      <c r="M57" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N57" s="19"/>
@@ -30716,17 +30761,17 @@
       <c r="AD57" s="19"/>
     </row>
     <row r="58">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="46" t="s">
+        <v>786</v>
+      </c>
+      <c r="B58" s="46" t="s">
         <v>787</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="C58" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>789</v>
-      </c>
       <c r="D58" s="116" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -30734,11 +30779,11 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="46">
+      <c r="K58" s="43">
         <v>45423.0</v>
       </c>
       <c r="L58" s="19"/>
-      <c r="M58" s="45" t="s">
+      <c r="M58" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N58" s="19"/>
@@ -30766,16 +30811,16 @@
     </row>
     <row r="60">
       <c r="A60" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="B60" s="61" t="s">
         <v>790</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="C60" s="100" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="100" t="s">
-        <v>792</v>
-      </c>
       <c r="D60" s="116" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E60" s="116" t="s">
         <v>596</v>
@@ -30784,19 +30829,19 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="107" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J60" s="19"/>
-      <c r="K60" s="46">
+      <c r="K60" s="43">
         <v>44587.0</v>
       </c>
-      <c r="L60" s="46">
+      <c r="L60" s="43">
         <v>45402.0</v>
       </c>
-      <c r="M60" s="45" t="s">
-        <v>617</v>
-      </c>
-      <c r="N60" s="45" t="s">
+      <c r="M60" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O60" s="47" t="s">
@@ -30815,38 +30860,40 @@
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="B61" s="46" t="s">
         <v>794</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="C61" s="100" t="s">
         <v>795</v>
-      </c>
-      <c r="C61" s="100" t="s">
-        <v>796</v>
       </c>
       <c r="D61" s="118"/>
       <c r="E61" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="107" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J61" s="105"/>
-      <c r="K61" s="46">
+      <c r="K61" s="43">
         <v>44807.0</v>
       </c>
-      <c r="L61" s="46">
+      <c r="L61" s="43">
         <v>45270.0</v>
       </c>
-      <c r="M61" s="45" t="s">
+      <c r="M61" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="45"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="114"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -30865,36 +30912,36 @@
       <c r="AD61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="B62" s="46" t="s">
         <v>799</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="C62" s="100" t="s">
         <v>800</v>
-      </c>
-      <c r="C62" s="100" t="s">
-        <v>801</v>
       </c>
       <c r="D62" s="118"/>
       <c r="E62" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="107" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J62" s="105"/>
-      <c r="K62" s="46">
+      <c r="K62" s="43">
         <v>44808.0</v>
       </c>
       <c r="L62" s="81">
         <v>45270.0</v>
       </c>
-      <c r="M62" s="45" t="s">
+      <c r="M62" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="45"/>
+      <c r="N62" s="46"/>
       <c r="O62" s="114"/>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -30913,36 +30960,36 @@
       <c r="AD62" s="19"/>
     </row>
     <row r="63">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="B63" s="46" t="s">
         <v>803</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="C63" s="100" t="s">
         <v>804</v>
-      </c>
-      <c r="C63" s="100" t="s">
-        <v>805</v>
       </c>
       <c r="D63" s="118"/>
       <c r="E63" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="107" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J63" s="105"/>
-      <c r="K63" s="46">
+      <c r="K63" s="43">
         <v>44809.0</v>
       </c>
-      <c r="L63" s="46">
+      <c r="L63" s="43">
         <v>45270.0</v>
       </c>
-      <c r="M63" s="45" t="s">
+      <c r="M63" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="45"/>
+      <c r="N63" s="46"/>
       <c r="O63" s="114"/>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -30961,36 +31008,36 @@
       <c r="AD63" s="19"/>
     </row>
     <row r="64">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="B64" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="C64" s="100" t="s">
         <v>808</v>
-      </c>
-      <c r="C64" s="100" t="s">
-        <v>809</v>
       </c>
       <c r="D64" s="118"/>
       <c r="E64" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="107" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J64" s="105"/>
-      <c r="K64" s="46">
+      <c r="K64" s="43">
         <v>44810.0</v>
       </c>
       <c r="L64" s="81">
         <v>45270.0</v>
       </c>
-      <c r="M64" s="45" t="s">
+      <c r="M64" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="45"/>
+      <c r="N64" s="46"/>
       <c r="O64" s="114"/>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -31009,36 +31056,36 @@
       <c r="AD64" s="19"/>
     </row>
     <row r="65">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="46" t="s">
+        <v>810</v>
+      </c>
+      <c r="B65" s="46" t="s">
         <v>811</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="C65" s="100" t="s">
         <v>812</v>
-      </c>
-      <c r="C65" s="100" t="s">
-        <v>813</v>
       </c>
       <c r="D65" s="118"/>
       <c r="E65" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="107" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J65" s="105"/>
-      <c r="K65" s="46">
+      <c r="K65" s="43">
         <v>44811.0</v>
       </c>
-      <c r="L65" s="46">
+      <c r="L65" s="43">
         <v>45270.0</v>
       </c>
-      <c r="M65" s="45" t="s">
+      <c r="M65" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N65" s="45" t="s">
+      <c r="N65" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O65" s="114"/>
@@ -31059,36 +31106,36 @@
       <c r="AD65" s="19"/>
     </row>
     <row r="66">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="B66" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="C66" s="100" t="s">
         <v>816</v>
-      </c>
-      <c r="C66" s="100" t="s">
-        <v>817</v>
       </c>
       <c r="D66" s="118"/>
       <c r="E66" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J66" s="105"/>
-      <c r="K66" s="46">
+      <c r="K66" s="43">
         <v>44811.0</v>
       </c>
       <c r="L66" s="81">
         <v>45270.0</v>
       </c>
-      <c r="M66" s="45" t="s">
+      <c r="M66" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="45" t="s">
+      <c r="N66" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O66" s="114"/>
@@ -31109,36 +31156,36 @@
       <c r="AD66" s="19"/>
     </row>
     <row r="67">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="B67" s="46" t="s">
         <v>819</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="C67" s="100" t="s">
         <v>820</v>
-      </c>
-      <c r="C67" s="100" t="s">
-        <v>821</v>
       </c>
       <c r="D67" s="118"/>
       <c r="E67" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="107" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J67" s="105"/>
-      <c r="K67" s="46">
+      <c r="K67" s="43">
         <v>44811.0</v>
       </c>
-      <c r="L67" s="46">
+      <c r="L67" s="43">
         <v>45270.0</v>
       </c>
-      <c r="M67" s="45" t="s">
+      <c r="M67" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="45" t="s">
+      <c r="N67" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O67" s="114"/>
@@ -31159,34 +31206,34 @@
       <c r="AD67" s="19"/>
     </row>
     <row r="68">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="B68" s="61" t="s">
         <v>823</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="C68" s="100" t="s">
         <v>824</v>
       </c>
-      <c r="C68" s="100" t="s">
-        <v>825</v>
-      </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45" t="s">
-        <v>797</v>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46" t="s">
+        <v>796</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="107" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J68" s="105"/>
-      <c r="K68" s="46">
+      <c r="K68" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L68" s="46"/>
-      <c r="M68" s="45" t="s">
+      <c r="L68" s="43"/>
+      <c r="M68" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N68" s="45"/>
+      <c r="N68" s="46"/>
       <c r="O68" s="114"/>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
@@ -31205,69 +31252,69 @@
       <c r="AD68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="45"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="61"/>
       <c r="C69" s="100"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
       <c r="I69" s="107"/>
       <c r="J69" s="105"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
       <c r="O69" s="114"/>
     </row>
     <row r="70">
       <c r="A70" s="69" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B70" s="61"/>
       <c r="C70" s="100"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
       <c r="I70" s="107"/>
       <c r="J70" s="105"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
       <c r="O70" s="114"/>
     </row>
     <row r="71">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="B71" s="61" t="s">
         <v>828</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="C71" s="100" t="s">
         <v>829</v>
       </c>
-      <c r="C71" s="100" t="s">
+      <c r="D71" s="46" t="s">
         <v>830</v>
       </c>
-      <c r="D71" s="45" t="s">
-        <v>831</v>
-      </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="107" t="s">
+        <v>831</v>
+      </c>
+      <c r="J71" s="105"/>
+      <c r="K71" s="43">
+        <v>44797.0</v>
+      </c>
+      <c r="L71" s="43">
+        <v>45270.0</v>
+      </c>
+      <c r="M71" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="46" t="s">
         <v>832</v>
-      </c>
-      <c r="J71" s="105"/>
-      <c r="K71" s="46">
-        <v>44797.0</v>
-      </c>
-      <c r="L71" s="46">
-        <v>45270.0</v>
-      </c>
-      <c r="M71" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="45" t="s">
-        <v>833</v>
       </c>
       <c r="O71" s="114"/>
       <c r="P71" s="19"/>
@@ -31288,35 +31335,35 @@
     </row>
     <row r="72">
       <c r="A72" s="114" t="s">
+        <v>833</v>
+      </c>
+      <c r="B72" s="115" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72" s="119" t="s">
         <v>834</v>
       </c>
-      <c r="B72" s="115" t="s">
-        <v>827</v>
-      </c>
-      <c r="C72" s="119" t="s">
-        <v>835</v>
-      </c>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="120" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J72" s="114"/>
-      <c r="K72" s="46">
+      <c r="K72" s="43">
         <v>44139.0</v>
       </c>
-      <c r="L72" s="46"/>
+      <c r="L72" s="43"/>
       <c r="M72" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N72" s="45" t="s">
+      <c r="N72" s="46" t="s">
         <v>35</v>
       </c>
       <c r="O72" s="114" t="s">
@@ -31339,19 +31386,19 @@
       <c r="AD72" s="19"/>
     </row>
     <row r="73">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="B73" s="61" t="s">
         <v>837</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="C73" s="100" t="s">
         <v>838</v>
       </c>
-      <c r="C73" s="100" t="s">
+      <c r="D73" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="D73" s="45" t="s">
-        <v>840</v>
-      </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="19"/>
@@ -31359,15 +31406,15 @@
       <c r="H73" s="19"/>
       <c r="I73" s="121"/>
       <c r="J73" s="114"/>
-      <c r="K73" s="46">
+      <c r="K73" s="43">
         <v>44587.0</v>
       </c>
-      <c r="L73" s="46"/>
-      <c r="M73" s="45" t="s">
+      <c r="L73" s="43"/>
+      <c r="M73" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="45" t="s">
-        <v>841</v>
+      <c r="N73" s="46" t="s">
+        <v>840</v>
       </c>
       <c r="O73" s="114"/>
       <c r="P73" s="19"/>
@@ -31387,37 +31434,37 @@
       <c r="AD73" s="19"/>
     </row>
     <row r="74">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="46" t="s">
+        <v>841</v>
+      </c>
+      <c r="B74" s="61" t="s">
         <v>842</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="C74" s="100" t="s">
         <v>843</v>
       </c>
-      <c r="C74" s="100" t="s">
-        <v>844</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>840</v>
-      </c>
-      <c r="E74" s="45" t="s">
+      <c r="D74" s="46" t="s">
+        <v>839</v>
+      </c>
+      <c r="E74" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="107" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J74" s="114"/>
-      <c r="K74" s="46">
+      <c r="K74" s="43">
         <v>44587.0</v>
       </c>
-      <c r="L74" s="46"/>
-      <c r="M74" s="45" t="s">
+      <c r="L74" s="43"/>
+      <c r="M74" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="45" t="s">
-        <v>841</v>
+      <c r="N74" s="46" t="s">
+        <v>840</v>
       </c>
       <c r="O74" s="114"/>
       <c r="P74" s="19"/>
@@ -31437,19 +31484,19 @@
       <c r="AD74" s="19"/>
     </row>
     <row r="75">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="B75" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="C75" s="100" t="s">
         <v>847</v>
       </c>
-      <c r="C75" s="100" t="s">
-        <v>848</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>840</v>
-      </c>
-      <c r="E75" s="45" t="s">
+      <c r="D75" s="46" t="s">
+        <v>839</v>
+      </c>
+      <c r="E75" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="19"/>
@@ -31457,11 +31504,11 @@
       <c r="H75" s="19"/>
       <c r="I75" s="104"/>
       <c r="J75" s="105"/>
-      <c r="K75" s="46">
+      <c r="K75" s="43">
         <v>45211.0</v>
       </c>
-      <c r="L75" s="46"/>
-      <c r="M75" s="45" t="s">
+      <c r="L75" s="43"/>
+      <c r="M75" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N75" s="114"/>
@@ -31483,19 +31530,19 @@
       <c r="AD75" s="19"/>
     </row>
     <row r="76">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="B76" s="61" t="s">
         <v>849</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="C76" s="100" t="s">
         <v>850</v>
       </c>
-      <c r="C76" s="100" t="s">
-        <v>851</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>840</v>
-      </c>
-      <c r="E76" s="45" t="s">
+      <c r="D76" s="46" t="s">
+        <v>839</v>
+      </c>
+      <c r="E76" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="19"/>
@@ -31503,11 +31550,11 @@
       <c r="H76" s="19"/>
       <c r="I76" s="104"/>
       <c r="J76" s="105"/>
-      <c r="K76" s="46">
+      <c r="K76" s="43">
         <v>45211.0</v>
       </c>
-      <c r="L76" s="46"/>
-      <c r="M76" s="45" t="s">
+      <c r="L76" s="43"/>
+      <c r="M76" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N76" s="114"/>
@@ -31529,19 +31576,19 @@
       <c r="AD76" s="19"/>
     </row>
     <row r="77">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="46" t="s">
+        <v>851</v>
+      </c>
+      <c r="B77" s="61" t="s">
         <v>852</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="C77" s="100" t="s">
         <v>853</v>
       </c>
-      <c r="C77" s="100" t="s">
-        <v>854</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>840</v>
-      </c>
-      <c r="E77" s="45" t="s">
+      <c r="D77" s="46" t="s">
+        <v>839</v>
+      </c>
+      <c r="E77" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="19"/>
@@ -31549,11 +31596,11 @@
       <c r="H77" s="19"/>
       <c r="I77" s="104"/>
       <c r="J77" s="105"/>
-      <c r="K77" s="46">
+      <c r="K77" s="43">
         <v>45211.0</v>
       </c>
-      <c r="L77" s="46"/>
-      <c r="M77" s="45" t="s">
+      <c r="L77" s="43"/>
+      <c r="M77" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N77" s="114"/>
@@ -31575,49 +31622,49 @@
       <c r="AD77" s="19"/>
     </row>
     <row r="78">
-      <c r="A78" s="45"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="115"/>
       <c r="C78" s="100"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
       <c r="I78" s="104"/>
       <c r="J78" s="105"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
       <c r="M78" s="114"/>
       <c r="N78" s="114"/>
       <c r="O78" s="114"/>
     </row>
     <row r="79">
       <c r="A79" s="69" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="100"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
       <c r="I79" s="104"/>
       <c r="J79" s="105"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="114"/>
       <c r="N79" s="114"/>
       <c r="O79" s="114"/>
     </row>
     <row r="80">
       <c r="A80" s="114" t="s">
+        <v>855</v>
+      </c>
+      <c r="B80" s="115" t="s">
         <v>856</v>
       </c>
-      <c r="B80" s="115" t="s">
+      <c r="C80" s="100" t="s">
         <v>857</v>
-      </c>
-      <c r="C80" s="100" t="s">
-        <v>858</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F80" s="19"/>
@@ -31627,10 +31674,10 @@
       <c r="J80" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K80" s="46">
+      <c r="K80" s="43">
         <v>44139.0</v>
       </c>
-      <c r="L80" s="46"/>
+      <c r="L80" s="43"/>
       <c r="M80" s="114" t="s">
         <v>23</v>
       </c>
@@ -31657,18 +31704,18 @@
       <c r="AD80" s="19"/>
     </row>
     <row r="81">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="46" t="s">
+        <v>858</v>
+      </c>
+      <c r="B81" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="C81" s="100" t="s">
         <v>860</v>
       </c>
-      <c r="C81" s="100" t="s">
+      <c r="D81" s="19"/>
+      <c r="E81" s="46" t="s">
         <v>861</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="45" t="s">
-        <v>862</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -31677,19 +31724,19 @@
       <c r="J81" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K81" s="46">
+      <c r="K81" s="43">
         <v>44856.0</v>
       </c>
-      <c r="L81" s="46">
+      <c r="L81" s="43">
         <v>44895.0</v>
       </c>
-      <c r="M81" s="45" t="s">
+      <c r="M81" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N81" s="45" t="s">
+      <c r="N81" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O81" s="45"/>
+      <c r="O81" s="46"/>
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
@@ -31707,18 +31754,18 @@
       <c r="AD81" s="19"/>
     </row>
     <row r="82">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="B82" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="C82" s="100" t="s">
         <v>864</v>
       </c>
-      <c r="C82" s="100" t="s">
-        <v>865</v>
-      </c>
       <c r="D82" s="19"/>
-      <c r="E82" s="45" t="s">
-        <v>862</v>
+      <c r="E82" s="46" t="s">
+        <v>861</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -31727,19 +31774,19 @@
       <c r="J82" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K82" s="46">
+      <c r="K82" s="43">
         <v>44856.0</v>
       </c>
-      <c r="L82" s="46">
+      <c r="L82" s="43">
         <v>44895.0</v>
       </c>
-      <c r="M82" s="45" t="s">
+      <c r="M82" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N82" s="45" t="s">
+      <c r="N82" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O82" s="45"/>
+      <c r="O82" s="46"/>
       <c r="P82" s="19"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
@@ -31757,37 +31804,37 @@
       <c r="AD82" s="19"/>
     </row>
     <row r="83">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="B83" s="61" t="s">
         <v>866</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="C83" s="100" t="s">
         <v>867</v>
       </c>
-      <c r="C83" s="100" t="s">
+      <c r="D83" s="46"/>
+      <c r="E83" s="46" t="s">
         <v>868</v>
-      </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45" t="s">
-        <v>869</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="107" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J83" s="105"/>
-      <c r="K83" s="46">
+      <c r="K83" s="43">
         <v>45396.0</v>
       </c>
-      <c r="L83" s="46"/>
-      <c r="M83" s="45" t="s">
+      <c r="L83" s="43"/>
+      <c r="M83" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N83" s="45" t="s">
+      <c r="N83" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O83" s="44"/>
+      <c r="O83" s="45"/>
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
@@ -31806,15 +31853,15 @@
     </row>
     <row r="84">
       <c r="A84" s="114" t="s">
+        <v>870</v>
+      </c>
+      <c r="B84" s="115" t="s">
         <v>871</v>
       </c>
-      <c r="B84" s="115" t="s">
+      <c r="C84" s="111" t="s">
         <v>872</v>
       </c>
-      <c r="C84" s="111" t="s">
-        <v>873</v>
-      </c>
-      <c r="D84" s="45" t="s">
+      <c r="D84" s="46" t="s">
         <v>601</v>
       </c>
       <c r="E84" s="19"/>
@@ -31825,17 +31872,17 @@
       <c r="J84" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K84" s="46">
+      <c r="K84" s="43">
         <v>44139.0</v>
       </c>
-      <c r="L84" s="46"/>
-      <c r="M84" s="45" t="s">
+      <c r="L84" s="43"/>
+      <c r="M84" s="46" t="s">
         <v>311</v>
       </c>
       <c r="N84" s="114" t="s">
         <v>611</v>
       </c>
-      <c r="O84" s="44" t="s">
+      <c r="O84" s="45" t="s">
         <v>96</v>
       </c>
       <c r="P84" s="19"/>
@@ -31854,13 +31901,13 @@
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>874</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>875</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>17</v>
@@ -31872,7 +31919,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="122" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="10">
@@ -31886,7 +31933,7 @@
         <v>95</v>
       </c>
       <c r="O86" s="123" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
@@ -31906,32 +31953,32 @@
     </row>
     <row r="87">
       <c r="A87" s="69" t="s">
+        <v>877</v>
+      </c>
+      <c r="B87" s="61" t="s">
         <v>878</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="C87" s="100" t="s">
         <v>879</v>
-      </c>
-      <c r="C87" s="100" t="s">
-        <v>880</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="107" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J87" s="19"/>
-      <c r="K87" s="46">
+      <c r="K87" s="43">
         <v>45270.0</v>
       </c>
       <c r="L87" s="19"/>
-      <c r="M87" s="45" t="s">
+      <c r="M87" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N87" s="19"/>
@@ -31953,29 +32000,29 @@
       <c r="AD87" s="19"/>
     </row>
     <row r="88">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="B88" s="61" t="s">
         <v>882</v>
       </c>
-      <c r="B88" s="61" t="s">
+      <c r="C88" s="100" t="s">
         <v>883</v>
       </c>
-      <c r="C88" s="100" t="s">
+      <c r="D88" s="19"/>
+      <c r="E88" s="46" t="s">
         <v>884</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="45" t="s">
-        <v>885</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="104"/>
       <c r="J88" s="19"/>
-      <c r="K88" s="46">
+      <c r="K88" s="43">
         <v>45270.0</v>
       </c>
       <c r="L88" s="19"/>
-      <c r="M88" s="45" t="s">
+      <c r="M88" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N88" s="19"/>
@@ -31998,31 +32045,31 @@
     </row>
     <row r="89">
       <c r="A89" s="114" t="s">
+        <v>885</v>
+      </c>
+      <c r="B89" s="115" t="s">
         <v>886</v>
       </c>
-      <c r="B89" s="115" t="s">
+      <c r="C89" s="100" t="s">
         <v>887</v>
-      </c>
-      <c r="C89" s="100" t="s">
-        <v>888</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="25" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="107" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J89" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K89" s="46">
+      <c r="K89" s="43">
         <v>44139.0</v>
       </c>
-      <c r="L89" s="46">
+      <c r="L89" s="43">
         <v>45270.0</v>
       </c>
       <c r="M89" s="114" t="s">
@@ -32052,34 +32099,34 @@
     </row>
     <row r="91">
       <c r="A91" s="69" t="s">
+        <v>889</v>
+      </c>
+      <c r="B91" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="B91" s="61" t="s">
+      <c r="C91" s="46" t="s">
         <v>891</v>
       </c>
-      <c r="C91" s="45" t="s">
+      <c r="D91" s="46" t="s">
         <v>892</v>
       </c>
-      <c r="D91" s="45" t="s">
-        <v>893</v>
-      </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="46">
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="43">
         <v>43560.0</v>
       </c>
-      <c r="L91" s="46"/>
-      <c r="M91" s="45" t="s">
+      <c r="L91" s="43"/>
+      <c r="M91" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N91" s="45" t="s">
-        <v>894</v>
+      <c r="N91" s="46" t="s">
+        <v>893</v>
       </c>
       <c r="O91" s="124" t="s">
         <v>25</v>
@@ -32101,35 +32148,35 @@
       <c r="AD91" s="19"/>
     </row>
     <row r="92">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="B92" s="99" t="s">
         <v>895</v>
       </c>
-      <c r="B92" s="99" t="s">
+      <c r="C92" s="46" t="s">
         <v>896</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="D92" s="46" t="s">
         <v>897</v>
       </c>
-      <c r="D92" s="45" t="s">
-        <v>898</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="46">
+      <c r="J92" s="46"/>
+      <c r="K92" s="43">
         <v>43560.0</v>
       </c>
-      <c r="L92" s="46"/>
-      <c r="M92" s="45" t="s">
+      <c r="L92" s="43"/>
+      <c r="M92" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N92" s="45" t="s">
-        <v>894</v>
+      <c r="N92" s="46" t="s">
+        <v>893</v>
       </c>
       <c r="O92" s="124" t="s">
         <v>25</v>
@@ -32151,35 +32198,35 @@
       <c r="AD92" s="19"/>
     </row>
     <row r="93">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="B93" s="99" t="s">
         <v>899</v>
       </c>
-      <c r="B93" s="99" t="s">
+      <c r="C93" s="46" t="s">
         <v>900</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="D93" s="46" t="s">
         <v>901</v>
       </c>
-      <c r="D93" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="E93" s="45" t="s">
+      <c r="E93" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="46">
+      <c r="J93" s="46"/>
+      <c r="K93" s="43">
         <v>43560.0</v>
       </c>
-      <c r="L93" s="46"/>
-      <c r="M93" s="45" t="s">
+      <c r="L93" s="43"/>
+      <c r="M93" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N93" s="45" t="s">
-        <v>894</v>
+      <c r="N93" s="46" t="s">
+        <v>893</v>
       </c>
       <c r="O93" s="124" t="s">
         <v>25</v>
@@ -32201,35 +32248,35 @@
       <c r="AD93" s="19"/>
     </row>
     <row r="94">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="46" t="s">
+        <v>902</v>
+      </c>
+      <c r="B94" s="99" t="s">
         <v>903</v>
       </c>
-      <c r="B94" s="99" t="s">
+      <c r="C94" s="46" t="s">
         <v>904</v>
       </c>
-      <c r="C94" s="45" t="s">
+      <c r="D94" s="46" t="s">
         <v>905</v>
       </c>
-      <c r="D94" s="45" t="s">
-        <v>906</v>
-      </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="46">
+      <c r="J94" s="46"/>
+      <c r="K94" s="43">
         <v>43560.0</v>
       </c>
-      <c r="L94" s="46"/>
-      <c r="M94" s="45" t="s">
+      <c r="L94" s="43"/>
+      <c r="M94" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N94" s="45" t="s">
-        <v>894</v>
+      <c r="N94" s="46" t="s">
+        <v>893</v>
       </c>
       <c r="O94" s="124" t="s">
         <v>25</v>
@@ -32251,35 +32298,35 @@
       <c r="AD94" s="19"/>
     </row>
     <row r="95">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="B95" s="99" t="s">
         <v>907</v>
       </c>
-      <c r="B95" s="99" t="s">
+      <c r="C95" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="C95" s="45" t="s">
-        <v>909</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>898</v>
-      </c>
-      <c r="E95" s="45" t="s">
+      <c r="D95" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="E95" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="46">
+      <c r="J95" s="46"/>
+      <c r="K95" s="43">
         <v>43560.0</v>
       </c>
-      <c r="L95" s="46"/>
-      <c r="M95" s="45" t="s">
+      <c r="L95" s="43"/>
+      <c r="M95" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N95" s="45" t="s">
-        <v>894</v>
+      <c r="N95" s="46" t="s">
+        <v>893</v>
       </c>
       <c r="O95" s="124" t="s">
         <v>25</v>
@@ -32302,13 +32349,13 @@
     </row>
     <row r="96">
       <c r="A96" s="114" t="s">
+        <v>909</v>
+      </c>
+      <c r="B96" s="115" t="s">
         <v>910</v>
       </c>
-      <c r="B96" s="115" t="s">
+      <c r="C96" s="119" t="s">
         <v>911</v>
-      </c>
-      <c r="C96" s="119" t="s">
-        <v>912</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="25" t="s">
@@ -32321,10 +32368,10 @@
       <c r="J96" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="K96" s="46">
+      <c r="K96" s="43">
         <v>44139.0</v>
       </c>
-      <c r="L96" s="46"/>
+      <c r="L96" s="43"/>
       <c r="M96" s="114" t="s">
         <v>23</v>
       </c>
@@ -32357,18 +32404,18 @@
     </row>
     <row r="98">
       <c r="A98" s="69" t="s">
+        <v>912</v>
+      </c>
+      <c r="B98" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="C98" s="100" t="s">
         <v>914</v>
       </c>
-      <c r="C98" s="100" t="s">
-        <v>915</v>
-      </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="E98" s="45" t="s">
+      <c r="E98" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F98" s="19"/>
@@ -32376,11 +32423,11 @@
       <c r="H98" s="19"/>
       <c r="I98" s="104"/>
       <c r="J98" s="19"/>
-      <c r="K98" s="46">
+      <c r="K98" s="43">
         <v>45270.0</v>
       </c>
       <c r="L98" s="19"/>
-      <c r="M98" s="45" t="s">
+      <c r="M98" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N98" s="19"/>
@@ -32402,19 +32449,19 @@
       <c r="AD98" s="19"/>
     </row>
     <row r="99">
-      <c r="A99" s="45" t="s">
+      <c r="A99" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="B99" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="C99" s="100" t="s">
         <v>917</v>
       </c>
-      <c r="C99" s="100" t="s">
+      <c r="D99" s="46" t="s">
         <v>918</v>
       </c>
-      <c r="D99" s="45" t="s">
-        <v>919</v>
-      </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F99" s="19"/>
@@ -32422,13 +32469,13 @@
       <c r="H99" s="19"/>
       <c r="I99" s="104"/>
       <c r="J99" s="19"/>
-      <c r="K99" s="46">
+      <c r="K99" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L99" s="46">
+      <c r="L99" s="43">
         <v>45423.0</v>
       </c>
-      <c r="M99" s="45" t="s">
+      <c r="M99" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N99" s="19"/>
@@ -32450,19 +32497,19 @@
       <c r="AD99" s="19"/>
     </row>
     <row r="100">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="B100" s="46" t="s">
         <v>920</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="C100" s="100" t="s">
         <v>921</v>
       </c>
-      <c r="C100" s="100" t="s">
+      <c r="D100" s="46" t="s">
         <v>922</v>
       </c>
-      <c r="D100" s="45" t="s">
-        <v>923</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="E100" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F100" s="19"/>
@@ -32470,13 +32517,13 @@
       <c r="H100" s="19"/>
       <c r="I100" s="104"/>
       <c r="J100" s="19"/>
-      <c r="K100" s="46">
+      <c r="K100" s="43">
         <v>45270.0</v>
       </c>
-      <c r="L100" s="46">
+      <c r="L100" s="43">
         <v>45423.0</v>
       </c>
-      <c r="M100" s="45" t="s">
+      <c r="M100" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N100" s="19"/>
@@ -37046,21 +37093,21 @@
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
+        <v>923</v>
+      </c>
+      <c r="B2" s="129" t="s">
         <v>924</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="C2" s="130" t="s">
         <v>925</v>
-      </c>
-      <c r="C2" s="130" t="s">
-        <v>926</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="129" t="s">
-        <v>840</v>
-      </c>
-      <c r="F2" s="45" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G2" s="21"/>
@@ -37075,7 +37122,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O2" s="133" t="s">
         <v>50</v>
@@ -37098,28 +37145,28 @@
     </row>
     <row r="3">
       <c r="A3" s="134" t="s">
+        <v>927</v>
+      </c>
+      <c r="B3" s="135" t="s">
         <v>928</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="C3" s="134" t="s">
         <v>929</v>
-      </c>
-      <c r="C3" s="134" t="s">
-        <v>930</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="134" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G3" s="136"/>
       <c r="H3" s="136"/>
       <c r="I3" s="136"/>
       <c r="J3" s="137" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K3" s="132">
         <v>44786.0</v>
@@ -37129,7 +37176,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="129" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O3" s="139" t="s">
         <v>25</v>
@@ -37152,28 +37199,28 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4" s="141" t="s">
         <v>932</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="C4" s="129" t="s">
         <v>933</v>
-      </c>
-      <c r="C4" s="129" t="s">
-        <v>934</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="129" t="s">
-        <v>893</v>
-      </c>
-      <c r="F4" s="45" t="s">
+        <v>892</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G4" s="130"/>
       <c r="H4" s="130"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="46">
+      <c r="K4" s="43">
         <v>45270.0</v>
       </c>
       <c r="L4" s="132"/>
@@ -37202,21 +37249,21 @@
     </row>
     <row r="5">
       <c r="A5" s="141" t="s">
+        <v>934</v>
+      </c>
+      <c r="B5" s="141" t="s">
         <v>935</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="C5" s="129" t="s">
         <v>936</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>937</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>938</v>
-      </c>
-      <c r="F5" s="45" t="s">
+        <v>937</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G5" s="130"/>
@@ -37233,7 +37280,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="129" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O5" s="133" t="s">
         <v>101</v>
@@ -37255,22 +37302,22 @@
       <c r="AD5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>939</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="C6" s="100" t="s">
         <v>940</v>
       </c>
-      <c r="C6" s="100" t="s">
-        <v>941</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G6" s="19"/>
@@ -37280,13 +37327,13 @@
       <c r="K6" s="132">
         <v>44786.0</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="43">
         <v>45402.0</v>
       </c>
       <c r="M6" s="129" t="s">
-        <v>617</v>
-      </c>
-      <c r="N6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O6" s="19"/>
@@ -37308,27 +37355,27 @@
     </row>
     <row r="7">
       <c r="A7" s="141" t="s">
+        <v>941</v>
+      </c>
+      <c r="B7" s="141" t="s">
         <v>942</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="C7" s="129" t="s">
         <v>943</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>944</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>797</v>
-      </c>
-      <c r="F7" s="45" t="s">
+        <v>796</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G7" s="130"/>
       <c r="H7" s="130"/>
-      <c r="I7" s="45" t="s">
-        <v>945</v>
+      <c r="I7" s="46" t="s">
+        <v>944</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="132">
@@ -37339,7 +37386,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="129" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O7" s="133" t="s">
         <v>50</v>
@@ -37362,19 +37409,19 @@
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
+        <v>945</v>
+      </c>
+      <c r="B8" s="143" t="s">
         <v>946</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="C8" s="40" t="s">
         <v>947</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>948</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>430</v>
@@ -37382,7 +37429,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="144" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="145">
@@ -37395,7 +37442,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O8" s="146" t="s">
         <v>101</v>
@@ -37418,19 +37465,19 @@
     </row>
     <row r="9">
       <c r="A9" s="142" t="s">
+        <v>951</v>
+      </c>
+      <c r="B9" s="143" t="s">
         <v>952</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="C9" s="40" t="s">
         <v>953</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>954</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>430</v>
@@ -37438,7 +37485,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="144" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="145">
@@ -37451,10 +37498,10 @@
         <v>23</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O9" s="146" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
@@ -37473,29 +37520,29 @@
       <c r="AD9" s="40"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>958</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="C10" s="100" t="s">
         <v>959</v>
       </c>
-      <c r="C10" s="100" t="s">
-        <v>960</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>690</v>
-      </c>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="104"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="46">
+      <c r="K10" s="43">
         <v>45423.0</v>
       </c>
       <c r="L10" s="19"/>
@@ -37521,29 +37568,29 @@
       <c r="AD10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>961</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="C11" s="100" t="s">
         <v>962</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="D11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>963</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>964</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="104"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="46">
+      <c r="K11" s="43">
         <v>45423.0</v>
       </c>
       <c r="L11" s="19"/>
@@ -37569,29 +37616,29 @@
       <c r="AD11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
+        <v>964</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>965</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" s="100" t="s">
         <v>966</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="D12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>967</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>968</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="104"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="46">
+      <c r="K12" s="43">
         <v>45423.0</v>
       </c>
       <c r="L12" s="19"/>
@@ -37617,29 +37664,29 @@
       <c r="AD12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
+        <v>968</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>969</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="C13" s="100" t="s">
         <v>970</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="D13" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>971</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>972</v>
-      </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="104"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="46">
+      <c r="K13" s="43">
         <v>45423.0</v>
       </c>
       <c r="L13" s="19"/>
@@ -37666,22 +37713,22 @@
     </row>
     <row r="14">
       <c r="A14" s="147" t="s">
+        <v>972</v>
+      </c>
+      <c r="B14" s="148" t="s">
         <v>973</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="C14" s="147" t="s">
         <v>974</v>
-      </c>
-      <c r="C14" s="147" t="s">
-        <v>975</v>
       </c>
       <c r="D14" s="147" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -37715,33 +37762,33 @@
       <c r="AD14" s="40"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
+        <v>976</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>977</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="100" t="s">
         <v>978</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="D15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>979</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>980</v>
-      </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="46" t="s">
         <v>491</v>
       </c>
       <c r="N15" s="19"/>
@@ -37763,33 +37810,33 @@
       <c r="AD15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>982</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="100" t="s">
         <v>983</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>984</v>
-      </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="45" t="s">
-        <v>980</v>
-      </c>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="46" t="s">
+        <v>979</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="107" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="46" t="s">
         <v>491</v>
       </c>
       <c r="N16" s="19"/>
@@ -41777,37 +41824,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>985</v>
+      </c>
+      <c r="C2" s="100" t="s">
         <v>986</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>986</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>987</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J2" s="19"/>
-      <c r="K2" s="46">
+      <c r="K2" s="43">
         <v>44727.0</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45" t="s">
-        <v>989</v>
+      <c r="N2" s="46" t="s">
+        <v>988</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41827,31 +41874,31 @@
       <c r="AB2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="61"/>
       <c r="C3" s="100"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="I3" s="104"/>
-      <c r="K3" s="46"/>
+      <c r="K3" s="43"/>
       <c r="M3" s="114"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>990</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="C4" s="100" t="s">
         <v>991</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="D4" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>993</v>
-      </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F4" s="19"/>
@@ -41859,15 +41906,15 @@
       <c r="H4" s="19"/>
       <c r="I4" s="104"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="46">
+      <c r="K4" s="43">
         <v>44727.0</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="45" t="s">
-        <v>989</v>
+      <c r="N4" s="46" t="s">
+        <v>988</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -41887,32 +41934,32 @@
       <c r="AB4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
+        <v>993</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>994</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="C5" s="100" t="s">
         <v>995</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="46" t="s">
         <v>996</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="45" t="s">
-        <v>997</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="104"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="46">
+      <c r="K5" s="43">
         <v>44727.0</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
@@ -41933,32 +41980,32 @@
       <c r="AB5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
+        <v>997</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="C6" s="100" t="s">
         <v>999</v>
       </c>
-      <c r="C6" s="100" t="s">
-        <v>1000</v>
-      </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="45" t="s">
-        <v>997</v>
+      <c r="E6" s="46" t="s">
+        <v>996</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="104"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="46">
+      <c r="K6" s="43">
         <v>44727.0</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O6" s="47" t="s">
@@ -41979,33 +42026,33 @@
       <c r="AB6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>1001</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="C7" s="100" t="s">
         <v>1002</v>
       </c>
-      <c r="C7" s="100" t="s">
-        <v>1003</v>
-      </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="45" t="s">
-        <v>997</v>
+      <c r="E7" s="46" t="s">
+        <v>996</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="104"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="46">
+      <c r="K7" s="43">
         <v>44727.0</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="45" t="s">
-        <v>1004</v>
+      <c r="N7" s="46" t="s">
+        <v>1003</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -42025,32 +42072,32 @@
       <c r="AB7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>1005</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="C8" s="100" t="s">
         <v>1006</v>
       </c>
-      <c r="C8" s="100" t="s">
-        <v>1007</v>
-      </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="45" t="s">
-        <v>997</v>
+      <c r="E8" s="46" t="s">
+        <v>996</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="104"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="46">
+      <c r="K8" s="43">
         <v>44727.0</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="47" t="s">
@@ -42071,32 +42118,32 @@
       <c r="AB8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>1008</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="C9" s="112" t="s">
         <v>1009</v>
       </c>
-      <c r="C9" s="112" t="s">
-        <v>1010</v>
-      </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="45" t="s">
-        <v>997</v>
+      <c r="E9" s="46" t="s">
+        <v>996</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="104"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="46">
+      <c r="K9" s="43">
         <v>44727.0</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="45" t="s">
+      <c r="N9" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="47" t="s">
@@ -42117,32 +42164,32 @@
       <c r="AB9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="C10" s="100" t="s">
         <v>1012</v>
       </c>
-      <c r="C10" s="100" t="s">
-        <v>1013</v>
-      </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="45" t="s">
-        <v>997</v>
+      <c r="E10" s="46" t="s">
+        <v>996</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="104"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="46">
+      <c r="K10" s="43">
         <v>44727.0</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="45" t="s">
+      <c r="N10" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O10" s="47" t="s">
@@ -42163,31 +42210,31 @@
       <c r="AB10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="61"/>
       <c r="C11" s="100"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="I11" s="104"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="43"/>
       <c r="M11" s="114"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B12" s="61" t="s">
         <v>1014</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="C12" s="100" t="s">
         <v>1015</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>993</v>
-      </c>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="46" t="s">
+        <v>992</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F12" s="19"/>
@@ -42195,15 +42242,15 @@
       <c r="H12" s="19"/>
       <c r="I12" s="104"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="46">
+      <c r="K12" s="43">
         <v>44727.0</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="45" t="s">
-        <v>989</v>
+      <c r="N12" s="46" t="s">
+        <v>988</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -42223,32 +42270,32 @@
       <c r="AB12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B13" s="61" t="s">
         <v>1017</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="C13" s="113" t="s">
         <v>1018</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="46" t="s">
         <v>1019</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="45" t="s">
-        <v>1020</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="104"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="46">
+      <c r="K13" s="43">
         <v>44727.0</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O13" s="47" t="s">
@@ -42269,32 +42316,32 @@
       <c r="AB13" s="19"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>1021</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="C14" s="100" t="s">
         <v>1022</v>
       </c>
-      <c r="C14" s="100" t="s">
-        <v>1023</v>
-      </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="45" t="s">
-        <v>1020</v>
+      <c r="E14" s="46" t="s">
+        <v>1019</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="104"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="46">
+      <c r="K14" s="43">
         <v>44727.0</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O14" s="47" t="s">
@@ -42315,33 +42362,33 @@
       <c r="AB14" s="19"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B15" s="61" t="s">
         <v>1024</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="C15" s="100" t="s">
         <v>1025</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>1026</v>
-      </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="45" t="s">
-        <v>1020</v>
+      <c r="E15" s="46" t="s">
+        <v>1019</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="104"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="46">
+      <c r="K15" s="43">
         <v>44727.0</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="45" t="s">
-        <v>1004</v>
+      <c r="N15" s="46" t="s">
+        <v>1003</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -42361,32 +42408,32 @@
       <c r="AB15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B16" s="61" t="s">
         <v>1027</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="C16" s="100" t="s">
         <v>1028</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>1029</v>
-      </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="45" t="s">
-        <v>1020</v>
+      <c r="E16" s="46" t="s">
+        <v>1019</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="104"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="46">
+      <c r="K16" s="43">
         <v>44727.0</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O16" s="47" t="s">
@@ -42407,32 +42454,32 @@
       <c r="AB16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B17" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="C17" s="100" t="s">
         <v>1031</v>
       </c>
-      <c r="C17" s="100" t="s">
-        <v>1032</v>
-      </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="45" t="s">
-        <v>1020</v>
+      <c r="E17" s="46" t="s">
+        <v>1019</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="104"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="46">
+      <c r="K17" s="43">
         <v>44727.0</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O17" s="47" t="s">
@@ -42453,32 +42500,32 @@
       <c r="AB17" s="19"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B18" s="61" t="s">
         <v>1033</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="C18" s="100" t="s">
         <v>1034</v>
       </c>
-      <c r="C18" s="100" t="s">
-        <v>1035</v>
-      </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="45" t="s">
-        <v>1020</v>
+      <c r="E18" s="46" t="s">
+        <v>1019</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="104"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="46">
+      <c r="K18" s="43">
         <v>44727.0</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="47" t="s">
@@ -42499,31 +42546,31 @@
       <c r="AB18" s="19"/>
     </row>
     <row r="19">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="100"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="I19" s="104"/>
-      <c r="K19" s="46"/>
+      <c r="K19" s="43"/>
       <c r="M19" s="114"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>1036</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="C20" s="100" t="s">
         <v>1037</v>
       </c>
-      <c r="C20" s="100" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>993</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="46" t="s">
+        <v>992</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F20" s="19"/>
@@ -42531,15 +42578,15 @@
       <c r="H20" s="19"/>
       <c r="I20" s="104"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="46">
+      <c r="K20" s="43">
         <v>44727.0</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="45" t="s">
-        <v>1004</v>
+      <c r="N20" s="46" t="s">
+        <v>1003</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -42559,32 +42606,32 @@
       <c r="AB20" s="19"/>
     </row>
     <row r="21">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>1039</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="C21" s="100" t="s">
         <v>1040</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="46" t="s">
         <v>1041</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="45" t="s">
-        <v>1042</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="104"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="46">
+      <c r="K21" s="43">
         <v>44727.0</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O21" s="47" t="s">
@@ -42605,32 +42652,32 @@
       <c r="AB21" s="19"/>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>1043</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="C22" s="100" t="s">
         <v>1044</v>
       </c>
-      <c r="C22" s="100" t="s">
-        <v>1045</v>
-      </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="45" t="s">
-        <v>1042</v>
+      <c r="E22" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="104"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="46">
+      <c r="K22" s="43">
         <v>44727.0</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="47" t="s">
@@ -42651,32 +42698,32 @@
       <c r="AB22" s="19"/>
     </row>
     <row r="23">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>1046</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="C23" s="100" t="s">
         <v>1047</v>
       </c>
-      <c r="C23" s="100" t="s">
-        <v>1048</v>
-      </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="45" t="s">
-        <v>1042</v>
+      <c r="E23" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="104"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="46">
+      <c r="K23" s="43">
         <v>44727.0</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O23" s="47" t="s">
@@ -42697,32 +42744,32 @@
       <c r="AB23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>1049</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="C24" s="100" t="s">
         <v>1050</v>
       </c>
-      <c r="C24" s="100" t="s">
-        <v>1051</v>
-      </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="45" t="s">
-        <v>1042</v>
+      <c r="E24" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="104"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="46">
+      <c r="K24" s="43">
         <v>44727.0</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O24" s="47" t="s">
@@ -42743,32 +42790,32 @@
       <c r="AB24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>1052</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="C25" s="100" t="s">
         <v>1053</v>
       </c>
-      <c r="C25" s="100" t="s">
-        <v>1054</v>
-      </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="45" t="s">
-        <v>1042</v>
+      <c r="E25" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="104"/>
       <c r="J25" s="19"/>
-      <c r="K25" s="46">
+      <c r="K25" s="43">
         <v>44727.0</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="45" t="s">
+      <c r="N25" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O25" s="47" t="s">
@@ -42789,34 +42836,34 @@
       <c r="AB25" s="19"/>
     </row>
     <row r="26">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="46" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B26" s="46" t="s">
         <v>1055</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="C26" s="100" t="s">
         <v>1056</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>1057</v>
-      </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="45" t="s">
-        <v>1042</v>
+      <c r="E26" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J26" s="19"/>
-      <c r="K26" s="46">
+      <c r="K26" s="43">
         <v>44727.0</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O26" s="47" t="s">
@@ -42837,34 +42884,34 @@
       <c r="AB26" s="19"/>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>1059</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="C27" s="100" t="s">
         <v>1060</v>
       </c>
-      <c r="C27" s="100" t="s">
-        <v>1061</v>
-      </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="45" t="s">
-        <v>1042</v>
+      <c r="E27" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J27" s="19"/>
-      <c r="K27" s="46">
+      <c r="K27" s="43">
         <v>44727.0</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="N27" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O27" s="47" t="s">
@@ -42885,44 +42932,44 @@
       <c r="AB27" s="19"/>
     </row>
     <row r="28">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="61"/>
       <c r="C28" s="100"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="I28" s="151"/>
-      <c r="K28" s="46"/>
-      <c r="M28" s="45"/>
+      <c r="K28" s="43"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="152"/>
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B29" s="61" t="s">
         <v>1063</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="C29" s="100" t="s">
         <v>1064</v>
       </c>
-      <c r="C29" s="100" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>993</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="D29" s="46" t="s">
+        <v>992</v>
+      </c>
+      <c r="E29" s="46" t="s">
         <v>596</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="151" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J29" s="19"/>
-      <c r="K29" s="46">
+      <c r="K29" s="43">
         <v>44811.0</v>
       </c>
       <c r="L29" s="19"/>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="152" t="s">
@@ -42945,23 +42992,23 @@
     </row>
     <row r="30">
       <c r="A30" s="153" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B30" s="154" t="s">
         <v>1067</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="C30" s="155" t="s">
         <v>1068</v>
-      </c>
-      <c r="C30" s="155" t="s">
-        <v>1069</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="156" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F30" s="157"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
       <c r="I30" s="151" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J30" s="158" t="s">
         <v>450</v>
@@ -42998,29 +43045,29 @@
       <c r="AD30" s="157"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B31" s="61" t="s">
         <v>1072</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="C31" s="100" t="s">
         <v>1073</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>1074</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="104"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="46">
+      <c r="K31" s="43">
         <v>44811.0</v>
       </c>
       <c r="L31" s="19"/>
-      <c r="M31" s="45" t="s">
+      <c r="M31" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N31" s="156" t="s">
@@ -43042,29 +43089,29 @@
       <c r="AB31" s="19"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B32" s="61" t="s">
         <v>1075</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="C32" s="100" t="s">
         <v>1076</v>
-      </c>
-      <c r="C32" s="100" t="s">
-        <v>1077</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="104"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="46">
+      <c r="K32" s="43">
         <v>44811.0</v>
       </c>
       <c r="L32" s="19"/>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="46" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="156" t="s">
@@ -47870,36 +47917,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>1078</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="100" t="s">
         <v>1079</v>
       </c>
-      <c r="C2" s="100" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>993</v>
-      </c>
-      <c r="F2" s="45" t="s">
+      <c r="E2" s="46" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>430</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="104"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="46">
+      <c r="K2" s="43">
         <v>44727.0</v>
       </c>
       <c r="L2" s="19"/>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O2" s="47" t="s">
@@ -47920,40 +47967,40 @@
       <c r="AB2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="100" t="s">
         <v>1082</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="D3" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>996</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>997</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>1084</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="104"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="46">
+      <c r="K3" s="43">
         <v>44734.0</v>
       </c>
       <c r="L3" s="19"/>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -47970,40 +48017,40 @@
       <c r="AB3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>1086</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="C4" s="100" t="s">
         <v>1087</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>1084</v>
+      <c r="E4" s="46" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>1083</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="104"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="46">
+      <c r="K4" s="43">
         <v>44734.0</v>
       </c>
       <c r="L4" s="19"/>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -48020,40 +48067,40 @@
       <c r="AB4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>1089</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="100" t="s">
         <v>1090</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>1084</v>
+      <c r="E5" s="46" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>1083</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="104"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="46">
+      <c r="K5" s="43">
         <v>44734.0</v>
       </c>
       <c r="L5" s="19"/>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="46" t="s">
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1092">
   <si>
     <t>Term</t>
   </si>
@@ -3108,6 +3108,9 @@
   </si>
   <si>
     <t>Indicates information about storage condition</t>
+  </si>
+  <si>
+    <t>dpv:hasProcessingCondition</t>
   </si>
   <si>
     <r>
@@ -37160,13 +37163,13 @@
         <v>897</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>892</v>
+        <v>930</v>
       </c>
       <c r="G3" s="136"/>
       <c r="H3" s="136"/>
       <c r="I3" s="136"/>
       <c r="J3" s="137" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K3" s="132">
         <v>44786.0</v>
@@ -37199,13 +37202,13 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>17</v>
@@ -37249,19 +37252,19 @@
     </row>
     <row r="5">
       <c r="A5" s="141" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B5" s="141" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C5" s="129" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>430</v>
@@ -37303,13 +37306,13 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>17</v>
@@ -37355,13 +37358,13 @@
     </row>
     <row r="7">
       <c r="A7" s="141" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>17</v>
@@ -37375,7 +37378,7 @@
       <c r="G7" s="130"/>
       <c r="H7" s="130"/>
       <c r="I7" s="46" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="132">
@@ -37409,19 +37412,19 @@
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>430</v>
@@ -37429,7 +37432,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="144" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="145">
@@ -37442,7 +37445,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O8" s="146" t="s">
         <v>101</v>
@@ -37465,19 +37468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="142" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B9" s="143" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>430</v>
@@ -37485,7 +37488,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="144" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="145">
@@ -37498,7 +37501,7 @@
         <v>23</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O9" s="146" t="s">
         <v>876</v>
@@ -37521,13 +37524,13 @@
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>17</v>
@@ -37569,19 +37572,19 @@
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>430</v>
@@ -37617,19 +37620,19 @@
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>430</v>
@@ -37665,19 +37668,19 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>430</v>
@@ -37713,22 +37716,22 @@
     </row>
     <row r="14">
       <c r="A14" s="147" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C14" s="147" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D14" s="147" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -37763,19 +37766,19 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>430</v>
@@ -37783,7 +37786,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -37811,19 +37814,19 @@
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>430</v>
@@ -37831,7 +37834,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="107" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -41825,13 +41828,13 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>601</v>
@@ -41843,7 +41846,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="43">
@@ -41854,7 +41857,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41887,16 +41890,16 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>596</v>
@@ -41914,7 +41917,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -41935,17 +41938,17 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -41981,17 +41984,17 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -42027,17 +42030,17 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -42052,7 +42055,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -42073,17 +42076,17 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -42119,17 +42122,17 @@
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -42165,17 +42168,17 @@
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -42223,16 +42226,16 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>596</v>
@@ -42250,7 +42253,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -42271,17 +42274,17 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -42317,17 +42320,17 @@
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -42363,17 +42366,17 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -42388,7 +42391,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -42409,17 +42412,17 @@
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -42455,17 +42458,17 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -42501,17 +42504,17 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -42559,16 +42562,16 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E20" s="46" t="s">
         <v>596</v>
@@ -42586,7 +42589,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -42607,17 +42610,17 @@
     </row>
     <row r="21">
       <c r="A21" s="46" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -42653,17 +42656,17 @@
     </row>
     <row r="22">
       <c r="A22" s="46" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -42699,17 +42702,17 @@
     </row>
     <row r="23">
       <c r="A23" s="46" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -42745,17 +42748,17 @@
     </row>
     <row r="24">
       <c r="A24" s="46" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -42791,17 +42794,17 @@
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -42837,23 +42840,23 @@
     </row>
     <row r="26">
       <c r="A26" s="46" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="43">
@@ -42885,23 +42888,23 @@
     </row>
     <row r="27">
       <c r="A27" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="43">
@@ -42944,16 +42947,16 @@
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>596</v>
@@ -42962,7 +42965,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="151" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="43">
@@ -42992,23 +42995,23 @@
     </row>
     <row r="30">
       <c r="A30" s="153" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B30" s="154" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="156" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F30" s="157"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
       <c r="I30" s="151" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J30" s="158" t="s">
         <v>450</v>
@@ -43046,17 +43049,17 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -43090,17 +43093,17 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -47918,19 +47921,19 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>430</v>
@@ -47968,22 +47971,22 @@
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -48000,7 +48003,7 @@
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -48018,22 +48021,22 @@
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -48050,7 +48053,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -48068,22 +48071,22 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -48100,7 +48103,7 @@
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="1092">
   <si>
     <t>Term</t>
   </si>
@@ -3229,6 +3229,9 @@
     <t>dpv:EntityActiveInvolvement</t>
   </si>
   <si>
+    <t>dpv:hasEntity</t>
+  </si>
+  <si>
     <t>hasPassiveEntity</t>
   </si>
   <si>
@@ -3260,9 +3263,6 @@
   </si>
   <si>
     <t>Indicates the context is determined by the specified entity</t>
-  </si>
-  <si>
-    <t>dpv:hasEntity</t>
   </si>
   <si>
     <t>hasActiveDataSubject</t>
@@ -30776,7 +30776,9 @@
       <c r="D58" s="116" t="s">
         <v>689</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="46" t="s">
+        <v>596</v>
+      </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
@@ -37586,8 +37588,8 @@
       <c r="E11" s="46" t="s">
         <v>964</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>430</v>
+      <c r="F11" s="147" t="s">
+        <v>965</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -37620,22 +37622,22 @@
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>968</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>430</v>
+        <v>969</v>
+      </c>
+      <c r="F12" s="147" t="s">
+        <v>965</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -37668,22 +37670,22 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>972</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>430</v>
+        <v>973</v>
+      </c>
+      <c r="F13" s="147" t="s">
+        <v>965</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -37716,13 +37718,13 @@
     </row>
     <row r="14">
       <c r="A14" s="147" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C14" s="147" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D14" s="147" t="s">
         <v>17</v>
@@ -37731,7 +37733,7 @@
         <v>955</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1094">
   <si>
     <t>Term</t>
   </si>
@@ -2402,6 +2402,9 @@
     <t>dpv:EntityPermissiveInvolvement</t>
   </si>
   <si>
+    <t>Harshvardhan J. Pandit, Delaram Golpayegani, Steve Hickman</t>
+  </si>
+  <si>
     <t>OptingOutFromProcess</t>
   </si>
   <si>
@@ -2667,6 +2670,9 @@
   </si>
   <si>
     <t>Involvement where entity is 'actively' involved</t>
+  </si>
+  <si>
+    <t>Delaram Golpayegani</t>
   </si>
   <si>
     <t>EntityPassiveInvolvement</t>
@@ -29392,7 +29398,9 @@
       <c r="M26" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="46"/>
+      <c r="N26" s="46" t="s">
+        <v>617</v>
+      </c>
       <c r="O26" s="46"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -29438,7 +29446,9 @@
       <c r="M27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="46"/>
+      <c r="N27" s="46" t="s">
+        <v>617</v>
+      </c>
       <c r="O27" s="46"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -29482,7 +29492,9 @@
       <c r="M28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="19"/>
+      <c r="N28" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -29502,13 +29514,13 @@
     </row>
     <row r="29">
       <c r="A29" s="46" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="46" t="s">
@@ -29526,7 +29538,9 @@
       <c r="M29" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="19"/>
+      <c r="N29" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -29546,13 +29560,13 @@
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="46" t="s">
@@ -29570,7 +29584,9 @@
       <c r="M30" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="19"/>
+      <c r="N30" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -29590,13 +29606,13 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="46" t="s">
@@ -29614,7 +29630,9 @@
       <c r="M31" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="19"/>
+      <c r="N31" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -29634,13 +29652,13 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="46" t="s">
@@ -29650,7 +29668,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="43">
@@ -29660,7 +29678,9 @@
       <c r="M32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="19"/>
+      <c r="N32" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -29680,13 +29700,13 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="46" t="s">
@@ -29696,7 +29716,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="46" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="43">
@@ -29706,7 +29726,9 @@
       <c r="M33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="19"/>
+      <c r="N33" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
@@ -29726,13 +29748,13 @@
     </row>
     <row r="34">
       <c r="A34" s="46" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="46" t="s">
@@ -29742,7 +29764,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="46" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="43">
@@ -29752,7 +29774,9 @@
       <c r="M34" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="19"/>
+      <c r="N34" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -29772,13 +29796,13 @@
     </row>
     <row r="35">
       <c r="A35" s="46" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="46" t="s">
@@ -29788,7 +29812,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="107" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="43">
@@ -29798,7 +29822,9 @@
       <c r="M35" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -29818,13 +29844,13 @@
     </row>
     <row r="36">
       <c r="A36" s="46" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="46" t="s">
@@ -29834,7 +29860,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="46" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J36" s="19"/>
       <c r="K36" s="43">
@@ -29844,7 +29870,9 @@
       <c r="M36" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -29864,13 +29892,13 @@
     </row>
     <row r="37">
       <c r="A37" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D37" s="116"/>
       <c r="E37" s="46" t="s">
@@ -29880,7 +29908,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="107" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="43">
@@ -29890,7 +29918,9 @@
       <c r="M37" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="46"/>
+      <c r="N37" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O37" s="46"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -29910,13 +29940,13 @@
     </row>
     <row r="38">
       <c r="A38" s="46" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="46" t="s">
@@ -29934,7 +29964,9 @@
       <c r="M38" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="46"/>
+      <c r="N38" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O38" s="46"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -29954,13 +29986,13 @@
     </row>
     <row r="39">
       <c r="A39" s="46" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="46" t="s">
@@ -29978,7 +30010,9 @@
       <c r="M39" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="46"/>
+      <c r="N39" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O39" s="46"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -29998,13 +30032,13 @@
     </row>
     <row r="40">
       <c r="A40" s="46" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="46" t="s">
@@ -30014,7 +30048,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="46" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="43">
@@ -30024,7 +30058,9 @@
       <c r="M40" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="46"/>
+      <c r="N40" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O40" s="46"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -30044,13 +30080,13 @@
     </row>
     <row r="41">
       <c r="A41" s="69" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D41" s="116" t="s">
         <v>689</v>
@@ -30070,7 +30106,9 @@
       <c r="M41" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="46"/>
+      <c r="N41" s="46" t="s">
+        <v>617</v>
+      </c>
       <c r="O41" s="46"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -30090,17 +30128,17 @@
     </row>
     <row r="42">
       <c r="A42" s="46" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -30114,7 +30152,9 @@
       <c r="M42" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="19"/>
+      <c r="N42" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -30134,17 +30174,17 @@
     </row>
     <row r="43">
       <c r="A43" s="46" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -30158,7 +30198,9 @@
       <c r="M43" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="19"/>
+      <c r="N43" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -30178,17 +30220,17 @@
     </row>
     <row r="44">
       <c r="A44" s="46" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -30202,7 +30244,9 @@
       <c r="M44" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="19"/>
+      <c r="N44" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -30222,17 +30266,17 @@
     </row>
     <row r="45">
       <c r="A45" s="46" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -30246,7 +30290,9 @@
       <c r="M45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="19"/>
+      <c r="N45" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -30266,23 +30312,23 @@
     </row>
     <row r="46">
       <c r="A46" s="46" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="43">
@@ -30292,7 +30338,9 @@
       <c r="M46" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="19"/>
+      <c r="N46" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -30312,23 +30360,23 @@
     </row>
     <row r="47">
       <c r="A47" s="46" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="46" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="43">
@@ -30338,7 +30386,9 @@
       <c r="M47" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="19"/>
+      <c r="N47" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -30358,17 +30408,17 @@
     </row>
     <row r="48">
       <c r="A48" s="46" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -30382,7 +30432,9 @@
       <c r="M48" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="19"/>
+      <c r="N48" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -30402,17 +30454,17 @@
     </row>
     <row r="49">
       <c r="A49" s="46" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -30426,7 +30478,9 @@
       <c r="M49" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="19"/>
+      <c r="N49" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -30446,23 +30500,23 @@
     </row>
     <row r="50">
       <c r="A50" s="46" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="46" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J50" s="19"/>
       <c r="K50" s="43">
@@ -30472,7 +30526,9 @@
       <c r="M50" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="19"/>
+      <c r="N50" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -30492,17 +30548,17 @@
     </row>
     <row r="51">
       <c r="A51" s="46" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -30516,7 +30572,9 @@
       <c r="M51" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="19"/>
+      <c r="N51" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -30536,17 +30594,17 @@
     </row>
     <row r="52">
       <c r="A52" s="46" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -30560,7 +30618,9 @@
       <c r="M52" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="46"/>
+      <c r="N52" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O52" s="46"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -30580,17 +30640,17 @@
     </row>
     <row r="53">
       <c r="A53" s="46" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -30604,7 +30664,9 @@
       <c r="M53" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="46"/>
+      <c r="N53" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O53" s="46"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -30624,23 +30686,23 @@
     </row>
     <row r="54">
       <c r="A54" s="46" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
       <c r="I54" s="46" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J54" s="19"/>
       <c r="K54" s="43">
@@ -30650,7 +30712,9 @@
       <c r="M54" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="46"/>
+      <c r="N54" s="46" t="s">
+        <v>694</v>
+      </c>
       <c r="O54" s="46"/>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -30673,13 +30737,13 @@
     </row>
     <row r="56">
       <c r="A56" s="46" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D56" s="116" t="s">
         <v>689</v>
@@ -30699,7 +30763,9 @@
       <c r="M56" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="19"/>
+      <c r="N56" s="46" t="s">
+        <v>784</v>
+      </c>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -30719,13 +30785,13 @@
     </row>
     <row r="57">
       <c r="A57" s="46" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D57" s="116" t="s">
         <v>689</v>
@@ -30745,7 +30811,9 @@
       <c r="M57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="19"/>
+      <c r="N57" s="46" t="s">
+        <v>784</v>
+      </c>
       <c r="O57" s="19"/>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -30765,13 +30833,13 @@
     </row>
     <row r="58">
       <c r="A58" s="46" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D58" s="116" t="s">
         <v>689</v>
@@ -30791,7 +30859,9 @@
       <c r="M58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="19"/>
+      <c r="N58" s="46" t="s">
+        <v>784</v>
+      </c>
       <c r="O58" s="19"/>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -30816,13 +30886,13 @@
     </row>
     <row r="60">
       <c r="A60" s="69" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C60" s="100" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D60" s="116" t="s">
         <v>689</v>
@@ -30834,7 +30904,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="107" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="43">
@@ -30870,23 +30940,23 @@
     </row>
     <row r="61">
       <c r="A61" s="46" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C61" s="100" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D61" s="118"/>
       <c r="E61" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="107" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J61" s="105"/>
       <c r="K61" s="43">
@@ -30918,23 +30988,23 @@
     </row>
     <row r="62">
       <c r="A62" s="46" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C62" s="100" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D62" s="118"/>
       <c r="E62" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="107" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J62" s="105"/>
       <c r="K62" s="43">
@@ -30966,23 +31036,23 @@
     </row>
     <row r="63">
       <c r="A63" s="46" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C63" s="100" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D63" s="118"/>
       <c r="E63" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="107" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J63" s="105"/>
       <c r="K63" s="43">
@@ -31014,23 +31084,23 @@
     </row>
     <row r="64">
       <c r="A64" s="46" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D64" s="118"/>
       <c r="E64" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="107" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="J64" s="105"/>
       <c r="K64" s="43">
@@ -31062,23 +31132,23 @@
     </row>
     <row r="65">
       <c r="A65" s="46" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C65" s="100" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D65" s="118"/>
       <c r="E65" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="107" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J65" s="105"/>
       <c r="K65" s="43">
@@ -31112,23 +31182,23 @@
     </row>
     <row r="66">
       <c r="A66" s="46" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C66" s="100" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D66" s="118"/>
       <c r="E66" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="107" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="J66" s="105"/>
       <c r="K66" s="43">
@@ -31162,23 +31232,23 @@
     </row>
     <row r="67">
       <c r="A67" s="46" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C67" s="100" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D67" s="118"/>
       <c r="E67" s="116" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="107" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J67" s="105"/>
       <c r="K67" s="43">
@@ -31212,23 +31282,23 @@
     </row>
     <row r="68">
       <c r="A68" s="46" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C68" s="100" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D68" s="46"/>
       <c r="E68" s="46" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="107" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J68" s="105"/>
       <c r="K68" s="43">
@@ -31272,7 +31342,7 @@
     </row>
     <row r="70">
       <c r="A70" s="69" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B70" s="61"/>
       <c r="C70" s="100"/>
@@ -31288,16 +31358,16 @@
     </row>
     <row r="71">
       <c r="A71" s="46" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C71" s="100" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E71" s="46" t="s">
         <v>18</v>
@@ -31306,7 +31376,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="107" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J71" s="105"/>
       <c r="K71" s="43">
@@ -31319,7 +31389,7 @@
         <v>23</v>
       </c>
       <c r="N71" s="46" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O71" s="114"/>
       <c r="P71" s="19"/>
@@ -31340,13 +31410,13 @@
     </row>
     <row r="72">
       <c r="A72" s="114" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B72" s="115" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C72" s="119" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D72" s="46" t="s">
         <v>601</v>
@@ -31358,7 +31428,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="120" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J72" s="114"/>
       <c r="K72" s="43">
@@ -31392,16 +31462,16 @@
     </row>
     <row r="73">
       <c r="A73" s="46" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C73" s="100" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E73" s="46" t="s">
         <v>18</v>
@@ -31419,7 +31489,7 @@
         <v>23</v>
       </c>
       <c r="N73" s="46" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O73" s="114"/>
       <c r="P73" s="19"/>
@@ -31440,16 +31510,16 @@
     </row>
     <row r="74">
       <c r="A74" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="B74" s="61" t="s">
+        <v>844</v>
+      </c>
+      <c r="C74" s="100" t="s">
+        <v>845</v>
+      </c>
+      <c r="D74" s="46" t="s">
         <v>841</v>
-      </c>
-      <c r="B74" s="61" t="s">
-        <v>842</v>
-      </c>
-      <c r="C74" s="100" t="s">
-        <v>843</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>839</v>
       </c>
       <c r="E74" s="46" t="s">
         <v>18</v>
@@ -31458,7 +31528,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="107" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J74" s="114"/>
       <c r="K74" s="43">
@@ -31469,7 +31539,7 @@
         <v>23</v>
       </c>
       <c r="N74" s="46" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O74" s="114"/>
       <c r="P74" s="19"/>
@@ -31490,16 +31560,16 @@
     </row>
     <row r="75">
       <c r="A75" s="46" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C75" s="100" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E75" s="46" t="s">
         <v>18</v>
@@ -31536,16 +31606,16 @@
     </row>
     <row r="76">
       <c r="A76" s="46" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C76" s="100" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D76" s="46" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E76" s="46" t="s">
         <v>18</v>
@@ -31582,16 +31652,16 @@
     </row>
     <row r="77">
       <c r="A77" s="46" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C77" s="100" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E77" s="46" t="s">
         <v>18</v>
@@ -31642,7 +31712,7 @@
     </row>
     <row r="79">
       <c r="A79" s="69" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="100"/>
@@ -31658,13 +31728,13 @@
     </row>
     <row r="80">
       <c r="A80" s="114" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B80" s="115" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>601</v>
@@ -31710,17 +31780,17 @@
     </row>
     <row r="81">
       <c r="A81" s="46" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C81" s="100" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="46" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -31760,17 +31830,17 @@
     </row>
     <row r="82">
       <c r="A82" s="46" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C82" s="100" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="46" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -31810,23 +31880,23 @@
     </row>
     <row r="83">
       <c r="A83" s="46" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C83" s="100" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D83" s="46"/>
       <c r="E83" s="46" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="107" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="J83" s="105"/>
       <c r="K83" s="43">
@@ -31858,13 +31928,13 @@
     </row>
     <row r="84">
       <c r="A84" s="114" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B84" s="115" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C84" s="111" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D84" s="46" t="s">
         <v>601</v>
@@ -31906,13 +31976,13 @@
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>17</v>
@@ -31924,7 +31994,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="122" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="10">
@@ -31938,7 +32008,7 @@
         <v>95</v>
       </c>
       <c r="O86" s="123" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
@@ -31958,13 +32028,13 @@
     </row>
     <row r="87">
       <c r="A87" s="69" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C87" s="100" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>601</v>
@@ -31976,7 +32046,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="107" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J87" s="19"/>
       <c r="K87" s="43">
@@ -32006,17 +32076,17 @@
     </row>
     <row r="88">
       <c r="A88" s="46" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C88" s="100" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="46" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
@@ -32050,23 +32120,23 @@
     </row>
     <row r="89">
       <c r="A89" s="114" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B89" s="115" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C89" s="100" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="25" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="107" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="J89" s="106" t="s">
         <v>450</v>
@@ -32104,16 +32174,16 @@
     </row>
     <row r="91">
       <c r="A91" s="69" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D91" s="46" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E91" s="46" t="s">
         <v>596</v>
@@ -32131,7 +32201,7 @@
         <v>23</v>
       </c>
       <c r="N91" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O91" s="124" t="s">
         <v>25</v>
@@ -32154,16 +32224,16 @@
     </row>
     <row r="92">
       <c r="A92" s="46" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B92" s="99" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C92" s="46" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D92" s="46" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>596</v>
@@ -32181,7 +32251,7 @@
         <v>23</v>
       </c>
       <c r="N92" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O92" s="124" t="s">
         <v>25</v>
@@ -32204,16 +32274,16 @@
     </row>
     <row r="93">
       <c r="A93" s="46" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B93" s="99" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D93" s="46" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E93" s="46" t="s">
         <v>596</v>
@@ -32231,7 +32301,7 @@
         <v>23</v>
       </c>
       <c r="N93" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O93" s="124" t="s">
         <v>25</v>
@@ -32254,16 +32324,16 @@
     </row>
     <row r="94">
       <c r="A94" s="46" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B94" s="99" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D94" s="46" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E94" s="46" t="s">
         <v>596</v>
@@ -32281,7 +32351,7 @@
         <v>23</v>
       </c>
       <c r="N94" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O94" s="124" t="s">
         <v>25</v>
@@ -32304,16 +32374,16 @@
     </row>
     <row r="95">
       <c r="A95" s="46" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B95" s="99" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C95" s="46" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D95" s="46" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>596</v>
@@ -32331,7 +32401,7 @@
         <v>23</v>
       </c>
       <c r="N95" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O95" s="124" t="s">
         <v>25</v>
@@ -32354,13 +32424,13 @@
     </row>
     <row r="96">
       <c r="A96" s="114" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B96" s="115" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C96" s="119" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="25" t="s">
@@ -32409,13 +32479,13 @@
     </row>
     <row r="98">
       <c r="A98" s="69" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C98" s="100" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D98" s="46" t="s">
         <v>601</v>
@@ -32455,16 +32525,16 @@
     </row>
     <row r="99">
       <c r="A99" s="46" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C99" s="100" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D99" s="46" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E99" s="46" t="s">
         <v>596</v>
@@ -32503,16 +32573,16 @@
     </row>
     <row r="100">
       <c r="A100" s="46" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C100" s="100" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>596</v>
@@ -37098,19 +37168,19 @@
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="129" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>430</v>
@@ -37127,7 +37197,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="O2" s="133" t="s">
         <v>50</v>
@@ -37150,28 +37220,28 @@
     </row>
     <row r="3">
       <c r="A3" s="134" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="134" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G3" s="136"/>
       <c r="H3" s="136"/>
       <c r="I3" s="136"/>
       <c r="J3" s="137" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="K3" s="132">
         <v>44786.0</v>
@@ -37181,7 +37251,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="129" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O3" s="139" t="s">
         <v>25</v>
@@ -37204,19 +37274,19 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="129" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>430</v>
@@ -37254,19 +37324,19 @@
     </row>
     <row r="5">
       <c r="A5" s="141" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B5" s="141" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C5" s="129" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>430</v>
@@ -37285,7 +37355,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="129" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="O5" s="133" t="s">
         <v>101</v>
@@ -37308,13 +37378,13 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>17</v>
@@ -37360,19 +37430,19 @@
     </row>
     <row r="7">
       <c r="A7" s="141" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>430</v>
@@ -37380,7 +37450,7 @@
       <c r="G7" s="130"/>
       <c r="H7" s="130"/>
       <c r="I7" s="46" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="132">
@@ -37391,7 +37461,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="129" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="O7" s="133" t="s">
         <v>50</v>
@@ -37414,19 +37484,19 @@
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>430</v>
@@ -37434,7 +37504,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="144" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="145">
@@ -37447,7 +37517,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="O8" s="146" t="s">
         <v>101</v>
@@ -37470,19 +37540,19 @@
     </row>
     <row r="9">
       <c r="A9" s="142" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B9" s="143" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>430</v>
@@ -37490,7 +37560,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="144" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="145">
@@ -37503,10 +37573,10 @@
         <v>23</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="O9" s="146" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
@@ -37526,13 +37596,13 @@
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>17</v>
@@ -37574,22 +37644,22 @@
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F11" s="147" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -37622,22 +37692,22 @@
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F12" s="147" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -37670,22 +37740,22 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F13" s="147" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -37718,22 +37788,22 @@
     </row>
     <row r="14">
       <c r="A14" s="147" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C14" s="147" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D14" s="147" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -37768,19 +37838,19 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>430</v>
@@ -37788,7 +37858,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -37816,19 +37886,19 @@
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>430</v>
@@ -37836,7 +37906,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="107" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -41830,13 +41900,13 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>601</v>
@@ -41848,7 +41918,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="43">
@@ -41859,7 +41929,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41892,16 +41962,16 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>596</v>
@@ -41919,7 +41989,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -41940,17 +42010,17 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -41986,17 +42056,17 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -42032,17 +42102,17 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -42057,7 +42127,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -42078,17 +42148,17 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -42124,17 +42194,17 @@
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -42170,17 +42240,17 @@
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -42228,16 +42298,16 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>596</v>
@@ -42255,7 +42325,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -42276,17 +42346,17 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -42322,17 +42392,17 @@
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -42368,17 +42438,17 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -42393,7 +42463,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -42414,17 +42484,17 @@
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -42460,17 +42530,17 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -42506,17 +42576,17 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -42564,16 +42634,16 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E20" s="46" t="s">
         <v>596</v>
@@ -42591,7 +42661,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -42612,17 +42682,17 @@
     </row>
     <row r="21">
       <c r="A21" s="46" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -42658,17 +42728,17 @@
     </row>
     <row r="22">
       <c r="A22" s="46" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -42704,17 +42774,17 @@
     </row>
     <row r="23">
       <c r="A23" s="46" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -42750,17 +42820,17 @@
     </row>
     <row r="24">
       <c r="A24" s="46" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -42796,17 +42866,17 @@
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -42842,23 +42912,23 @@
     </row>
     <row r="26">
       <c r="A26" s="46" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="43">
@@ -42890,23 +42960,23 @@
     </row>
     <row r="27">
       <c r="A27" s="46" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="43">
@@ -42949,16 +43019,16 @@
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>596</v>
@@ -42967,7 +43037,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="151" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="43">
@@ -42997,23 +43067,23 @@
     </row>
     <row r="30">
       <c r="A30" s="153" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B30" s="154" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="156" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="F30" s="157"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
       <c r="I30" s="151" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="J30" s="158" t="s">
         <v>450</v>
@@ -43051,17 +43121,17 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -43095,17 +43165,17 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -47923,19 +47993,19 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>430</v>
@@ -47973,22 +48043,22 @@
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -48005,7 +48075,7 @@
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -48023,22 +48093,22 @@
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -48055,7 +48125,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -48073,22 +48143,22 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -48105,7 +48175,7 @@
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>

--- a/code/vocab_csv/purpose_processing.xlsx
+++ b/code/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1094">
   <si>
     <t>Term</t>
   </si>
@@ -3232,9 +3232,6 @@
     <t>indicates the entity is actively involved in specified context</t>
   </si>
   <si>
-    <t>dpv:EntityActiveInvolvement</t>
-  </si>
-  <si>
     <t>dpv:hasEntity</t>
   </si>
   <si>
@@ -3247,9 +3244,6 @@
     <t>indicates the entity is passively involved in specified context</t>
   </si>
   <si>
-    <t>dpv:EntityPassiveInvolvement</t>
-  </si>
-  <si>
     <t>hasNonInvolvedEntity</t>
   </si>
   <si>
@@ -3259,9 +3253,6 @@
     <t>indicates the entity is not involved in specified context</t>
   </si>
   <si>
-    <t>dpv:EntityNoInvolvement</t>
-  </si>
-  <si>
     <t>isDeterminedByEntity</t>
   </si>
   <si>
@@ -3613,7 +3604,16 @@
     <t>has geographic coverage</t>
   </si>
   <si>
-    <t>Indicate the geographic coverage (of specified context)</t>
+    <t>Indicates the geographic coverage (of specified context)</t>
+  </si>
+  <si>
+    <t>hasProcessingScale</t>
+  </si>
+  <si>
+    <t>has processing scale</t>
+  </si>
+  <si>
+    <t>Indicates the scale of processing operations</t>
   </si>
 </sst>
 </file>
@@ -28642,7 +28642,9 @@
       <c r="C10" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E10" s="116" t="s">
         <v>620</v>
       </c>
@@ -28694,7 +28696,9 @@
       <c r="C11" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E11" s="116" t="s">
         <v>620</v>
       </c>
@@ -28746,7 +28750,9 @@
       <c r="C12" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="D12" s="116"/>
+      <c r="D12" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E12" s="116" t="s">
         <v>620</v>
       </c>
@@ -28798,7 +28804,9 @@
       <c r="C13" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E13" s="116" t="s">
         <v>620</v>
       </c>
@@ -28850,7 +28858,9 @@
       <c r="C14" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E14" s="116" t="s">
         <v>620</v>
       </c>
@@ -28902,7 +28912,9 @@
       <c r="C15" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E15" s="116" t="s">
         <v>620</v>
       </c>
@@ -28954,7 +28966,9 @@
       <c r="C16" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="116" t="s">
+        <v>620</v>
+      </c>
       <c r="E16" s="116" t="s">
         <v>620</v>
       </c>
@@ -37655,11 +37669,11 @@
       <c r="D11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="147" t="s">
+        <v>957</v>
+      </c>
+      <c r="F11" s="147" t="s">
         <v>966</v>
-      </c>
-      <c r="F11" s="147" t="s">
-        <v>967</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -37692,22 +37706,22 @@
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>968</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="C12" s="100" t="s">
         <v>969</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>970</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>971</v>
+      <c r="E12" s="147" t="s">
+        <v>957</v>
       </c>
       <c r="F12" s="147" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -37740,22 +37754,22 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
+        <v>970</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>971</v>
+      </c>
+      <c r="C13" s="100" t="s">
         <v>972</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>973</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>974</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>975</v>
+      <c r="E13" s="147" t="s">
+        <v>957</v>
       </c>
       <c r="F13" s="147" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -37788,13 +37802,13 @@
     </row>
     <row r="14">
       <c r="A14" s="147" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C14" s="147" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D14" s="147" t="s">
         <v>17</v>
@@ -37803,7 +37817,7 @@
         <v>957</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -37838,19 +37852,19 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>430</v>
@@ -37858,7 +37872,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="107" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -37886,19 +37900,19 @@
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>430</v>
@@ -37906,7 +37920,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="107" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -41900,13 +41914,13 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>601</v>
@@ -41918,7 +41932,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="107" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="43">
@@ -41929,7 +41943,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>101</v>
@@ -41962,16 +41976,16 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>990</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>991</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>992</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>993</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>994</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>995</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>596</v>
@@ -41989,7 +42003,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>101</v>
@@ -42010,17 +42024,17 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -42056,17 +42070,17 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -42102,17 +42116,17 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -42127,7 +42141,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>101</v>
@@ -42148,17 +42162,17 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -42194,17 +42208,17 @@
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -42240,17 +42254,17 @@
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -42298,16 +42312,16 @@
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>596</v>
@@ -42325,7 +42339,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O12" s="47" t="s">
         <v>101</v>
@@ -42346,17 +42360,17 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -42392,17 +42406,17 @@
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -42438,17 +42452,17 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -42463,7 +42477,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="O15" s="47" t="s">
         <v>101</v>
@@ -42484,17 +42498,17 @@
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -42530,17 +42544,17 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -42576,17 +42590,17 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -42634,16 +42648,16 @@
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E20" s="46" t="s">
         <v>596</v>
@@ -42661,7 +42675,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>101</v>
@@ -42682,17 +42696,17 @@
     </row>
     <row r="21">
       <c r="A21" s="46" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -42728,17 +42742,17 @@
     </row>
     <row r="22">
       <c r="A22" s="46" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -42774,17 +42788,17 @@
     </row>
     <row r="23">
       <c r="A23" s="46" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -42820,17 +42834,17 @@
     </row>
     <row r="24">
       <c r="A24" s="46" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -42866,17 +42880,17 @@
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -42912,23 +42926,23 @@
     </row>
     <row r="26">
       <c r="A26" s="46" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="107" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="43">
@@ -42960,23 +42974,23 @@
     </row>
     <row r="27">
       <c r="A27" s="46" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="107" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="43">
@@ -43019,16 +43033,16 @@
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>596</v>
@@ -43037,7 +43051,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="151" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="43">
@@ -43067,23 +43081,23 @@
     </row>
     <row r="30">
       <c r="A30" s="153" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B30" s="154" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="156" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F30" s="157"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
       <c r="I30" s="151" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="J30" s="158" t="s">
         <v>450</v>
@@ -43121,17 +43135,17 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="114" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -43165,17 +43179,17 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="114" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -47993,19 +48007,19 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>430</v>
@@ -48043,22 +48057,22 @@
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -48075,7 +48089,7 @@
         <v>95</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -48093,22 +48107,22 @@
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -48125,7 +48139,7 @@
         <v>95</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -48143,22 +48157,22 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -48175,7 +48189,7 @@
         <v>95</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -48192,8 +48206,48 @@
       <c r="AB5" s="19"/>
     </row>
     <row r="6">
-      <c r="C6" s="110"/>
+      <c r="A6" s="46" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="104"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
     </row>
     <row r="7">
       <c r="C7" s="110"/>
